--- a/5_analisis_de_resultados/DB/validation_results.xlsx
+++ b/5_analisis_de_resultados/DB/validation_results.xlsx
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I2" t="n">
         <v>0.9999995972635767</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I4" t="n">
         <v>0.9999999213506507</v>
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I5" t="n">
         <v>0.9953667624971186</v>
@@ -649,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I6" t="n">
         <v>0.9998750729443322</v>
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I7" t="n">
         <v>0.9589145756650578</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I8" t="n">
         <v>0.9958311761352511</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I10" t="n">
         <v>0.9998936040234774</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2828352451324463</v>
+        <v>0.3064930438995361</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I12" t="n">
         <v>0.9995811118072994</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I13" t="n">
         <v>0.9318181818181819</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I15" t="n">
         <v>0.927815790633807</v>
@@ -999,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I16" t="n">
         <v>0.9974815182021886</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I17" t="n">
         <v>0.9328610525854245</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I18" t="n">
         <v>0.9776131749074363</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I19" t="n">
         <v>0.9975961538461539</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I20" t="n">
         <v>0.9997245269569911</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006525993347167969</v>
+        <v>0.005811214447021484</v>
       </c>
       <c r="I21" t="n">
         <v>0.9806918252043713</v>
@@ -1209,7 +1209,7 @@
         <v>746</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I22" t="n">
         <v>0.9992305763416915</v>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I23" t="n">
         <v>0.7436978805586916</v>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I24" t="n">
         <v>0.9996163510822607</v>
@@ -1314,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I25" t="n">
         <v>0.9580814770865076</v>
@@ -1349,7 +1349,7 @@
         <v>76</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I26" t="n">
         <v>0.9999141567534682</v>
@@ -1384,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I27" t="n">
         <v>0.9415961479728784</v>
@@ -1419,7 +1419,7 @@
         <v>39</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I28" t="n">
         <v>0.8908313354842197</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I29" t="n">
         <v>0.999552723271488</v>
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I30" t="n">
         <v>0.9660876841459456</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0256037712097168</v>
+        <v>0.02299165725708008</v>
       </c>
       <c r="I31" t="n">
         <v>0.9998470933712404</v>
@@ -1559,7 +1559,7 @@
         <v>114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I32" t="n">
         <v>0.9996208879486046</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I33" t="n">
         <v>0.846938775510204</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I34" t="n">
         <v>0.9992553090703489</v>
@@ -1664,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="H35" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I35" t="n">
         <v>0.8988801813950157</v>
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I36" t="n">
         <v>0.9966401672628556</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I37" t="n">
         <v>0.8949675008351735</v>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I38" t="n">
         <v>0.9571067967474096</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I39" t="n">
         <v>0.9954954954954955</v>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I40" t="n">
         <v>0.9995696175604922</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.434343099594116</v>
+        <v>1.415283679962158</v>
       </c>
       <c r="I41" t="n">
         <v>0.9969512195121951</v>
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I42" t="n">
         <v>0.999998114457499</v>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I43" t="n">
         <v>0.9987335834896811</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I44" t="n">
         <v>0.9999997246180363</v>
@@ -2014,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I45" t="n">
         <v>0.9960607118796637</v>
@@ -2049,7 +2049,7 @@
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I46" t="n">
         <v>0.9997560870158967</v>
@@ -2084,7 +2084,7 @@
         <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I47" t="n">
         <v>0.984130687645478</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I50" t="n">
         <v>0.999893995443905</v>
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3065705299377441</v>
+        <v>0.3241405487060547</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I52" t="n">
         <v>0.9995910956377173</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I53" t="n">
         <v>0.8979601562884917</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I55" t="n">
         <v>0.953741120900783</v>
@@ -2399,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I56" t="n">
         <v>0.9978212652621351</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I57" t="n">
         <v>0.896234859220527</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I58" t="n">
         <v>0.9554792362931447</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I59" t="n">
         <v>0.9952153110047847</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I60" t="n">
         <v>0.9997630893153282</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005499601364135742</v>
+        <v>0.005513429641723633</v>
       </c>
       <c r="I61" t="n">
         <v>0.9810126582278481</v>
@@ -2609,7 +2609,7 @@
         <v>754</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I62" t="n">
         <v>0.9993763986116824</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I63" t="n">
         <v>0.7831145003352555</v>
@@ -2679,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I64" t="n">
         <v>0.999788044684247</v>
@@ -2714,7 +2714,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I65" t="n">
         <v>0.9366177473307222</v>
@@ -2749,7 +2749,7 @@
         <v>113</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I66" t="n">
         <v>0.9996779006883287</v>
@@ -2784,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I67" t="n">
         <v>0.9732670019989248</v>
@@ -2819,7 +2819,7 @@
         <v>33</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I68" t="n">
         <v>0.8410189191247465</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I69" t="n">
         <v>0.9986885144076698</v>
@@ -2889,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I70" t="n">
         <v>0.9642257915546948</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0252077579498291</v>
+        <v>0.02501559257507324</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>116</v>
       </c>
       <c r="H72" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I72" t="n">
         <v>0.9996025942964724</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I73" t="n">
         <v>0.83137236147191</v>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I74" t="n">
         <v>0.9995369193627702</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="H75" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I75" t="n">
         <v>0.917614799752473</v>
@@ -3099,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I76" t="n">
         <v>0.9971873911818152</v>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I77" t="n">
         <v>0.9331223143596818</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I78" t="n">
         <v>0.9694706888886376</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I79" t="n">
         <v>0.997737556561086</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I80" t="n">
         <v>0.9997396068202016</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.489275932312012</v>
+        <v>1.453099966049194</v>
       </c>
       <c r="I81" t="n">
         <v>0.9939393939393939</v>
@@ -3309,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I82" t="n">
         <v>0.9999992301459814</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I84" t="n">
         <v>0.9999999213272502</v>
@@ -3414,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I85" t="n">
         <v>0.9965671994642877</v>
@@ -3449,7 +3449,7 @@
         <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I86" t="n">
         <v>0.999930115646414</v>
@@ -3484,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I87" t="n">
         <v>0.9756921667715844</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I88" t="n">
         <v>0.9962004305828409</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I90" t="n">
         <v>0.9999999860518941</v>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3224389553070068</v>
+        <v>0.3156728744506836</v>
       </c>
       <c r="I91" t="n">
         <v>0.9997618457763385</v>
@@ -3659,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I92" t="n">
         <v>0.9995507193116855</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I93" t="n">
         <v>0.9612080195363548</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I95" t="n">
         <v>0.9482051489594997</v>
@@ -3799,7 +3799,7 @@
         <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I96" t="n">
         <v>0.9975603634264166</v>
@@ -3834,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I97" t="n">
         <v>0.8899908101648437</v>
@@ -3869,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I98" t="n">
         <v>0.9732683816837192</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I99" t="n">
         <v>0.9951760220398265</v>
@@ -3939,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I100" t="n">
         <v>0.9998430524992453</v>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.00595545768737793</v>
+        <v>0.005503177642822266</v>
       </c>
       <c r="I101" t="n">
         <v>0.9802839776374048</v>
@@ -4009,7 +4009,7 @@
         <v>728</v>
       </c>
       <c r="H102" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I102" t="n">
         <v>0.9994131642446318</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I103" t="n">
         <v>0.8922646551145349</v>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I104" t="n">
         <v>0.9995475268933285</v>
@@ -4114,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="H105" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I105" t="n">
         <v>0.9510013271257618</v>
@@ -4149,7 +4149,7 @@
         <v>82</v>
       </c>
       <c r="H106" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I106" t="n">
         <v>0.9999110369735796</v>
@@ -4184,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I107" t="n">
         <v>0.9753580771350124</v>
@@ -4219,7 +4219,7 @@
         <v>30</v>
       </c>
       <c r="H108" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I108" t="n">
         <v>0.9046672072163442</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I109" t="n">
         <v>0.9999784167618132</v>
@@ -4289,7 +4289,7 @@
         <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I110" t="n">
         <v>0.9646601660004228</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03463244438171387</v>
+        <v>0.0260157585144043</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>108</v>
       </c>
       <c r="H112" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I112" t="n">
         <v>0.9996360801777742</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I113" t="n">
         <v>0.8564514988687782</v>
@@ -4429,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I114" t="n">
         <v>0.9997188138500056</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="H115" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I115" t="n">
         <v>0.8913159839419261</v>
@@ -4499,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="H116" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I116" t="n">
         <v>0.9959313038186618</v>
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I117" t="n">
         <v>0.9547534771579251</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I118" t="n">
         <v>0.9617977517015224</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I119" t="n">
         <v>0.9932735426008968</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.683373928070068</v>
+        <v>1.453841924667358</v>
       </c>
       <c r="I121" t="n">
         <v>0.9969512195121951</v>
@@ -4709,7 +4709,7 @@
         <v>18</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I122" t="n">
         <v>0.9999873165654974</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>14</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I125" t="n">
         <v>0.9900954370527612</v>
@@ -4849,7 +4849,7 @@
         <v>27</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I126" t="n">
         <v>0.9999734441209965</v>
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I127" t="n">
         <v>0.9914848854144033</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I128" t="n">
         <v>0.9957848859721655</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I130" t="n">
         <v>0.9999469302917998</v>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3183643817901611</v>
+        <v>0.3048903942108154</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>169</v>
       </c>
       <c r="H132" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I132" t="n">
         <v>0.9994100785036032</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I133" t="n">
         <v>0.9871794871794872</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>43</v>
       </c>
       <c r="H135" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I135" t="n">
         <v>0.8297011391925581</v>
@@ -5199,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="H136" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I136" t="n">
         <v>0.9932763539702985</v>
@@ -5234,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I137" t="n">
         <v>0.8966041198146083</v>
@@ -5269,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I138" t="n">
         <v>0.9734380044169704</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I139" t="n">
         <v>0.9975961538461539</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I140" t="n">
         <v>0.9961577850513517</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>0.006545305252075195</v>
+        <v>0.006042242050170898</v>
       </c>
       <c r="I141" t="n">
         <v>0.9868559850916032</v>
@@ -5409,7 +5409,7 @@
         <v>812</v>
       </c>
       <c r="H142" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I142" t="n">
         <v>0.9994001117035096</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I143" t="n">
         <v>0.9182340469907672</v>
@@ -5479,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I144" t="n">
         <v>0.9996369888934045</v>
@@ -5514,7 +5514,7 @@
         <v>13</v>
       </c>
       <c r="H145" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I145" t="n">
         <v>0.9570549708556987</v>
@@ -5549,7 +5549,7 @@
         <v>90</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I146" t="n">
         <v>0.9994596986176888</v>
@@ -5584,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="H147" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I147" t="n">
         <v>0.9774663881883138</v>
@@ -5619,7 +5619,7 @@
         <v>32</v>
       </c>
       <c r="H148" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I148" t="n">
         <v>0.8944460126464121</v>
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I149" t="n">
         <v>0.9998530099077294</v>
@@ -5689,7 +5689,7 @@
         <v>10</v>
       </c>
       <c r="H150" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I150" t="n">
         <v>0.9738104467740823</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.0249779224395752</v>
       </c>
       <c r="I151" t="n">
         <v>0.9999999999999999</v>
@@ -5759,7 +5759,7 @@
         <v>128</v>
       </c>
       <c r="H152" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I152" t="n">
         <v>0.9996929043416195</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I153" t="n">
         <v>0.8617021276595744</v>
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="H154" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I154" t="n">
         <v>0.9991709764256392</v>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="H155" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I155" t="n">
         <v>0.9212032232336401</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="H156" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I156" t="n">
         <v>0.9976297027889192</v>
@@ -5934,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I157" t="n">
         <v>0.9047927269989953</v>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I158" t="n">
         <v>0.9590308042364136</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I159" t="n">
         <v>0.995475113122172</v>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I160" t="n">
         <v>0.9998958715043819</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.65341329574585</v>
+        <v>1.35526967048645</v>
       </c>
       <c r="I161" t="n">
         <v>0.99079754601227</v>
@@ -6109,7 +6109,7 @@
         <v>120</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I162" t="n">
         <v>0.9998913467716126</v>
@@ -6144,7 +6144,7 @@
         <v>7</v>
       </c>
       <c r="H163" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I163" t="n">
         <v>0.9393522267206478</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6214,7 +6214,7 @@
         <v>34</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I165" t="n">
         <v>0.969873806718304</v>
@@ -6249,7 +6249,7 @@
         <v>35</v>
       </c>
       <c r="H166" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I166" t="n">
         <v>0.9995878848211616</v>
@@ -6284,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I167" t="n">
         <v>0.9838184086195259</v>
@@ -6319,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I168" t="n">
         <v>0.9998402788869521</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I170" t="n">
         <v>0.9968379992860525</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3325469493865967</v>
+        <v>0.3188433647155762</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>66</v>
       </c>
       <c r="H172" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I172" t="n">
         <v>0.9994849959703292</v>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I173" t="n">
         <v>0.9466582466432528</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I174" t="n">
         <v>0.9999081842357711</v>
@@ -6564,7 +6564,7 @@
         <v>18</v>
       </c>
       <c r="H175" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I175" t="n">
         <v>0.9292761515778079</v>
@@ -6599,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I176" t="n">
         <v>0.9974475522672595</v>
@@ -6634,7 +6634,7 @@
         <v>6</v>
       </c>
       <c r="H177" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I177" t="n">
         <v>0.717779628858479</v>
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I178" t="n">
         <v>0.9650851238173939</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I179" t="n">
         <v>0.9928571428571429</v>
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I180" t="n">
         <v>0.9994768416641513</v>
@@ -6774,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>0.006141424179077148</v>
+        <v>0.005425453186035156</v>
       </c>
       <c r="I181" t="n">
         <v>0.9742041632292551</v>
@@ -6809,7 +6809,7 @@
         <v>734</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I182" t="n">
         <v>0.9992968037432133</v>
@@ -6844,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="H183" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I183" t="n">
         <v>0.8558200824742392</v>
@@ -6879,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I184" t="n">
         <v>0.9992835821919187</v>
@@ -6914,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="H185" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I185" t="n">
         <v>0.9462070471357168</v>
@@ -6949,7 +6949,7 @@
         <v>123</v>
       </c>
       <c r="H186" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I186" t="n">
         <v>0.9998804748835993</v>
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I187" t="n">
         <v>0.9878891904408147</v>
@@ -7019,7 +7019,7 @@
         <v>34</v>
       </c>
       <c r="H188" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I188" t="n">
         <v>0.8748621003193412</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I189" t="n">
         <v>0.9999784167618132</v>
@@ -7089,7 +7089,7 @@
         <v>17</v>
       </c>
       <c r="H190" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I190" t="n">
         <v>0.9674603355472031</v>
@@ -7124,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0.02916550636291504</v>
+        <v>0.02502346038818359</v>
       </c>
       <c r="I191" t="n">
         <v>0.9987468592964824</v>
@@ -7159,7 +7159,7 @@
         <v>121</v>
       </c>
       <c r="H192" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I192" t="n">
         <v>0.9995810276193868</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I193" t="n">
         <v>0.8617021276595744</v>
@@ -7229,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="H194" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I194" t="n">
         <v>0.9998101857692622</v>
@@ -7264,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="H195" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I195" t="n">
         <v>0.9132026865033839</v>
@@ -7299,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="H196" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I196" t="n">
         <v>0.9973846934186007</v>
@@ -7334,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I197" t="n">
         <v>0.8713118056536743</v>
@@ -7369,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I198" t="n">
         <v>0.9588429393980865</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I199" t="n">
         <v>0.9977272727272728</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I200" t="n">
         <v>0.9999478940491804</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>1.518051385879517</v>
+        <v>1.559277296066284</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>16</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I202" t="n">
         <v>0.9999884610498333</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -7579,7 +7579,7 @@
         <v>5</v>
       </c>
       <c r="H204" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I204" t="n">
         <v>0.9996249018864073</v>
@@ -7614,7 +7614,7 @@
         <v>10</v>
       </c>
       <c r="H205" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I205" t="n">
         <v>0.9953354066035638</v>
@@ -7649,7 +7649,7 @@
         <v>23</v>
       </c>
       <c r="H206" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I206" t="n">
         <v>0.9999852514409062</v>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="H207" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I207" t="n">
         <v>0.9977580795662473</v>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I208" t="n">
         <v>0.9959596774282824</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -7789,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I210" t="n">
         <v>0.9999470178425062</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2948253154754639</v>
+        <v>0.3049569129943848</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>59</v>
       </c>
       <c r="H212" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I212" t="n">
         <v>0.999578890651514</v>
@@ -7894,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I213" t="n">
         <v>0.9127224805986635</v>
@@ -7929,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="H214" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I214" t="n">
         <v>0.9994491054146268</v>
@@ -7964,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="H215" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I215" t="n">
         <v>0.9417474868627919</v>
@@ -7999,7 +7999,7 @@
         <v>39</v>
       </c>
       <c r="H216" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I216" t="n">
         <v>0.9975484341942489</v>
@@ -8034,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I217" t="n">
         <v>0.8920749968034666</v>
@@ -8069,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="H218" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I218" t="n">
         <v>0.9578726711300194</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I219" t="n">
         <v>0.9859154929577465</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I220" t="n">
         <v>0.9997699590479318</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="H221" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006096124649047852</v>
       </c>
       <c r="I221" t="n">
         <v>0.9934349324600242</v>
@@ -8209,7 +8209,7 @@
         <v>864</v>
       </c>
       <c r="H222" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I222" t="n">
         <v>0.9992718198208287</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I223" t="n">
         <v>0.7789608018769794</v>
@@ -8279,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="H224" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I224" t="n">
         <v>0.9997399005601374</v>
@@ -8314,7 +8314,7 @@
         <v>10</v>
       </c>
       <c r="H225" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I225" t="n">
         <v>0.9411581668761423</v>
@@ -8349,7 +8349,7 @@
         <v>101</v>
       </c>
       <c r="H226" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I226" t="n">
         <v>0.9997663362459063</v>
@@ -8384,7 +8384,7 @@
         <v>8</v>
       </c>
       <c r="H227" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I227" t="n">
         <v>0.9432191546866775</v>
@@ -8419,7 +8419,7 @@
         <v>35</v>
       </c>
       <c r="H228" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I228" t="n">
         <v>0.7664152635554841</v>
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I229" t="n">
         <v>0.9998940504117312</v>
@@ -8489,7 +8489,7 @@
         <v>8</v>
       </c>
       <c r="H230" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I230" t="n">
         <v>0.9673942773569899</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0.02235007286071777</v>
+        <v>0.02483415603637695</v>
       </c>
       <c r="I231" t="n">
         <v>0.9999225998773099</v>
@@ -8559,7 +8559,7 @@
         <v>106</v>
       </c>
       <c r="H232" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I232" t="n">
         <v>0.9996523650778064</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I233" t="n">
         <v>0.8269230769230769</v>
@@ -8629,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="H234" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I234" t="n">
         <v>0.9993544110620025</v>
@@ -8664,7 +8664,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I235" t="n">
         <v>0.9272123319232953</v>
@@ -8699,7 +8699,7 @@
         <v>33</v>
       </c>
       <c r="H236" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I236" t="n">
         <v>0.9970648849244109</v>
@@ -8734,7 +8734,7 @@
         <v>5</v>
       </c>
       <c r="H237" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I237" t="n">
         <v>0.9178727696302454</v>
@@ -8769,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I238" t="n">
         <v>0.9644066621053299</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I239" t="n">
         <v>0.9977272727272728</v>
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I240" t="n">
         <v>0.9998297677120598</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1.392324209213257</v>
+        <v>1.324403047561646</v>
       </c>
       <c r="I241" t="n">
         <v>0.9968944099378882</v>
@@ -8909,7 +8909,7 @@
         <v>16</v>
       </c>
       <c r="H242" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I242" t="n">
         <v>0.9999992788737706</v>
@@ -8944,7 +8944,7 @@
         <v>4</v>
       </c>
       <c r="H243" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I243" t="n">
         <v>0.9986238369202358</v>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -9014,7 +9014,7 @@
         <v>6</v>
       </c>
       <c r="H245" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I245" t="n">
         <v>0.9925360565379624</v>
@@ -9049,7 +9049,7 @@
         <v>26</v>
       </c>
       <c r="H246" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I246" t="n">
         <v>0.9999814559805068</v>
@@ -9084,7 +9084,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I247" t="n">
         <v>0.9787755776574929</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I249" t="n">
         <v>0.9999901671583088</v>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>0.2908637523651123</v>
+        <v>0.307621955871582</v>
       </c>
       <c r="I251" t="n">
         <v>0.9999585100989887</v>
@@ -9259,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="H252" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I252" t="n">
         <v>0.9995636933964683</v>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I253" t="n">
         <v>0.9590979641051817</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I255" t="n">
         <v>0.9312154332684235</v>
@@ -9399,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="H256" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I256" t="n">
         <v>0.9968528575805354</v>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I257" t="n">
         <v>0.9064884214920302</v>
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I258" t="n">
         <v>0.9778758604299002</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I259" t="n">
         <v>0.9928571428571429</v>
@@ -9539,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="H260" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I260" t="n">
         <v>0.9997176223470254</v>
@@ -9574,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>0.005136013031005859</v>
+        <v>0.004999160766601562</v>
       </c>
       <c r="I261" t="n">
         <v>0.9742041634219074</v>
@@ -9609,7 +9609,7 @@
         <v>758</v>
       </c>
       <c r="H262" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I262" t="n">
         <v>0.9993399913423396</v>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I263" t="n">
         <v>0.9571261100413652</v>
@@ -9679,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I264" t="n">
         <v>0.9997921270782879</v>
@@ -9714,7 +9714,7 @@
         <v>12</v>
       </c>
       <c r="H265" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I265" t="n">
         <v>0.9401273599848615</v>
@@ -9749,7 +9749,7 @@
         <v>121</v>
       </c>
       <c r="H266" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I266" t="n">
         <v>0.9997433696883089</v>
@@ -9784,7 +9784,7 @@
         <v>2</v>
       </c>
       <c r="H267" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I267" t="n">
         <v>0.9871760288885711</v>
@@ -9819,7 +9819,7 @@
         <v>10</v>
       </c>
       <c r="H268" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I268" t="n">
         <v>0.9067696407540615</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I269" t="n">
         <v>0.9997341459062726</v>
@@ -9889,7 +9889,7 @@
         <v>8</v>
       </c>
       <c r="H270" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I270" t="n">
         <v>0.9774319850817894</v>
@@ -9924,7 +9924,7 @@
         <v>2</v>
       </c>
       <c r="H271" t="n">
-        <v>0.02191472053527832</v>
+        <v>0.02466869354248047</v>
       </c>
       <c r="I271" t="n">
         <v>0.9995454461972056</v>
@@ -9959,7 +9959,7 @@
         <v>102</v>
       </c>
       <c r="H272" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I272" t="n">
         <v>0.9997078578068193</v>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I273" t="n">
         <v>0.8371693523867437</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I274" t="n">
         <v>0.9997116254645638</v>
@@ -10064,7 +10064,7 @@
         <v>45</v>
       </c>
       <c r="H275" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I275" t="n">
         <v>0.9095453973400324</v>
@@ -10099,7 +10099,7 @@
         <v>30</v>
       </c>
       <c r="H276" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I276" t="n">
         <v>0.9971401812129319</v>
@@ -10134,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I277" t="n">
         <v>0.9370252434230123</v>
@@ -10169,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="H278" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I278" t="n">
         <v>0.9587187857349596</v>
@@ -10204,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I279" t="n">
         <v>0.9910125541707765</v>
@@ -10239,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="H280" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I280" t="n">
         <v>0.9997917689162885</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>1.540434122085571</v>
+        <v>1.292963027954102</v>
       </c>
       <c r="I281" t="n">
         <v>0.9938650306748467</v>
@@ -10309,7 +10309,7 @@
         <v>17</v>
       </c>
       <c r="H282" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I282" t="n">
         <v>0.9999752422627819</v>
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I283" t="n">
         <v>0.999316357695859</v>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -10414,7 +10414,7 @@
         <v>7</v>
       </c>
       <c r="H285" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I285" t="n">
         <v>0.9944265354491285</v>
@@ -10449,7 +10449,7 @@
         <v>20</v>
       </c>
       <c r="H286" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I286" t="n">
         <v>0.9998719863728012</v>
@@ -10484,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="H287" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I287" t="n">
         <v>0.9797327823229414</v>
@@ -10519,7 +10519,7 @@
         <v>3</v>
       </c>
       <c r="H288" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I288" t="n">
         <v>0.9953664384907742</v>
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I289" t="n">
         <v>0.9999901671583088</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -10624,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="H291" t="n">
-        <v>0.3005883693695068</v>
+        <v>0.3088598251342773</v>
       </c>
       <c r="I291" t="n">
         <v>0.99222026296623</v>
@@ -10659,7 +10659,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I292" t="n">
         <v>0.9996076735177575</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I293" t="n">
         <v>0.9302325581395349</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I294" t="n">
         <v>0.9997039084090011</v>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
       <c r="H295" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I295" t="n">
         <v>0.9256224386563129</v>
@@ -10799,7 +10799,7 @@
         <v>32</v>
       </c>
       <c r="H296" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I296" t="n">
         <v>0.9975256813879431</v>
@@ -10834,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I297" t="n">
         <v>0.7691318302930992</v>
@@ -10869,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="H298" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I298" t="n">
         <v>0.959905786242649</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I299" t="n">
         <v>0.9975961538461539</v>
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I300" t="n">
         <v>0.9995468442574181</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="H301" t="n">
-        <v>0.00551295280456543</v>
+        <v>0.0059967041015625</v>
       </c>
       <c r="I301" t="n">
         <v>0.9836310110840492</v>
@@ -11009,7 +11009,7 @@
         <v>752</v>
       </c>
       <c r="H302" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I302" t="n">
         <v>0.9991986341215976</v>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I303" t="n">
         <v>0.8827393395783478</v>
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I304" t="n">
         <v>0.9997533260614579</v>
@@ -11114,7 +11114,7 @@
         <v>21</v>
       </c>
       <c r="H305" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I305" t="n">
         <v>0.9404010903343181</v>
@@ -11149,7 +11149,7 @@
         <v>86</v>
       </c>
       <c r="H306" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I306" t="n">
         <v>0.9996514265235896</v>
@@ -11184,7 +11184,7 @@
         <v>4</v>
       </c>
       <c r="H307" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I307" t="n">
         <v>0.9569301081068561</v>
@@ -11219,7 +11219,7 @@
         <v>31</v>
       </c>
       <c r="H308" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I308" t="n">
         <v>0.8932054873018235</v>
@@ -11254,7 +11254,7 @@
         <v>2</v>
       </c>
       <c r="H309" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I309" t="n">
         <v>0.9995816266780563</v>
@@ -11289,7 +11289,7 @@
         <v>13</v>
       </c>
       <c r="H310" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I310" t="n">
         <v>0.9639770708814362</v>
@@ -11324,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0.02415680885314941</v>
+        <v>0.02590632438659668</v>
       </c>
       <c r="I311" t="n">
         <v>0.999701489877388</v>
@@ -11359,7 +11359,7 @@
         <v>106</v>
       </c>
       <c r="H312" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I312" t="n">
         <v>0.9996760235004923</v>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I313" t="n">
         <v>0.79309570037754</v>
@@ -11429,7 +11429,7 @@
         <v>5</v>
       </c>
       <c r="H314" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I314" t="n">
         <v>0.9997188906259329</v>
@@ -11464,7 +11464,7 @@
         <v>46</v>
       </c>
       <c r="H315" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I315" t="n">
         <v>0.9050392141643055</v>
@@ -11499,7 +11499,7 @@
         <v>36</v>
       </c>
       <c r="H316" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I316" t="n">
         <v>0.9969737491914041</v>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H317" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I317" t="n">
         <v>0.9451797104539335</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="H318" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I318" t="n">
         <v>0.9777908443472406</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I319" t="n">
         <v>0.9912280701754386</v>
@@ -11639,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="H320" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I320" t="n">
         <v>0.9998958983725421</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>1.497168302536011</v>
+        <v>1.359801769256592</v>
       </c>
       <c r="I321" t="n">
         <v>0.9969135802469136</v>
@@ -11709,7 +11709,7 @@
         <v>15</v>
       </c>
       <c r="H322" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I322" t="n">
         <v>0.9999430612521907</v>
@@ -11744,7 +11744,7 @@
         <v>6</v>
       </c>
       <c r="H323" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I323" t="n">
         <v>0.8864884273369693</v>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -11814,7 +11814,7 @@
         <v>7</v>
       </c>
       <c r="H325" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I325" t="n">
         <v>0.9943089210703578</v>
@@ -11849,7 +11849,7 @@
         <v>22</v>
       </c>
       <c r="H326" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I326" t="n">
         <v>0.9999351233971326</v>
@@ -11884,7 +11884,7 @@
         <v>3</v>
       </c>
       <c r="H327" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I327" t="n">
         <v>0.9795620524549367</v>
@@ -11919,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="H328" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I328" t="n">
         <v>0.9946864760902967</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -11989,7 +11989,7 @@
         <v>7</v>
       </c>
       <c r="H330" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I330" t="n">
         <v>0.9998407280933789</v>
@@ -12024,7 +12024,7 @@
         <v>2</v>
       </c>
       <c r="H331" t="n">
-        <v>0.2952282428741455</v>
+        <v>0.2984342575073242</v>
       </c>
       <c r="I331" t="n">
         <v>0.9999185990982331</v>
@@ -12059,7 +12059,7 @@
         <v>146</v>
       </c>
       <c r="H332" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I332" t="n">
         <v>0.9995012455845322</v>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I333" t="n">
         <v>0.9073035906319259</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -12164,7 +12164,7 @@
         <v>37</v>
       </c>
       <c r="H335" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I335" t="n">
         <v>0.8471799559862596</v>
@@ -12199,7 +12199,7 @@
         <v>74</v>
       </c>
       <c r="H336" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I336" t="n">
         <v>0.9938075698633766</v>
@@ -12234,7 +12234,7 @@
         <v>5</v>
       </c>
       <c r="H337" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I337" t="n">
         <v>0.9152989737082389</v>
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I338" t="n">
         <v>0.9977647874478549</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I339" t="n">
         <v>0.9975961538461539</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I340" t="n">
         <v>0.9977070278595295</v>
@@ -12374,7 +12374,7 @@
         <v>3</v>
       </c>
       <c r="H341" t="n">
-        <v>0.006032943725585938</v>
+        <v>0.007156133651733398</v>
       </c>
       <c r="I341" t="n">
         <v>0.9739186324562703</v>
@@ -12409,7 +12409,7 @@
         <v>754</v>
       </c>
       <c r="H342" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I342" t="n">
         <v>0.9992160310871139</v>
@@ -12444,7 +12444,7 @@
         <v>2</v>
       </c>
       <c r="H343" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I343" t="n">
         <v>0.8519976782155501</v>
@@ -12479,7 +12479,7 @@
         <v>2</v>
       </c>
       <c r="H344" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I344" t="n">
         <v>0.9999372480896725</v>
@@ -12514,7 +12514,7 @@
         <v>11</v>
       </c>
       <c r="H345" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I345" t="n">
         <v>0.9437817948094442</v>
@@ -12549,7 +12549,7 @@
         <v>113</v>
       </c>
       <c r="H346" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I346" t="n">
         <v>0.9998292789594774</v>
@@ -12584,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="H347" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I347" t="n">
         <v>0.9724007238701017</v>
@@ -12619,7 +12619,7 @@
         <v>36</v>
       </c>
       <c r="H348" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I348" t="n">
         <v>0.8739530703002201</v>
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I349" t="n">
         <v>0.999618726041118</v>
@@ -12689,7 +12689,7 @@
         <v>3</v>
       </c>
       <c r="H350" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I350" t="n">
         <v>0.9663414923977026</v>
@@ -12724,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="H351" t="n">
-        <v>0.01993918418884277</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="I351" t="n">
         <v>0.9999225998773099</v>
@@ -12759,7 +12759,7 @@
         <v>90</v>
       </c>
       <c r="H352" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I352" t="n">
         <v>0.9996538843178966</v>
@@ -12794,7 +12794,7 @@
         <v>3</v>
       </c>
       <c r="H353" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I353" t="n">
         <v>0.8254609537524574</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>42</v>
       </c>
       <c r="H355" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I355" t="n">
         <v>0.9147422341568966</v>
@@ -12899,7 +12899,7 @@
         <v>23</v>
       </c>
       <c r="H356" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I356" t="n">
         <v>0.9971893369697573</v>
@@ -12934,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="H357" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I357" t="n">
         <v>0.9516514124206377</v>
@@ -12969,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="H358" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I358" t="n">
         <v>0.9734885664580483</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I359" t="n">
         <v>0.9954954954954955</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I360" t="n">
         <v>0.9999479353741666</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.563362121582031</v>
+        <v>1.404481649398804</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>99</v>
       </c>
       <c r="H362" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I362" t="n">
         <v>0.9999138441352498</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="H365" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I365" t="n">
         <v>0.9681697746108191</v>
@@ -13249,7 +13249,7 @@
         <v>33</v>
       </c>
       <c r="H366" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I366" t="n">
         <v>0.9999072503431516</v>
@@ -13284,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="H367" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I367" t="n">
         <v>0.9791254812157434</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I368" t="n">
         <v>0.9966604061343433</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I370" t="n">
         <v>0.9976287500606826</v>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="n">
-        <v>0.3224399089813232</v>
+        <v>0.3326354026794434</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>50</v>
       </c>
       <c r="H372" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I372" t="n">
         <v>0.9995216460181114</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I373" t="n">
         <v>0.9634146341463414</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I374" t="n">
         <v>0.9998025666337611</v>
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="H375" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I375" t="n">
         <v>0.9479532067404028</v>
@@ -13599,7 +13599,7 @@
         <v>25</v>
       </c>
       <c r="H376" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I376" t="n">
         <v>0.997598001117936</v>
@@ -13634,7 +13634,7 @@
         <v>6</v>
       </c>
       <c r="H377" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I377" t="n">
         <v>0.9031758795799545</v>
@@ -13669,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="H378" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I378" t="n">
         <v>0.9752375656378854</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="H380" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I380" t="n">
         <v>0.9998361055617031</v>
@@ -13774,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="H381" t="n">
-        <v>0.005784749984741211</v>
+        <v>0.005130290985107422</v>
       </c>
       <c r="I381" t="n">
         <v>0.9804479194730112</v>
@@ -13809,7 +13809,7 @@
         <v>732</v>
       </c>
       <c r="H382" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I382" t="n">
         <v>0.999353154069375</v>
@@ -13844,7 +13844,7 @@
         <v>2</v>
       </c>
       <c r="H383" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I383" t="n">
         <v>0.9621413052957672</v>
@@ -13879,7 +13879,7 @@
         <v>2</v>
       </c>
       <c r="H384" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I384" t="n">
         <v>0.9997465247654574</v>
@@ -13914,7 +13914,7 @@
         <v>13</v>
       </c>
       <c r="H385" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I385" t="n">
         <v>0.9603635309062287</v>
@@ -13949,7 +13949,7 @@
         <v>94</v>
       </c>
       <c r="H386" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I386" t="n">
         <v>0.9997944767569382</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="H387" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I387" t="n">
         <v>0.9772667872341675</v>
@@ -14019,7 +14019,7 @@
         <v>30</v>
       </c>
       <c r="H388" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I388" t="n">
         <v>0.8912674847809359</v>
@@ -14054,7 +14054,7 @@
         <v>3</v>
       </c>
       <c r="H389" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I389" t="n">
         <v>0.9996855644107676</v>
@@ -14089,7 +14089,7 @@
         <v>12</v>
       </c>
       <c r="H390" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I390" t="n">
         <v>0.9763221102673983</v>
@@ -14124,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="H391" t="n">
-        <v>0.02506208419799805</v>
+        <v>0.02816963195800781</v>
       </c>
       <c r="I391" t="n">
         <v>0.9997708433020087</v>
@@ -14159,7 +14159,7 @@
         <v>110</v>
       </c>
       <c r="H392" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I392" t="n">
         <v>0.9995378598926368</v>
@@ -14194,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I393" t="n">
         <v>0.8333333333333333</v>
@@ -14229,7 +14229,7 @@
         <v>11</v>
       </c>
       <c r="H394" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I394" t="n">
         <v>0.9990727981097148</v>
@@ -14264,7 +14264,7 @@
         <v>35</v>
       </c>
       <c r="H395" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I395" t="n">
         <v>0.9023945900952297</v>
@@ -14299,7 +14299,7 @@
         <v>32</v>
       </c>
       <c r="H396" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I396" t="n">
         <v>0.9971275563827162</v>
@@ -14334,7 +14334,7 @@
         <v>7</v>
       </c>
       <c r="H397" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I397" t="n">
         <v>0.9362464117102796</v>
@@ -14369,7 +14369,7 @@
         <v>6</v>
       </c>
       <c r="H398" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I398" t="n">
         <v>0.9534380950434587</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I399" t="n">
         <v>0.9954954954954955</v>
@@ -14439,7 +14439,7 @@
         <v>8</v>
       </c>
       <c r="H400" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I400" t="n">
         <v>0.9995835378062987</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>1.378028392791748</v>
+        <v>1.383896350860596</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>

--- a/5_analisis_de_resultados/DB/validation_results.xlsx
+++ b/5_analisis_de_resultados/DB/validation_results.xlsx
@@ -500,19 +500,19 @@
         <v>49136</v>
       </c>
       <c r="E2" t="n">
-        <v>23050</v>
+        <v>23053</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999995972635767</v>
+        <v>0.9999996339059232</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I4" t="n">
         <v>0.9999999213506507</v>
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E5" t="n">
-        <v>71780</v>
+        <v>71776</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9953667624971186</v>
+        <v>0.9948978349310058</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8399</v>
+        <v>8395</v>
       </c>
       <c r="E6" t="n">
         <v>63790</v>
@@ -646,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9998750729443322</v>
+        <v>0.9998755904991684</v>
       </c>
     </row>
     <row r="7">
@@ -675,19 +675,19 @@
         <v>89</v>
       </c>
       <c r="E7" t="n">
-        <v>72124</v>
+        <v>72125</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9589145756650578</v>
+        <v>0.9588109077096305</v>
       </c>
     </row>
     <row r="8">
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9958311761352511</v>
+        <v>0.9958494729302853</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9998936040234774</v>
+        <v>0.9998934830830577</v>
       </c>
     </row>
     <row r="11">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3001077175140381</v>
+        <v>0.1810407638549805</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I12" t="n">
         <v>0.9995811118072994</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I13" t="n">
         <v>0.9318181818181819</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I15" t="n">
         <v>0.927815790633807</v>
@@ -999,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I16" t="n">
         <v>0.9974815182021886</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I17" t="n">
         <v>0.9328610525854245</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I18" t="n">
         <v>0.9776131749074363</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I19" t="n">
         <v>0.9975961538461539</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I20" t="n">
         <v>0.9997245269569911</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007611513137817383</v>
+        <v>0.003994226455688477</v>
       </c>
       <c r="I21" t="n">
         <v>0.9806918252043713</v>
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48427</v>
+        <v>48565</v>
       </c>
       <c r="E22" t="n">
-        <v>23098</v>
+        <v>23068</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G22" t="n">
-        <v>746</v>
+        <v>608</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9992305763416915</v>
+        <v>0.9991506613995308</v>
       </c>
     </row>
     <row r="23">
@@ -1235,19 +1235,19 @@
         <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>72212</v>
+        <v>72217</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7436978805586916</v>
+        <v>0.8565335688023018</v>
       </c>
     </row>
     <row r="24">
@@ -1279,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9996163510822607</v>
+        <v>0.9999096856546907</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>385</v>
       </c>
       <c r="E25" t="n">
-        <v>71811</v>
+        <v>71819</v>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G25" t="n">
         <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9580814770865076</v>
+        <v>0.9712431762662337</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8370</v>
+        <v>8386</v>
       </c>
       <c r="E26" t="n">
-        <v>63840</v>
+        <v>63825</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9999141567534682</v>
+        <v>0.9999051751000698</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>72179</v>
+        <v>72202</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9415961479728784</v>
+        <v>0.9430589114923245</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E28" t="n">
-        <v>72004</v>
+        <v>72020</v>
       </c>
       <c r="F28" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G28" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8908313354842197</v>
+        <v>0.9000895945033232</v>
       </c>
     </row>
     <row r="29">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I29" t="n">
-        <v>0.999552723271488</v>
+        <v>0.9996420402867648</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8462</v>
+        <v>8430</v>
       </c>
       <c r="E30" t="n">
-        <v>63296</v>
+        <v>63378</v>
       </c>
       <c r="F30" t="n">
-        <v>537</v>
+        <v>455</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9660876841459456</v>
+        <v>0.9668998188743704</v>
       </c>
     </row>
     <row r="31">
@@ -1515,19 +1515,19 @@
         <v>159</v>
       </c>
       <c r="E31" t="n">
-        <v>72141</v>
+        <v>72140</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02704763412475586</v>
+        <v>0.03487849235534668</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9998470933712404</v>
+        <v>0.9994627463054186</v>
       </c>
     </row>
     <row r="32">
@@ -1559,7 +1559,7 @@
         <v>114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I32" t="n">
         <v>0.9996208879486046</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I33" t="n">
         <v>0.846938775510204</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I34" t="n">
         <v>0.9992553090703489</v>
@@ -1664,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="H35" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I35" t="n">
         <v>0.8988801813950157</v>
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I36" t="n">
         <v>0.9966401672628556</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I37" t="n">
         <v>0.8949675008351735</v>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I38" t="n">
         <v>0.9571067967474096</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I39" t="n">
         <v>0.9954954954954955</v>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I40" t="n">
         <v>0.9995696175604922</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.659195184707642</v>
+        <v>1.04249095916748</v>
       </c>
       <c r="I41" t="n">
         <v>0.9969512195121951</v>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>49136</v>
+        <v>49138</v>
       </c>
       <c r="E42" t="n">
         <v>23052</v>
@@ -1906,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I42" t="n">
-        <v>0.999998114457499</v>
+        <v>0.9999986231746413</v>
       </c>
     </row>
     <row r="43">
@@ -1944,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9987335834896811</v>
+        <v>0.9978693078522913</v>
       </c>
     </row>
     <row r="44">
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9999997246180363</v>
+        <v>0.9999995278698153</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E45" t="n">
-        <v>71784</v>
+        <v>71783</v>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9960607118796637</v>
+        <v>0.9961275624725848</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>8398</v>
       </c>
       <c r="E46" t="n">
-        <v>63790</v>
+        <v>63789</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9997560870158967</v>
+        <v>0.9996530258546075</v>
       </c>
     </row>
     <row r="47">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" t="n">
         <v>72122</v>
@@ -2081,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I47" t="n">
-        <v>0.984130687645478</v>
+        <v>0.9881267635006663</v>
       </c>
     </row>
     <row r="48">
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2189,10 +2189,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I50" t="n">
-        <v>0.999893995443905</v>
+        <v>0.9998939548296485</v>
       </c>
     </row>
     <row r="51">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" t="n">
         <v>72063</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3011927604675293</v>
+        <v>0.1859002113342285</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I52" t="n">
         <v>0.9995910956377173</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I53" t="n">
         <v>0.8979601562884917</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I55" t="n">
         <v>0.953741120900783</v>
@@ -2399,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I56" t="n">
         <v>0.9978212652621351</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I57" t="n">
         <v>0.896234859220527</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I58" t="n">
         <v>0.9554792362931447</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I59" t="n">
         <v>0.9952153110047847</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I60" t="n">
         <v>0.9997630893153282</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01075601577758789</v>
+        <v>0.002691745758056641</v>
       </c>
       <c r="I61" t="n">
         <v>0.9810126582278481</v>
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>48419</v>
+        <v>48519</v>
       </c>
       <c r="E62" t="n">
-        <v>23099</v>
+        <v>23063</v>
       </c>
       <c r="F62" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G62" t="n">
-        <v>754</v>
+        <v>654</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9993763986116824</v>
+        <v>0.9992794201677719</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" t="n">
-        <v>72229</v>
+        <v>72230</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7831145003352555</v>
+        <v>0.9307120533182884</v>
       </c>
     </row>
     <row r="64">
@@ -2679,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I64" t="n">
-        <v>0.999788044684247</v>
+        <v>0.9999000630502688</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E65" t="n">
-        <v>71769</v>
+        <v>71837</v>
       </c>
       <c r="F65" t="n">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="G65" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9366177473307222</v>
+        <v>0.9536036986633003</v>
       </c>
     </row>
     <row r="66">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8333</v>
+        <v>8395</v>
       </c>
       <c r="E66" t="n">
         <v>63835</v>
@@ -2746,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9996779006883287</v>
+        <v>0.9998591710420501</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" t="n">
-        <v>72195</v>
+        <v>72182</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9732670019989248</v>
+        <v>0.9813490705584309</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="E68" t="n">
-        <v>71998</v>
+        <v>71974</v>
       </c>
       <c r="F68" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G68" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8410189191247465</v>
+        <v>0.845777896259594</v>
       </c>
     </row>
     <row r="69">
@@ -2845,19 +2845,19 @@
         <v>212</v>
       </c>
       <c r="E69" t="n">
-        <v>72085</v>
+        <v>72086</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9986885144076698</v>
+        <v>0.999746575419253</v>
       </c>
     </row>
     <row r="70">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8459</v>
+        <v>8428</v>
       </c>
       <c r="E70" t="n">
-        <v>63268</v>
+        <v>63369</v>
       </c>
       <c r="F70" t="n">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9642257915546948</v>
+        <v>0.9649666522154935</v>
       </c>
     </row>
     <row r="71">
@@ -2915,16 +2915,16 @@
         <v>160</v>
       </c>
       <c r="E71" t="n">
-        <v>72140</v>
+        <v>72141</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02619838714599609</v>
+        <v>0.03710103034973145</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>116</v>
       </c>
       <c r="H72" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I72" t="n">
         <v>0.9996025942964724</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I73" t="n">
         <v>0.83137236147191</v>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I74" t="n">
         <v>0.9995369193627702</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="H75" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I75" t="n">
         <v>0.917614799752473</v>
@@ -3099,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I76" t="n">
         <v>0.9971873911818152</v>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I77" t="n">
         <v>0.9331223143596818</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I78" t="n">
         <v>0.9694706888886376</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I79" t="n">
         <v>0.997737556561086</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I80" t="n">
         <v>0.9997396068202016</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.505037784576416</v>
+        <v>1.037489652633667</v>
       </c>
       <c r="I81" t="n">
         <v>0.9939393939393939</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>49137</v>
+        <v>49022</v>
       </c>
       <c r="E82" t="n">
         <v>23055</v>
@@ -3306,13 +3306,13 @@
         <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9999992301459814</v>
+        <v>0.9998908089862142</v>
       </c>
     </row>
     <row r="83">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -3370,19 +3370,19 @@
         <v>5042</v>
       </c>
       <c r="E84" t="n">
-        <v>67176</v>
+        <v>67177</v>
       </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1972701549530029</v>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.3002595901489258</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.9999999213272502</v>
       </c>
     </row>
     <row r="85">
@@ -3402,22 +3402,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="E85" t="n">
-        <v>71786</v>
+        <v>71783</v>
       </c>
       <c r="F85" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9965671994642877</v>
+        <v>0.9820737308926261</v>
       </c>
     </row>
     <row r="86">
@@ -3437,22 +3437,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8404</v>
+        <v>8406</v>
       </c>
       <c r="E86" t="n">
-        <v>63791</v>
+        <v>63763</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I86" t="n">
-        <v>0.999930115646414</v>
+        <v>0.9998623250512702</v>
       </c>
     </row>
     <row r="87">
@@ -3472,22 +3472,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E87" t="n">
-        <v>72123</v>
+        <v>72115</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9756921667715844</v>
+        <v>0.9704073790520068</v>
       </c>
     </row>
     <row r="88">
@@ -3510,19 +3510,19 @@
         <v>207</v>
       </c>
       <c r="E88" t="n">
-        <v>72009</v>
+        <v>72011</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9962004305828409</v>
+        <v>0.996495054395428</v>
       </c>
     </row>
     <row r="89">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3577,22 +3577,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8466</v>
+        <v>8465</v>
       </c>
       <c r="E90" t="n">
-        <v>63752</v>
+        <v>63647</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9999999860518941</v>
+        <v>0.9967999373139402</v>
       </c>
     </row>
     <row r="91">
@@ -3624,10 +3624,10 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3002595901489258</v>
+        <v>0.1972701549530029</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9997618457763385</v>
+        <v>0.9999590394770453</v>
       </c>
     </row>
     <row r="92">
@@ -3659,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="H92" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I92" t="n">
         <v>0.9995507193116855</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I93" t="n">
         <v>0.9612080195363548</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I95" t="n">
         <v>0.9482051489594997</v>
@@ -3799,7 +3799,7 @@
         <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I96" t="n">
         <v>0.9975603634264166</v>
@@ -3834,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I97" t="n">
         <v>0.8899908101648437</v>
@@ -3869,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I98" t="n">
         <v>0.9732683816837192</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I99" t="n">
         <v>0.9951760220398265</v>
@@ -3939,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I100" t="n">
         <v>0.9998430524992453</v>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.008070707321166992</v>
+        <v>0.002786874771118164</v>
       </c>
       <c r="I101" t="n">
         <v>0.9802839776374048</v>
@@ -3997,22 +3997,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>48445</v>
+        <v>48552</v>
       </c>
       <c r="E102" t="n">
-        <v>23100</v>
+        <v>23102</v>
       </c>
       <c r="F102" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G102" t="n">
-        <v>728</v>
+        <v>621</v>
       </c>
       <c r="H102" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9994131642446318</v>
+        <v>0.9994909295883098</v>
       </c>
     </row>
     <row r="103">
@@ -4035,19 +4035,19 @@
         <v>39</v>
       </c>
       <c r="E103" t="n">
-        <v>72232</v>
+        <v>72240</v>
       </c>
       <c r="F103" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I103" t="n">
-        <v>0.8922646551145349</v>
+        <v>0.8880305065929716</v>
       </c>
     </row>
     <row r="104">
@@ -4079,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9995475268933285</v>
+        <v>0.9990856309329655</v>
       </c>
     </row>
     <row r="105">
@@ -4102,22 +4102,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E105" t="n">
-        <v>71802</v>
+        <v>71797</v>
       </c>
       <c r="F105" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9510013271257618</v>
+        <v>0.960512249147381</v>
       </c>
     </row>
     <row r="106">
@@ -4137,22 +4137,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8364</v>
+        <v>8365</v>
       </c>
       <c r="E106" t="n">
-        <v>63842</v>
+        <v>63835</v>
       </c>
       <c r="F106" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G106" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9999110369735796</v>
+        <v>0.9999162766278425</v>
       </c>
     </row>
     <row r="107">
@@ -4175,19 +4175,19 @@
         <v>88</v>
       </c>
       <c r="E107" t="n">
-        <v>72185</v>
+        <v>72204</v>
       </c>
       <c r="F107" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9753580771350124</v>
+        <v>0.993803015274638</v>
       </c>
     </row>
     <row r="108">
@@ -4207,22 +4207,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E108" t="n">
-        <v>72000</v>
+        <v>72035</v>
       </c>
       <c r="F108" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G108" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H108" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9046672072163442</v>
+        <v>0.9288217387970213</v>
       </c>
     </row>
     <row r="109">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I109" t="n">
         <v>0.9999784167618132</v>
@@ -4280,19 +4280,19 @@
         <v>8451</v>
       </c>
       <c r="E110" t="n">
-        <v>63282</v>
+        <v>63338</v>
       </c>
       <c r="F110" t="n">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="G110" t="n">
         <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9646601660004228</v>
+        <v>0.9659116003176387</v>
       </c>
     </row>
     <row r="111">
@@ -4315,16 +4315,16 @@
         <v>160</v>
       </c>
       <c r="E111" t="n">
-        <v>72139</v>
+        <v>72141</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.01742053031921387</v>
+        <v>0.03429031372070312</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>108</v>
       </c>
       <c r="H112" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I112" t="n">
         <v>0.9996360801777742</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I113" t="n">
         <v>0.8564514988687782</v>
@@ -4429,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I114" t="n">
         <v>0.9997188138500056</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="H115" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I115" t="n">
         <v>0.8913159839419261</v>
@@ -4499,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="H116" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I116" t="n">
         <v>0.9959313038186618</v>
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I117" t="n">
         <v>0.9547534771579251</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I118" t="n">
         <v>0.9617977517015224</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I119" t="n">
         <v>0.9932735426008968</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.449804067611694</v>
+        <v>1.012166023254395</v>
       </c>
       <c r="I121" t="n">
         <v>0.9969512195121951</v>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>49130</v>
+        <v>49128</v>
       </c>
       <c r="E122" t="n">
         <v>23052</v>
@@ -4706,13 +4706,13 @@
         <v>18</v>
       </c>
       <c r="G122" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9999873165654974</v>
+        <v>0.9999872382990515</v>
       </c>
     </row>
     <row r="123">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E125" t="n">
-        <v>71774</v>
+        <v>71771</v>
       </c>
       <c r="F125" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G125" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9900954370527612</v>
+        <v>0.9892616743953547</v>
       </c>
     </row>
     <row r="126">
@@ -4837,22 +4837,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>8398</v>
+        <v>8396</v>
       </c>
       <c r="E126" t="n">
-        <v>63787</v>
+        <v>63784</v>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G126" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9999734441209965</v>
+        <v>0.9999190993296373</v>
       </c>
     </row>
     <row r="127">
@@ -4884,10 +4884,10 @@
         <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9914848854144033</v>
+        <v>0.9906930188304015</v>
       </c>
     </row>
     <row r="128">
@@ -4910,19 +4910,19 @@
         <v>207</v>
       </c>
       <c r="E128" t="n">
-        <v>72007</v>
+        <v>72006</v>
       </c>
       <c r="F128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9957848859721655</v>
+        <v>0.9957900410879411</v>
       </c>
     </row>
     <row r="129">
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4989,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9999469302917998</v>
+        <v>0.9999468426106074</v>
       </c>
     </row>
     <row r="131">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E131" t="n">
         <v>72062</v>
@@ -5021,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0.2917459011077881</v>
+        <v>0.1806285381317139</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>169</v>
       </c>
       <c r="H132" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I132" t="n">
         <v>0.9994100785036032</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I133" t="n">
         <v>0.9871794871794872</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>43</v>
       </c>
       <c r="H135" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I135" t="n">
         <v>0.8297011391925581</v>
@@ -5199,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I136" t="n">
         <v>0.9932763539702985</v>
@@ -5234,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I137" t="n">
         <v>0.8966041198146083</v>
@@ -5269,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I138" t="n">
         <v>0.9734380044169704</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I139" t="n">
         <v>0.9975961538461539</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I140" t="n">
         <v>0.9961577850513517</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>0.01006746292114258</v>
+        <v>0.003073453903198242</v>
       </c>
       <c r="I141" t="n">
         <v>0.9868559850916032</v>
@@ -5397,22 +5397,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48361</v>
+        <v>48470</v>
       </c>
       <c r="E142" t="n">
-        <v>23106</v>
+        <v>23109</v>
       </c>
       <c r="F142" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G142" t="n">
-        <v>812</v>
+        <v>703</v>
       </c>
       <c r="H142" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9994001117035096</v>
+        <v>0.9993168250024305</v>
       </c>
     </row>
     <row r="143">
@@ -5435,19 +5435,19 @@
         <v>39</v>
       </c>
       <c r="E143" t="n">
-        <v>72206</v>
+        <v>72240</v>
       </c>
       <c r="F143" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9182340469907672</v>
+        <v>0.7494205759569939</v>
       </c>
     </row>
     <row r="144">
@@ -5470,19 +5470,19 @@
         <v>5082</v>
       </c>
       <c r="E144" t="n">
-        <v>67215</v>
+        <v>67217</v>
       </c>
       <c r="F144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9996369888934045</v>
+        <v>0.9998828924348994</v>
       </c>
     </row>
     <row r="145">
@@ -5502,22 +5502,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E145" t="n">
-        <v>71791</v>
+        <v>71830</v>
       </c>
       <c r="F145" t="n">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="G145" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H145" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9570549708556987</v>
+        <v>0.9737604196353259</v>
       </c>
     </row>
     <row r="146">
@@ -5537,22 +5537,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>8356</v>
+        <v>8392</v>
       </c>
       <c r="E146" t="n">
-        <v>63840</v>
+        <v>63837</v>
       </c>
       <c r="F146" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G146" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9994596986176888</v>
+        <v>0.9987694622001406</v>
       </c>
     </row>
     <row r="147">
@@ -5572,22 +5572,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E147" t="n">
-        <v>72192</v>
+        <v>72191</v>
       </c>
       <c r="F147" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9774663881883138</v>
+        <v>0.9834530204004118</v>
       </c>
     </row>
     <row r="148">
@@ -5607,22 +5607,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E148" t="n">
-        <v>71957</v>
+        <v>71977</v>
       </c>
       <c r="F148" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G148" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H148" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I148" t="n">
-        <v>0.8944460126464121</v>
+        <v>0.9040831932945906</v>
       </c>
     </row>
     <row r="149">
@@ -5654,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9998530099077294</v>
+        <v>0.9999570329090209</v>
       </c>
     </row>
     <row r="150">
@@ -5677,22 +5677,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>8459</v>
+        <v>8461</v>
       </c>
       <c r="E150" t="n">
-        <v>63306</v>
+        <v>63357</v>
       </c>
       <c r="F150" t="n">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="G150" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H150" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9738104467740823</v>
+        <v>0.9743033959103997</v>
       </c>
     </row>
     <row r="151">
@@ -5715,16 +5715,16 @@
         <v>160</v>
       </c>
       <c r="E151" t="n">
-        <v>72135</v>
+        <v>72133</v>
       </c>
       <c r="F151" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.02403140068054199</v>
+        <v>0.0326533317565918</v>
       </c>
       <c r="I151" t="n">
         <v>0.9999999999999999</v>
@@ -5759,7 +5759,7 @@
         <v>128</v>
       </c>
       <c r="H152" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I152" t="n">
         <v>0.9996929043416195</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I153" t="n">
         <v>0.8617021276595744</v>
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="H154" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I154" t="n">
         <v>0.9991709764256392</v>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="H155" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I155" t="n">
         <v>0.9212032232336401</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="H156" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I156" t="n">
         <v>0.9976297027889192</v>
@@ -5934,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I157" t="n">
         <v>0.9047927269989953</v>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I158" t="n">
         <v>0.9590308042364136</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I159" t="n">
         <v>0.995475113122172</v>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I160" t="n">
         <v>0.9998958715043819</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.391857147216797</v>
+        <v>1.037741422653198</v>
       </c>
       <c r="I161" t="n">
         <v>0.99079754601227</v>
@@ -6097,22 +6097,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>49028</v>
+        <v>49132</v>
       </c>
       <c r="E162" t="n">
-        <v>23051</v>
+        <v>23047</v>
       </c>
       <c r="F162" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G162" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9998913467716126</v>
+        <v>0.9999879452415285</v>
       </c>
     </row>
     <row r="163">
@@ -6144,10 +6144,10 @@
         <v>7</v>
       </c>
       <c r="H163" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9393522267206478</v>
+        <v>0.9435890715694362</v>
       </c>
     </row>
     <row r="164">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="E165" t="n">
-        <v>71772</v>
+        <v>71780</v>
       </c>
       <c r="F165" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G165" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I165" t="n">
-        <v>0.969873806718304</v>
+        <v>0.9940928284212596</v>
       </c>
     </row>
     <row r="166">
@@ -6237,22 +6237,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>8390</v>
+        <v>8398</v>
       </c>
       <c r="E166" t="n">
-        <v>63767</v>
+        <v>63787</v>
       </c>
       <c r="F166" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G166" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H166" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9995878848211616</v>
+        <v>0.9998181313351501</v>
       </c>
     </row>
     <row r="167">
@@ -6272,22 +6272,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E167" t="n">
-        <v>72121</v>
+        <v>72122</v>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9838184086195259</v>
+        <v>0.9775182334278484</v>
       </c>
     </row>
     <row r="168">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E168" t="n">
         <v>72010</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9998402788869521</v>
+        <v>0.9994498366850563</v>
       </c>
     </row>
     <row r="169">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -6380,19 +6380,19 @@
         <v>8466</v>
       </c>
       <c r="E170" t="n">
-        <v>63648</v>
+        <v>63751</v>
       </c>
       <c r="F170" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9968379992860525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3187100887298584</v>
+        <v>0.184370756149292</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>66</v>
       </c>
       <c r="H172" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I172" t="n">
         <v>0.9994849959703292</v>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I173" t="n">
         <v>0.9466582466432528</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I174" t="n">
         <v>0.9999081842357711</v>
@@ -6564,7 +6564,7 @@
         <v>18</v>
       </c>
       <c r="H175" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I175" t="n">
         <v>0.9292761515778079</v>
@@ -6599,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I176" t="n">
         <v>0.9974475522672595</v>
@@ -6634,7 +6634,7 @@
         <v>6</v>
       </c>
       <c r="H177" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I177" t="n">
         <v>0.717779628858479</v>
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I178" t="n">
         <v>0.9650851238173939</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I179" t="n">
         <v>0.9928571428571429</v>
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I180" t="n">
         <v>0.9994768416641513</v>
@@ -6774,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>0.006295919418334961</v>
+        <v>0.002707242965698242</v>
       </c>
       <c r="I181" t="n">
         <v>0.9742041632292551</v>
@@ -6797,22 +6797,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>48439</v>
+        <v>48525</v>
       </c>
       <c r="E182" t="n">
-        <v>23093</v>
+        <v>23100</v>
       </c>
       <c r="F182" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G182" t="n">
-        <v>734</v>
+        <v>648</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9992968037432133</v>
+        <v>0.9993894630439837</v>
       </c>
     </row>
     <row r="183">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E183" t="n">
-        <v>72214</v>
+        <v>72223</v>
       </c>
       <c r="F183" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I183" t="n">
-        <v>0.8558200824742392</v>
+        <v>0.8602022157787023</v>
       </c>
     </row>
     <row r="184">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>5081</v>
+        <v>5082</v>
       </c>
       <c r="E184" t="n">
         <v>67212</v>
@@ -6876,13 +6876,13 @@
         <v>6</v>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9992835821919187</v>
+        <v>0.9990136700610064</v>
       </c>
     </row>
     <row r="185">
@@ -6902,22 +6902,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E185" t="n">
-        <v>71758</v>
+        <v>71834</v>
       </c>
       <c r="F185" t="n">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="G185" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H185" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9462070471357168</v>
+        <v>0.972091226144687</v>
       </c>
     </row>
     <row r="186">
@@ -6937,22 +6937,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>8323</v>
+        <v>8387</v>
       </c>
       <c r="E186" t="n">
-        <v>63850</v>
+        <v>63844</v>
       </c>
       <c r="F186" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G186" t="n">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H186" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9998804748835993</v>
+        <v>0.9998808321833765</v>
       </c>
     </row>
     <row r="187">
@@ -6975,19 +6975,19 @@
         <v>91</v>
       </c>
       <c r="E187" t="n">
-        <v>72188</v>
+        <v>72197</v>
       </c>
       <c r="F187" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9878891904408147</v>
+        <v>0.9899363961090756</v>
       </c>
     </row>
     <row r="188">
@@ -7007,22 +7007,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E188" t="n">
-        <v>71991</v>
+        <v>72015</v>
       </c>
       <c r="F188" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G188" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H188" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I188" t="n">
-        <v>0.8748621003193412</v>
+        <v>0.8764970722905525</v>
       </c>
     </row>
     <row r="189">
@@ -7045,19 +7045,19 @@
         <v>215</v>
       </c>
       <c r="E189" t="n">
-        <v>72086</v>
+        <v>72085</v>
       </c>
       <c r="F189" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.03612565994262695</v>
+      </c>
+      <c r="I189" t="n">
         <v>1</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.02381610870361328</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.9999784167618132</v>
       </c>
     </row>
     <row r="190">
@@ -7080,19 +7080,19 @@
         <v>8452</v>
       </c>
       <c r="E190" t="n">
-        <v>63319</v>
+        <v>63336</v>
       </c>
       <c r="F190" t="n">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="G190" t="n">
         <v>17</v>
       </c>
       <c r="H190" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9674603355472031</v>
+        <v>0.9693516944218603</v>
       </c>
     </row>
     <row r="191">
@@ -7112,22 +7112,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E191" t="n">
-        <v>72141</v>
+        <v>72139</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0.02381610870361328</v>
+        <v>0.03612565994262695</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9987468592964824</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -7159,7 +7159,7 @@
         <v>121</v>
       </c>
       <c r="H192" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I192" t="n">
         <v>0.9995810276193868</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I193" t="n">
         <v>0.8617021276595744</v>
@@ -7229,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="H194" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I194" t="n">
         <v>0.9998101857692622</v>
@@ -7264,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="H195" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I195" t="n">
         <v>0.9132026865033839</v>
@@ -7299,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="H196" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I196" t="n">
         <v>0.9973846934186007</v>
@@ -7334,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I197" t="n">
         <v>0.8713118056536743</v>
@@ -7369,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I198" t="n">
         <v>0.9588429393980865</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I199" t="n">
         <v>0.9977272727272728</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I200" t="n">
         <v>0.9999478940491804</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>1.378317356109619</v>
+        <v>0.9876663684844971</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -7500,19 +7500,19 @@
         <v>49132</v>
       </c>
       <c r="E202" t="n">
-        <v>23051</v>
+        <v>23053</v>
       </c>
       <c r="F202" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G202" t="n">
         <v>16</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9999884610498333</v>
+        <v>0.99998857286079</v>
       </c>
     </row>
     <row r="203">
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="E204" t="n">
         <v>67176</v>
@@ -7576,13 +7576,13 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9996249018864073</v>
+        <v>0.9996242161869463</v>
       </c>
     </row>
     <row r="205">
@@ -7602,22 +7602,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E205" t="n">
-        <v>71778</v>
+        <v>71780</v>
       </c>
       <c r="F205" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G205" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9953354066035638</v>
+        <v>0.9956606321282483</v>
       </c>
     </row>
     <row r="206">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>8402</v>
+        <v>8403</v>
       </c>
       <c r="E206" t="n">
         <v>63790</v>
@@ -7646,13 +7646,13 @@
         <v>3</v>
       </c>
       <c r="G206" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9999852514409062</v>
+        <v>0.9999876336419933</v>
       </c>
     </row>
     <row r="207">
@@ -7675,19 +7675,19 @@
         <v>92</v>
       </c>
       <c r="E207" t="n">
-        <v>72124</v>
+        <v>72123</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
       </c>
       <c r="H207" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9977580795662473</v>
+        <v>0.9972738963231228</v>
       </c>
     </row>
     <row r="208">
@@ -7719,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9959596774282824</v>
+        <v>0.9961555814258597</v>
       </c>
     </row>
     <row r="209">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -7780,19 +7780,19 @@
         <v>8465</v>
       </c>
       <c r="E210" t="n">
-        <v>63750</v>
+        <v>63751</v>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9999470178425062</v>
+        <v>0.9999468825871694</v>
       </c>
     </row>
     <row r="211">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.3097066879272461</v>
+        <v>0.1861732006072998</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>59</v>
       </c>
       <c r="H212" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I212" t="n">
         <v>0.999578890651514</v>
@@ -7894,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I213" t="n">
         <v>0.9127224805986635</v>
@@ -7929,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="H214" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I214" t="n">
         <v>0.9994491054146268</v>
@@ -7964,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="H215" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I215" t="n">
         <v>0.9417474868627919</v>
@@ -7999,7 +7999,7 @@
         <v>39</v>
       </c>
       <c r="H216" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I216" t="n">
         <v>0.9975484341942489</v>
@@ -8034,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I217" t="n">
         <v>0.8920749968034666</v>
@@ -8069,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="H218" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I218" t="n">
         <v>0.9578726711300194</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I219" t="n">
         <v>0.9859154929577465</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I220" t="n">
         <v>0.9997699590479318</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="H221" t="n">
-        <v>0.008940458297729492</v>
+        <v>0.00283503532409668</v>
       </c>
       <c r="I221" t="n">
         <v>0.9934349324600242</v>
@@ -8197,22 +8197,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>48309</v>
+        <v>48525</v>
       </c>
       <c r="E222" t="n">
-        <v>23108</v>
+        <v>23102</v>
       </c>
       <c r="F222" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G222" t="n">
-        <v>864</v>
+        <v>648</v>
       </c>
       <c r="H222" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9992718198208287</v>
+        <v>0.9993587816648438</v>
       </c>
     </row>
     <row r="223">
@@ -8232,22 +8232,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E223" t="n">
-        <v>72214</v>
+        <v>72226</v>
       </c>
       <c r="F223" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I223" t="n">
-        <v>0.7789608018769794</v>
+        <v>0.7820215341465139</v>
       </c>
     </row>
     <row r="224">
@@ -8270,19 +8270,19 @@
         <v>5082</v>
       </c>
       <c r="E224" t="n">
-        <v>67215</v>
+        <v>67216</v>
       </c>
       <c r="F224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
       </c>
       <c r="H224" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I224" t="n">
-        <v>0.9997399005601374</v>
+        <v>0.9999902930292313</v>
       </c>
     </row>
     <row r="225">
@@ -8302,22 +8302,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E225" t="n">
-        <v>71770</v>
+        <v>71843</v>
       </c>
       <c r="F225" t="n">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="G225" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H225" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I225" t="n">
-        <v>0.9411581668761423</v>
+        <v>0.9617227037329593</v>
       </c>
     </row>
     <row r="226">
@@ -8337,22 +8337,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>8345</v>
+        <v>8406</v>
       </c>
       <c r="E226" t="n">
-        <v>63848</v>
+        <v>63840</v>
       </c>
       <c r="F226" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G226" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H226" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I226" t="n">
-        <v>0.9997663362459063</v>
+        <v>0.9999159195260542</v>
       </c>
     </row>
     <row r="227">
@@ -8372,22 +8372,22 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E227" t="n">
-        <v>72182</v>
+        <v>72191</v>
       </c>
       <c r="F227" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G227" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H227" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I227" t="n">
-        <v>0.9432191546866775</v>
+        <v>0.9617376522560592</v>
       </c>
     </row>
     <row r="228">
@@ -8407,22 +8407,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="E228" t="n">
-        <v>71912</v>
+        <v>72009</v>
       </c>
       <c r="F228" t="n">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="G228" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H228" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I228" t="n">
-        <v>0.7664152635554841</v>
+        <v>0.9150434722028205</v>
       </c>
     </row>
     <row r="229">
@@ -8442,22 +8442,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E229" t="n">
-        <v>72084</v>
+        <v>72083</v>
       </c>
       <c r="F229" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I229" t="n">
-        <v>0.9998940504117312</v>
+        <v>0.9999570329090208</v>
       </c>
     </row>
     <row r="230">
@@ -8480,19 +8480,19 @@
         <v>8461</v>
       </c>
       <c r="E230" t="n">
-        <v>63343</v>
+        <v>63378</v>
       </c>
       <c r="F230" t="n">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
       </c>
       <c r="H230" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I230" t="n">
-        <v>0.9673942773569899</v>
+        <v>0.9669068778779576</v>
       </c>
     </row>
     <row r="231">
@@ -8512,22 +8512,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E231" t="n">
-        <v>72139</v>
+        <v>72140</v>
       </c>
       <c r="F231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>0.01714658737182617</v>
+        <v>0.03425502777099609</v>
       </c>
       <c r="I231" t="n">
-        <v>0.9999225998773099</v>
+        <v>0.9996623045393378</v>
       </c>
     </row>
     <row r="232">
@@ -8559,7 +8559,7 @@
         <v>106</v>
       </c>
       <c r="H232" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I232" t="n">
         <v>0.9996523650778064</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I233" t="n">
         <v>0.8269230769230769</v>
@@ -8629,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="H234" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I234" t="n">
         <v>0.9993544110620025</v>
@@ -8664,7 +8664,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I235" t="n">
         <v>0.9272123319232953</v>
@@ -8699,7 +8699,7 @@
         <v>33</v>
       </c>
       <c r="H236" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I236" t="n">
         <v>0.9970648849244109</v>
@@ -8734,7 +8734,7 @@
         <v>5</v>
       </c>
       <c r="H237" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I237" t="n">
         <v>0.9178727696302454</v>
@@ -8769,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I238" t="n">
         <v>0.9644066621053299</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I239" t="n">
         <v>0.9977272727272728</v>
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I240" t="n">
         <v>0.9998297677120598</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1.499777317047119</v>
+        <v>0.9927423000335693</v>
       </c>
       <c r="I241" t="n">
         <v>0.9968944099378882</v>
@@ -8900,19 +8900,19 @@
         <v>49132</v>
       </c>
       <c r="E242" t="n">
-        <v>23054</v>
+        <v>23053</v>
       </c>
       <c r="F242" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G242" t="n">
         <v>16</v>
       </c>
       <c r="H242" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I242" t="n">
-        <v>0.9999992788737706</v>
+        <v>0.9999991577407126</v>
       </c>
     </row>
     <row r="243">
@@ -8944,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="H243" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9986238369202358</v>
+        <v>0.999316357695859</v>
       </c>
     </row>
     <row r="244">
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -9005,19 +9005,19 @@
         <v>409</v>
       </c>
       <c r="E245" t="n">
-        <v>71778</v>
+        <v>71779</v>
       </c>
       <c r="F245" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
       </c>
       <c r="H245" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I245" t="n">
-        <v>0.9925360565379624</v>
+        <v>0.99372643622773</v>
       </c>
     </row>
     <row r="246">
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="E246" t="n">
         <v>63789</v>
@@ -9046,13 +9046,13 @@
         <v>3</v>
       </c>
       <c r="G246" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H246" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I246" t="n">
-        <v>0.9999814559805068</v>
+        <v>0.9999865946746771</v>
       </c>
     </row>
     <row r="247">
@@ -9072,22 +9072,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E247" t="n">
-        <v>72113</v>
+        <v>72114</v>
       </c>
       <c r="F247" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H247" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I247" t="n">
-        <v>0.9787755776574929</v>
+        <v>0.9772680864798071</v>
       </c>
     </row>
     <row r="248">
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -9154,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I249" t="n">
-        <v>0.9999901671583088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>0.2995545864105225</v>
+        <v>0.1795608997344971</v>
       </c>
       <c r="I251" t="n">
         <v>0.9999585100989887</v>
@@ -9259,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="H252" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I252" t="n">
         <v>0.9995636933964683</v>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I253" t="n">
         <v>0.9590979641051817</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I255" t="n">
         <v>0.9312154332684235</v>
@@ -9399,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="H256" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I256" t="n">
         <v>0.9968528575805354</v>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I257" t="n">
         <v>0.9064884214920302</v>
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I258" t="n">
         <v>0.9778758604299002</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I259" t="n">
         <v>0.9928571428571429</v>
@@ -9539,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="H260" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I260" t="n">
         <v>0.9997176223470254</v>
@@ -9574,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>0.006438970565795898</v>
+        <v>0.002926111221313477</v>
       </c>
       <c r="I261" t="n">
         <v>0.9742041634219074</v>
@@ -9597,22 +9597,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>48415</v>
+        <v>48520</v>
       </c>
       <c r="E262" t="n">
-        <v>23087</v>
+        <v>23096</v>
       </c>
       <c r="F262" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G262" t="n">
-        <v>758</v>
+        <v>653</v>
       </c>
       <c r="H262" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I262" t="n">
-        <v>0.9993399913423396</v>
+        <v>0.999454158433531</v>
       </c>
     </row>
     <row r="263">
@@ -9635,19 +9635,19 @@
         <v>38</v>
       </c>
       <c r="E263" t="n">
-        <v>72214</v>
+        <v>72247</v>
       </c>
       <c r="F263" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I263" t="n">
-        <v>0.9571261100413652</v>
+        <v>0.8716903281585956</v>
       </c>
     </row>
     <row r="264">
@@ -9679,10 +9679,10 @@
         <v>2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I264" t="n">
-        <v>0.9997921270782879</v>
+        <v>0.9998049356266423</v>
       </c>
     </row>
     <row r="265">
@@ -9705,19 +9705,19 @@
         <v>391</v>
       </c>
       <c r="E265" t="n">
-        <v>71769</v>
+        <v>71818</v>
       </c>
       <c r="F265" t="n">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="G265" t="n">
         <v>12</v>
       </c>
       <c r="H265" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9401273599848615</v>
+        <v>0.9660514226819295</v>
       </c>
     </row>
     <row r="266">
@@ -9737,22 +9737,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>8325</v>
+        <v>8377</v>
       </c>
       <c r="E266" t="n">
-        <v>63844</v>
+        <v>63846</v>
       </c>
       <c r="F266" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G266" t="n">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="H266" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I266" t="n">
-        <v>0.9997433696883089</v>
+        <v>0.999845200154085</v>
       </c>
     </row>
     <row r="267">
@@ -9772,22 +9772,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E267" t="n">
-        <v>72185</v>
+        <v>72202</v>
       </c>
       <c r="F267" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I267" t="n">
-        <v>0.9871760288885711</v>
+        <v>0.9826389230548495</v>
       </c>
     </row>
     <row r="268">
@@ -9807,22 +9807,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E268" t="n">
-        <v>71988</v>
+        <v>72006</v>
       </c>
       <c r="F268" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G268" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H268" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I268" t="n">
-        <v>0.9067696407540615</v>
+        <v>0.9270833803367797</v>
       </c>
     </row>
     <row r="269">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E269" t="n">
         <v>72085</v>
@@ -9851,13 +9851,13 @@
         <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I269" t="n">
-        <v>0.9997341459062726</v>
+        <v>0.9993294400568968</v>
       </c>
     </row>
     <row r="270">
@@ -9880,19 +9880,19 @@
         <v>8461</v>
       </c>
       <c r="E270" t="n">
-        <v>63296</v>
+        <v>63307</v>
       </c>
       <c r="F270" t="n">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G270" t="n">
         <v>8</v>
       </c>
       <c r="H270" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I270" t="n">
-        <v>0.9774319850817894</v>
+        <v>0.9684003287448796</v>
       </c>
     </row>
     <row r="271">
@@ -9912,22 +9912,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E271" t="n">
-        <v>72140</v>
+        <v>72141</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>0.0195915699005127</v>
+        <v>0.03686094284057617</v>
       </c>
       <c r="I271" t="n">
-        <v>0.9995454461972056</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="272">
@@ -9959,7 +9959,7 @@
         <v>102</v>
       </c>
       <c r="H272" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I272" t="n">
         <v>0.9997078578068193</v>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I273" t="n">
         <v>0.8371693523867437</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I274" t="n">
         <v>0.9997116254645638</v>
@@ -10064,7 +10064,7 @@
         <v>45</v>
       </c>
       <c r="H275" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I275" t="n">
         <v>0.9095453973400324</v>
@@ -10099,7 +10099,7 @@
         <v>30</v>
       </c>
       <c r="H276" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I276" t="n">
         <v>0.9971401812129319</v>
@@ -10134,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I277" t="n">
         <v>0.9370252434230123</v>
@@ -10169,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="H278" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I278" t="n">
         <v>0.9587187857349596</v>
@@ -10204,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I279" t="n">
         <v>0.9910125541707765</v>
@@ -10239,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="H280" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I280" t="n">
         <v>0.9997917689162885</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>1.451306819915771</v>
+        <v>1.004507064819336</v>
       </c>
       <c r="I281" t="n">
         <v>0.9938650306748467</v>
@@ -10297,22 +10297,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>49131</v>
+        <v>49133</v>
       </c>
       <c r="E282" t="n">
-        <v>23044</v>
+        <v>23041</v>
       </c>
       <c r="F282" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G282" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H282" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I282" t="n">
-        <v>0.9999752422627819</v>
+        <v>0.9999856094214146</v>
       </c>
     </row>
     <row r="283">
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I283" t="n">
         <v>0.999316357695859</v>
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E284" t="n">
         <v>67175</v>
@@ -10376,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -10405,19 +10405,19 @@
         <v>408</v>
       </c>
       <c r="E285" t="n">
-        <v>71782</v>
+        <v>71779</v>
       </c>
       <c r="F285" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G285" t="n">
         <v>7</v>
       </c>
       <c r="H285" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I285" t="n">
-        <v>0.9944265354491285</v>
+        <v>0.9946146315523403</v>
       </c>
     </row>
     <row r="286">
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>8405</v>
+        <v>8401</v>
       </c>
       <c r="E286" t="n">
         <v>63786</v>
@@ -10446,13 +10446,13 @@
         <v>6</v>
       </c>
       <c r="G286" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H286" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9998719863728012</v>
+        <v>0.9998714986885555</v>
       </c>
     </row>
     <row r="287">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E287" t="n">
         <v>72120</v>
@@ -10481,13 +10481,13 @@
         <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H287" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I287" t="n">
-        <v>0.9797327823229414</v>
+        <v>0.979155307699985</v>
       </c>
     </row>
     <row r="288">
@@ -10519,10 +10519,10 @@
         <v>3</v>
       </c>
       <c r="H288" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9953664384907742</v>
+        <v>0.9949738395192775</v>
       </c>
     </row>
     <row r="289">
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I289" t="n">
         <v>0.9999901671583088</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E291" t="n">
         <v>72062</v>
@@ -10621,13 +10621,13 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H291" t="n">
-        <v>0.2969024181365967</v>
+        <v>0.1825616359710693</v>
       </c>
       <c r="I291" t="n">
-        <v>0.99222026296623</v>
+        <v>0.9952125042251052</v>
       </c>
     </row>
     <row r="292">
@@ -10659,7 +10659,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I292" t="n">
         <v>0.9996076735177575</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I293" t="n">
         <v>0.9302325581395349</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I294" t="n">
         <v>0.9997039084090011</v>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
       <c r="H295" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I295" t="n">
         <v>0.9256224386563129</v>
@@ -10799,7 +10799,7 @@
         <v>32</v>
       </c>
       <c r="H296" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I296" t="n">
         <v>0.9975256813879431</v>
@@ -10834,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I297" t="n">
         <v>0.7691318302930992</v>
@@ -10869,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="H298" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I298" t="n">
         <v>0.959905786242649</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I299" t="n">
         <v>0.9975961538461539</v>
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I300" t="n">
         <v>0.9995468442574181</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="H301" t="n">
-        <v>0.005508899688720703</v>
+        <v>0.002938985824584961</v>
       </c>
       <c r="I301" t="n">
         <v>0.9836310110840492</v>
@@ -10997,22 +10997,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>48421</v>
+        <v>48506</v>
       </c>
       <c r="E302" t="n">
-        <v>23098</v>
+        <v>23101</v>
       </c>
       <c r="F302" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G302" t="n">
-        <v>752</v>
+        <v>667</v>
       </c>
       <c r="H302" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I302" t="n">
-        <v>0.9991986341215976</v>
+        <v>0.999492349981981</v>
       </c>
     </row>
     <row r="303">
@@ -11032,22 +11032,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E303" t="n">
-        <v>72227</v>
+        <v>72217</v>
       </c>
       <c r="F303" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I303" t="n">
-        <v>0.8827393395783478</v>
+        <v>0.7847837977237357</v>
       </c>
     </row>
     <row r="304">
@@ -11070,19 +11070,19 @@
         <v>5083</v>
       </c>
       <c r="E304" t="n">
-        <v>67212</v>
+        <v>67210</v>
       </c>
       <c r="F304" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I304" t="n">
-        <v>0.9997533260614579</v>
+        <v>0.9993620939983705</v>
       </c>
     </row>
     <row r="305">
@@ -11102,22 +11102,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="E305" t="n">
-        <v>71784</v>
+        <v>71799</v>
       </c>
       <c r="F305" t="n">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G305" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H305" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I305" t="n">
-        <v>0.9404010903343181</v>
+        <v>0.9694055513618085</v>
       </c>
     </row>
     <row r="306">
@@ -11137,22 +11137,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>8360</v>
+        <v>8368</v>
       </c>
       <c r="E306" t="n">
-        <v>63835</v>
+        <v>63839</v>
       </c>
       <c r="F306" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G306" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H306" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I306" t="n">
-        <v>0.9996514265235896</v>
+        <v>0.9998083059847821</v>
       </c>
     </row>
     <row r="307">
@@ -11172,22 +11172,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E307" t="n">
-        <v>72197</v>
+        <v>72195</v>
       </c>
       <c r="F307" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H307" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I307" t="n">
-        <v>0.9569301081068561</v>
+        <v>0.9658911080751522</v>
       </c>
     </row>
     <row r="308">
@@ -11207,22 +11207,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E308" t="n">
-        <v>71978</v>
+        <v>72016</v>
       </c>
       <c r="F308" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="G308" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H308" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I308" t="n">
-        <v>0.8932054873018235</v>
+        <v>0.9218033090515488</v>
       </c>
     </row>
     <row r="309">
@@ -11254,10 +11254,10 @@
         <v>2</v>
       </c>
       <c r="H309" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I309" t="n">
-        <v>0.9995816266780563</v>
+        <v>0.9998517532359844</v>
       </c>
     </row>
     <row r="310">
@@ -11277,22 +11277,22 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>8456</v>
+        <v>8427</v>
       </c>
       <c r="E310" t="n">
-        <v>63346</v>
+        <v>63363</v>
       </c>
       <c r="F310" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G310" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H310" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9639770708814362</v>
+        <v>0.9671582160315052</v>
       </c>
     </row>
     <row r="311">
@@ -11315,19 +11315,19 @@
         <v>159</v>
       </c>
       <c r="E311" t="n">
-        <v>72135</v>
+        <v>72141</v>
       </c>
       <c r="F311" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0.02316164970397949</v>
+        <v>0.03548192977905273</v>
       </c>
       <c r="I311" t="n">
-        <v>0.999701489877388</v>
+        <v>0.9998846142922062</v>
       </c>
     </row>
     <row r="312">
@@ -11359,7 +11359,7 @@
         <v>106</v>
       </c>
       <c r="H312" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I312" t="n">
         <v>0.9996760235004923</v>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I313" t="n">
         <v>0.79309570037754</v>
@@ -11429,7 +11429,7 @@
         <v>5</v>
       </c>
       <c r="H314" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I314" t="n">
         <v>0.9997188906259329</v>
@@ -11464,7 +11464,7 @@
         <v>46</v>
       </c>
       <c r="H315" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I315" t="n">
         <v>0.9050392141643055</v>
@@ -11499,7 +11499,7 @@
         <v>36</v>
       </c>
       <c r="H316" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I316" t="n">
         <v>0.9969737491914041</v>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H317" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I317" t="n">
         <v>0.9451797104539335</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="H318" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I318" t="n">
         <v>0.9777908443472406</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I319" t="n">
         <v>0.9912280701754386</v>
@@ -11639,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="H320" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I320" t="n">
         <v>0.9998958983725421</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>1.50278377532959</v>
+        <v>1.027152299880981</v>
       </c>
       <c r="I321" t="n">
         <v>0.9969135802469136</v>
@@ -11709,10 +11709,10 @@
         <v>15</v>
       </c>
       <c r="H322" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I322" t="n">
-        <v>0.9999430612521907</v>
+        <v>0.9999439760183849</v>
       </c>
     </row>
     <row r="323">
@@ -11744,10 +11744,10 @@
         <v>6</v>
       </c>
       <c r="H323" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I323" t="n">
-        <v>0.8864884273369693</v>
+        <v>0.8814517973003392</v>
       </c>
     </row>
     <row r="324">
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -11805,19 +11805,19 @@
         <v>408</v>
       </c>
       <c r="E325" t="n">
-        <v>71775</v>
+        <v>71777</v>
       </c>
       <c r="F325" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G325" t="n">
         <v>7</v>
       </c>
       <c r="H325" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I325" t="n">
-        <v>0.9943089210703578</v>
+        <v>0.9944476178417588</v>
       </c>
     </row>
     <row r="326">
@@ -11837,22 +11837,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>8403</v>
+        <v>8407</v>
       </c>
       <c r="E326" t="n">
-        <v>63790</v>
+        <v>63789</v>
       </c>
       <c r="F326" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G326" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H326" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I326" t="n">
-        <v>0.9999351233971326</v>
+        <v>0.999936096091621</v>
       </c>
     </row>
     <row r="327">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E327" t="n">
         <v>72122</v>
@@ -11881,13 +11881,13 @@
         <v>2</v>
       </c>
       <c r="G327" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H327" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I327" t="n">
-        <v>0.9795620524549367</v>
+        <v>0.9801874908254369</v>
       </c>
     </row>
     <row r="328">
@@ -11919,10 +11919,10 @@
         <v>4</v>
       </c>
       <c r="H328" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I328" t="n">
-        <v>0.9946864760902967</v>
+        <v>0.9952864496156324</v>
       </c>
     </row>
     <row r="329">
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -11989,10 +11989,10 @@
         <v>7</v>
       </c>
       <c r="H330" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I330" t="n">
-        <v>0.9998407280933789</v>
+        <v>0.9998406268291409</v>
       </c>
     </row>
     <row r="331">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E331" t="n">
         <v>72062</v>
@@ -12021,13 +12021,13 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
-        <v>0.2959740161895752</v>
+        <v>0.1827747821807861</v>
       </c>
       <c r="I331" t="n">
-        <v>0.9999185990982331</v>
+        <v>0.9998786690182678</v>
       </c>
     </row>
     <row r="332">
@@ -12059,7 +12059,7 @@
         <v>146</v>
       </c>
       <c r="H332" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I332" t="n">
         <v>0.9995012455845322</v>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I333" t="n">
         <v>0.9073035906319259</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -12164,7 +12164,7 @@
         <v>37</v>
       </c>
       <c r="H335" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I335" t="n">
         <v>0.8471799559862596</v>
@@ -12199,7 +12199,7 @@
         <v>74</v>
       </c>
       <c r="H336" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I336" t="n">
         <v>0.9938075698633766</v>
@@ -12234,7 +12234,7 @@
         <v>5</v>
       </c>
       <c r="H337" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I337" t="n">
         <v>0.9152989737082389</v>
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I338" t="n">
         <v>0.9977647874478549</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I339" t="n">
         <v>0.9975961538461539</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I340" t="n">
         <v>0.9977070278595295</v>
@@ -12374,7 +12374,7 @@
         <v>3</v>
       </c>
       <c r="H341" t="n">
-        <v>0.006000995635986328</v>
+        <v>0.003092527389526367</v>
       </c>
       <c r="I341" t="n">
         <v>0.9739186324562703</v>
@@ -12397,22 +12397,22 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>48419</v>
+        <v>48584</v>
       </c>
       <c r="E342" t="n">
-        <v>23104</v>
+        <v>23093</v>
       </c>
       <c r="F342" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G342" t="n">
-        <v>754</v>
+        <v>589</v>
       </c>
       <c r="H342" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I342" t="n">
-        <v>0.9992160310871139</v>
+        <v>0.9992061409851942</v>
       </c>
     </row>
     <row r="343">
@@ -12435,19 +12435,19 @@
         <v>38</v>
       </c>
       <c r="E343" t="n">
-        <v>72226</v>
+        <v>72247</v>
       </c>
       <c r="F343" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
       </c>
       <c r="H343" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I343" t="n">
-        <v>0.8519976782155501</v>
+        <v>0.9500270539667192</v>
       </c>
     </row>
     <row r="344">
@@ -12479,10 +12479,10 @@
         <v>2</v>
       </c>
       <c r="H344" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I344" t="n">
-        <v>0.9999372480896725</v>
+        <v>0.9999650487680509</v>
       </c>
     </row>
     <row r="345">
@@ -12502,22 +12502,22 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E345" t="n">
-        <v>71758</v>
+        <v>71793</v>
       </c>
       <c r="F345" t="n">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="G345" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H345" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I345" t="n">
-        <v>0.9437817948094442</v>
+        <v>0.9709105647063455</v>
       </c>
     </row>
     <row r="346">
@@ -12537,22 +12537,22 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>8333</v>
+        <v>8353</v>
       </c>
       <c r="E346" t="n">
-        <v>63852</v>
+        <v>63854</v>
       </c>
       <c r="F346" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G346" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H346" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I346" t="n">
-        <v>0.9998292789594774</v>
+        <v>0.9997415027893835</v>
       </c>
     </row>
     <row r="347">
@@ -12572,22 +12572,22 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E347" t="n">
-        <v>72171</v>
+        <v>72203</v>
       </c>
       <c r="F347" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G347" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H347" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I347" t="n">
-        <v>0.9724007238701017</v>
+        <v>0.9961844053335969</v>
       </c>
     </row>
     <row r="348">
@@ -12607,22 +12607,22 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E348" t="n">
-        <v>71994</v>
+        <v>72026</v>
       </c>
       <c r="F348" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G348" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H348" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I348" t="n">
-        <v>0.8739530703002201</v>
+        <v>0.9411299379045568</v>
       </c>
     </row>
     <row r="349">
@@ -12645,19 +12645,19 @@
         <v>215</v>
       </c>
       <c r="E349" t="n">
-        <v>72085</v>
+        <v>72084</v>
       </c>
       <c r="F349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I349" t="n">
-        <v>0.999618726041118</v>
+        <v>0.9991777575164337</v>
       </c>
     </row>
     <row r="350">
@@ -12677,22 +12677,22 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>8466</v>
+        <v>8460</v>
       </c>
       <c r="E350" t="n">
-        <v>63294</v>
+        <v>63353</v>
       </c>
       <c r="F350" t="n">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="G350" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H350" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I350" t="n">
-        <v>0.9663414923977026</v>
+        <v>0.9668781469977792</v>
       </c>
     </row>
     <row r="351">
@@ -12724,10 +12724,10 @@
         <v>2</v>
       </c>
       <c r="H351" t="n">
-        <v>0.02127766609191895</v>
+        <v>0.03248453140258789</v>
       </c>
       <c r="I351" t="n">
-        <v>0.9999225998773099</v>
+        <v>0.9999610588121118</v>
       </c>
     </row>
     <row r="352">
@@ -12759,7 +12759,7 @@
         <v>90</v>
       </c>
       <c r="H352" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I352" t="n">
         <v>0.9996538843178966</v>
@@ -12794,7 +12794,7 @@
         <v>3</v>
       </c>
       <c r="H353" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I353" t="n">
         <v>0.8254609537524574</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>42</v>
       </c>
       <c r="H355" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I355" t="n">
         <v>0.9147422341568966</v>
@@ -12899,7 +12899,7 @@
         <v>23</v>
       </c>
       <c r="H356" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I356" t="n">
         <v>0.9971893369697573</v>
@@ -12934,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="H357" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I357" t="n">
         <v>0.9516514124206377</v>
@@ -12969,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="H358" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I358" t="n">
         <v>0.9734885664580483</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I359" t="n">
         <v>0.9954954954954955</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I360" t="n">
         <v>0.9999479353741666</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.483710050582886</v>
+        <v>1.079936265945435</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>99</v>
       </c>
       <c r="H362" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I362" t="n">
         <v>0.9999138441352498</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="H365" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I365" t="n">
         <v>0.9681697746108191</v>
@@ -13249,7 +13249,7 @@
         <v>33</v>
       </c>
       <c r="H366" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I366" t="n">
         <v>0.9999072503431516</v>
@@ -13284,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="H367" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I367" t="n">
         <v>0.9791254812157434</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I368" t="n">
         <v>0.9966604061343433</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I370" t="n">
         <v>0.9976287500606826</v>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="n">
-        <v>0.3151404857635498</v>
+        <v>0.2000160217285156</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>50</v>
       </c>
       <c r="H372" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I372" t="n">
         <v>0.9995216460181114</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I373" t="n">
         <v>0.9634146341463414</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I374" t="n">
         <v>0.9998025666337611</v>
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="H375" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I375" t="n">
         <v>0.9479532067404028</v>
@@ -13599,7 +13599,7 @@
         <v>25</v>
       </c>
       <c r="H376" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I376" t="n">
         <v>0.997598001117936</v>
@@ -13634,7 +13634,7 @@
         <v>6</v>
       </c>
       <c r="H377" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I377" t="n">
         <v>0.9031758795799545</v>
@@ -13669,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="H378" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I378" t="n">
         <v>0.9752375656378854</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="H380" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I380" t="n">
         <v>0.9998361055617031</v>
@@ -13774,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="H381" t="n">
-        <v>0.005504369735717773</v>
+        <v>0.002634286880493164</v>
       </c>
       <c r="I381" t="n">
         <v>0.9804479194730112</v>
@@ -13797,22 +13797,22 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>48441</v>
+        <v>48542</v>
       </c>
       <c r="E382" t="n">
-        <v>23097</v>
+        <v>23071</v>
       </c>
       <c r="F382" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G382" t="n">
-        <v>732</v>
+        <v>631</v>
       </c>
       <c r="H382" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I382" t="n">
-        <v>0.999353154069375</v>
+        <v>0.9993614672143052</v>
       </c>
     </row>
     <row r="383">
@@ -13832,22 +13832,22 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E383" t="n">
-        <v>72237</v>
+        <v>72226</v>
       </c>
       <c r="F383" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H383" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I383" t="n">
-        <v>0.9621413052957672</v>
+        <v>0.9829179825482911</v>
       </c>
     </row>
     <row r="384">
@@ -13867,22 +13867,22 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>5082</v>
+        <v>5079</v>
       </c>
       <c r="E384" t="n">
-        <v>67216</v>
+        <v>67218</v>
       </c>
       <c r="F384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H384" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I384" t="n">
-        <v>0.9997465247654574</v>
+        <v>0.9999771987295913</v>
       </c>
     </row>
     <row r="385">
@@ -13905,19 +13905,19 @@
         <v>390</v>
       </c>
       <c r="E385" t="n">
-        <v>71788</v>
+        <v>71798</v>
       </c>
       <c r="F385" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G385" t="n">
         <v>13</v>
       </c>
       <c r="H385" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I385" t="n">
-        <v>0.9603635309062287</v>
+        <v>0.9652406333092176</v>
       </c>
     </row>
     <row r="386">
@@ -13937,22 +13937,22 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>8353</v>
+        <v>8359</v>
       </c>
       <c r="E386" t="n">
-        <v>63842</v>
+        <v>63833</v>
       </c>
       <c r="F386" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G386" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H386" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I386" t="n">
-        <v>0.9997944767569382</v>
+        <v>0.9998613098515249</v>
       </c>
     </row>
     <row r="387">
@@ -13975,19 +13975,19 @@
         <v>90</v>
       </c>
       <c r="E387" t="n">
-        <v>72200</v>
+        <v>72194</v>
       </c>
       <c r="F387" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
       </c>
       <c r="H387" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I387" t="n">
-        <v>0.9772667872341675</v>
+        <v>0.9768686079421391</v>
       </c>
     </row>
     <row r="388">
@@ -14007,22 +14007,22 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E388" t="n">
-        <v>71983</v>
+        <v>72021</v>
       </c>
       <c r="F388" t="n">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="G388" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H388" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I388" t="n">
-        <v>0.8912674847809359</v>
+        <v>0.9199565799002031</v>
       </c>
     </row>
     <row r="389">
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E389" t="n">
         <v>72087</v>
@@ -14051,13 +14051,13 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H389" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I389" t="n">
-        <v>0.9996855644107676</v>
+        <v>0.9999353490485862</v>
       </c>
     </row>
     <row r="390">
@@ -14077,22 +14077,22 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>8456</v>
+        <v>8430</v>
       </c>
       <c r="E390" t="n">
-        <v>63299</v>
+        <v>63384</v>
       </c>
       <c r="F390" t="n">
-        <v>535</v>
+        <v>450</v>
       </c>
       <c r="G390" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H390" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I390" t="n">
-        <v>0.9763221102673983</v>
+        <v>0.9653809958990094</v>
       </c>
     </row>
     <row r="391">
@@ -14115,19 +14115,19 @@
         <v>158</v>
       </c>
       <c r="E391" t="n">
-        <v>72142</v>
+        <v>72141</v>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
       </c>
       <c r="H391" t="n">
-        <v>0.02069783210754395</v>
+        <v>0.03268074989318848</v>
       </c>
       <c r="I391" t="n">
-        <v>0.9997708433020087</v>
+        <v>0.9997692109954641</v>
       </c>
     </row>
     <row r="392">
@@ -14159,7 +14159,7 @@
         <v>110</v>
       </c>
       <c r="H392" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I392" t="n">
         <v>0.9995378598926368</v>
@@ -14194,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I393" t="n">
         <v>0.8333333333333333</v>
@@ -14229,7 +14229,7 @@
         <v>11</v>
       </c>
       <c r="H394" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I394" t="n">
         <v>0.9990727981097148</v>
@@ -14264,7 +14264,7 @@
         <v>35</v>
       </c>
       <c r="H395" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I395" t="n">
         <v>0.9023945900952297</v>
@@ -14299,7 +14299,7 @@
         <v>32</v>
       </c>
       <c r="H396" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I396" t="n">
         <v>0.9971275563827162</v>
@@ -14334,7 +14334,7 @@
         <v>7</v>
       </c>
       <c r="H397" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I397" t="n">
         <v>0.9362464117102796</v>
@@ -14369,7 +14369,7 @@
         <v>6</v>
       </c>
       <c r="H398" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I398" t="n">
         <v>0.9534380950434587</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I399" t="n">
         <v>0.9954954954954955</v>
@@ -14439,7 +14439,7 @@
         <v>8</v>
       </c>
       <c r="H400" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I400" t="n">
         <v>0.9995835378062987</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>1.490200042724609</v>
+        <v>1.009517908096313</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>

--- a/5_analisis_de_resultados/DB/validation_results.xlsx
+++ b/5_analisis_de_resultados/DB/validation_results.xlsx
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I2" t="n">
         <v>0.9999995972635767</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I4" t="n">
         <v>0.9999999213506507</v>
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I5" t="n">
         <v>0.9953667624971186</v>
@@ -649,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I6" t="n">
         <v>0.9998750729443322</v>
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I7" t="n">
         <v>0.9589145756650578</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I8" t="n">
         <v>0.9958311761352511</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I10" t="n">
         <v>0.9998936040234774</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3064930438995361</v>
+        <v>0.3001077175140381</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I12" t="n">
         <v>0.9995811118072994</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I13" t="n">
         <v>0.9318181818181819</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I15" t="n">
         <v>0.927815790633807</v>
@@ -999,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I16" t="n">
         <v>0.9974815182021886</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I17" t="n">
         <v>0.9328610525854245</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I18" t="n">
         <v>0.9776131749074363</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I19" t="n">
         <v>0.9975961538461539</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I20" t="n">
         <v>0.9997245269569911</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005811214447021484</v>
+        <v>0.007611513137817383</v>
       </c>
       <c r="I21" t="n">
         <v>0.9806918252043713</v>
@@ -1209,7 +1209,7 @@
         <v>746</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I22" t="n">
         <v>0.9992305763416915</v>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I23" t="n">
         <v>0.7436978805586916</v>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I24" t="n">
         <v>0.9996163510822607</v>
@@ -1314,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I25" t="n">
         <v>0.9580814770865076</v>
@@ -1349,7 +1349,7 @@
         <v>76</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I26" t="n">
         <v>0.9999141567534682</v>
@@ -1384,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I27" t="n">
         <v>0.9415961479728784</v>
@@ -1419,7 +1419,7 @@
         <v>39</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I28" t="n">
         <v>0.8908313354842197</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I29" t="n">
         <v>0.999552723271488</v>
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I30" t="n">
         <v>0.9660876841459456</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02299165725708008</v>
+        <v>0.02704763412475586</v>
       </c>
       <c r="I31" t="n">
         <v>0.9998470933712404</v>
@@ -1559,7 +1559,7 @@
         <v>114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I32" t="n">
         <v>0.9996208879486046</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I33" t="n">
         <v>0.846938775510204</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I34" t="n">
         <v>0.9992553090703489</v>
@@ -1664,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="H35" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I35" t="n">
         <v>0.8988801813950157</v>
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I36" t="n">
         <v>0.9966401672628556</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I37" t="n">
         <v>0.8949675008351735</v>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I38" t="n">
         <v>0.9571067967474096</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I39" t="n">
         <v>0.9954954954954955</v>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I40" t="n">
         <v>0.9995696175604922</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.415283679962158</v>
+        <v>1.659195184707642</v>
       </c>
       <c r="I41" t="n">
         <v>0.9969512195121951</v>
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I42" t="n">
         <v>0.999998114457499</v>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I43" t="n">
         <v>0.9987335834896811</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I44" t="n">
         <v>0.9999997246180363</v>
@@ -2014,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I45" t="n">
         <v>0.9960607118796637</v>
@@ -2049,7 +2049,7 @@
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I46" t="n">
         <v>0.9997560870158967</v>
@@ -2084,7 +2084,7 @@
         <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I47" t="n">
         <v>0.984130687645478</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I50" t="n">
         <v>0.999893995443905</v>
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3241405487060547</v>
+        <v>0.3011927604675293</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I52" t="n">
         <v>0.9995910956377173</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I53" t="n">
         <v>0.8979601562884917</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I55" t="n">
         <v>0.953741120900783</v>
@@ -2399,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I56" t="n">
         <v>0.9978212652621351</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I57" t="n">
         <v>0.896234859220527</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I58" t="n">
         <v>0.9554792362931447</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I59" t="n">
         <v>0.9952153110047847</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I60" t="n">
         <v>0.9997630893153282</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005513429641723633</v>
+        <v>0.01075601577758789</v>
       </c>
       <c r="I61" t="n">
         <v>0.9810126582278481</v>
@@ -2609,7 +2609,7 @@
         <v>754</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I62" t="n">
         <v>0.9993763986116824</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I63" t="n">
         <v>0.7831145003352555</v>
@@ -2679,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I64" t="n">
         <v>0.999788044684247</v>
@@ -2714,7 +2714,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I65" t="n">
         <v>0.9366177473307222</v>
@@ -2749,7 +2749,7 @@
         <v>113</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I66" t="n">
         <v>0.9996779006883287</v>
@@ -2784,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I67" t="n">
         <v>0.9732670019989248</v>
@@ -2819,7 +2819,7 @@
         <v>33</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I68" t="n">
         <v>0.8410189191247465</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I69" t="n">
         <v>0.9986885144076698</v>
@@ -2889,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I70" t="n">
         <v>0.9642257915546948</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02501559257507324</v>
+        <v>0.02619838714599609</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>116</v>
       </c>
       <c r="H72" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I72" t="n">
         <v>0.9996025942964724</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I73" t="n">
         <v>0.83137236147191</v>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I74" t="n">
         <v>0.9995369193627702</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="H75" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I75" t="n">
         <v>0.917614799752473</v>
@@ -3099,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I76" t="n">
         <v>0.9971873911818152</v>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I77" t="n">
         <v>0.9331223143596818</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I78" t="n">
         <v>0.9694706888886376</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I79" t="n">
         <v>0.997737556561086</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I80" t="n">
         <v>0.9997396068202016</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.453099966049194</v>
+        <v>1.505037784576416</v>
       </c>
       <c r="I81" t="n">
         <v>0.9939393939393939</v>
@@ -3309,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I82" t="n">
         <v>0.9999992301459814</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I84" t="n">
         <v>0.9999999213272502</v>
@@ -3414,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I85" t="n">
         <v>0.9965671994642877</v>
@@ -3449,7 +3449,7 @@
         <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I86" t="n">
         <v>0.999930115646414</v>
@@ -3484,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I87" t="n">
         <v>0.9756921667715844</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I88" t="n">
         <v>0.9962004305828409</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I90" t="n">
         <v>0.9999999860518941</v>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3156728744506836</v>
+        <v>0.3002595901489258</v>
       </c>
       <c r="I91" t="n">
         <v>0.9997618457763385</v>
@@ -3659,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="H92" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I92" t="n">
         <v>0.9995507193116855</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I93" t="n">
         <v>0.9612080195363548</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I95" t="n">
         <v>0.9482051489594997</v>
@@ -3799,7 +3799,7 @@
         <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I96" t="n">
         <v>0.9975603634264166</v>
@@ -3834,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I97" t="n">
         <v>0.8899908101648437</v>
@@ -3869,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I98" t="n">
         <v>0.9732683816837192</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I99" t="n">
         <v>0.9951760220398265</v>
@@ -3939,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I100" t="n">
         <v>0.9998430524992453</v>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005503177642822266</v>
+        <v>0.008070707321166992</v>
       </c>
       <c r="I101" t="n">
         <v>0.9802839776374048</v>
@@ -4009,7 +4009,7 @@
         <v>728</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I102" t="n">
         <v>0.9994131642446318</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I103" t="n">
         <v>0.8922646551145349</v>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I104" t="n">
         <v>0.9995475268933285</v>
@@ -4114,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I105" t="n">
         <v>0.9510013271257618</v>
@@ -4149,7 +4149,7 @@
         <v>82</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I106" t="n">
         <v>0.9999110369735796</v>
@@ -4184,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I107" t="n">
         <v>0.9753580771350124</v>
@@ -4219,7 +4219,7 @@
         <v>30</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I108" t="n">
         <v>0.9046672072163442</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I109" t="n">
         <v>0.9999784167618132</v>
@@ -4289,7 +4289,7 @@
         <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I110" t="n">
         <v>0.9646601660004228</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0260157585144043</v>
+        <v>0.01742053031921387</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>108</v>
       </c>
       <c r="H112" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I112" t="n">
         <v>0.9996360801777742</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I113" t="n">
         <v>0.8564514988687782</v>
@@ -4429,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I114" t="n">
         <v>0.9997188138500056</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="H115" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I115" t="n">
         <v>0.8913159839419261</v>
@@ -4499,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="H116" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I116" t="n">
         <v>0.9959313038186618</v>
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I117" t="n">
         <v>0.9547534771579251</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I118" t="n">
         <v>0.9617977517015224</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I119" t="n">
         <v>0.9932735426008968</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.453841924667358</v>
+        <v>1.449804067611694</v>
       </c>
       <c r="I121" t="n">
         <v>0.9969512195121951</v>
@@ -4709,7 +4709,7 @@
         <v>18</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I122" t="n">
         <v>0.9999873165654974</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>14</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I125" t="n">
         <v>0.9900954370527612</v>
@@ -4849,7 +4849,7 @@
         <v>27</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I126" t="n">
         <v>0.9999734441209965</v>
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I127" t="n">
         <v>0.9914848854144033</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I128" t="n">
         <v>0.9957848859721655</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I130" t="n">
         <v>0.9999469302917998</v>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3048903942108154</v>
+        <v>0.2917459011077881</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>169</v>
       </c>
       <c r="H132" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I132" t="n">
         <v>0.9994100785036032</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I133" t="n">
         <v>0.9871794871794872</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>43</v>
       </c>
       <c r="H135" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I135" t="n">
         <v>0.8297011391925581</v>
@@ -5199,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="H136" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I136" t="n">
         <v>0.9932763539702985</v>
@@ -5234,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I137" t="n">
         <v>0.8966041198146083</v>
@@ -5269,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I138" t="n">
         <v>0.9734380044169704</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I139" t="n">
         <v>0.9975961538461539</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I140" t="n">
         <v>0.9961577850513517</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>0.006042242050170898</v>
+        <v>0.01006746292114258</v>
       </c>
       <c r="I141" t="n">
         <v>0.9868559850916032</v>
@@ -5409,7 +5409,7 @@
         <v>812</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I142" t="n">
         <v>0.9994001117035096</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I143" t="n">
         <v>0.9182340469907672</v>
@@ -5479,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I144" t="n">
         <v>0.9996369888934045</v>
@@ -5514,7 +5514,7 @@
         <v>13</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I145" t="n">
         <v>0.9570549708556987</v>
@@ -5549,7 +5549,7 @@
         <v>90</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I146" t="n">
         <v>0.9994596986176888</v>
@@ -5584,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I147" t="n">
         <v>0.9774663881883138</v>
@@ -5619,7 +5619,7 @@
         <v>32</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I148" t="n">
         <v>0.8944460126464121</v>
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I149" t="n">
         <v>0.9998530099077294</v>
@@ -5689,7 +5689,7 @@
         <v>10</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I150" t="n">
         <v>0.9738104467740823</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0249779224395752</v>
+        <v>0.02403140068054199</v>
       </c>
       <c r="I151" t="n">
         <v>0.9999999999999999</v>
@@ -5759,7 +5759,7 @@
         <v>128</v>
       </c>
       <c r="H152" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I152" t="n">
         <v>0.9996929043416195</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I153" t="n">
         <v>0.8617021276595744</v>
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="H154" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I154" t="n">
         <v>0.9991709764256392</v>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="H155" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I155" t="n">
         <v>0.9212032232336401</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="H156" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I156" t="n">
         <v>0.9976297027889192</v>
@@ -5934,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I157" t="n">
         <v>0.9047927269989953</v>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I158" t="n">
         <v>0.9590308042364136</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I159" t="n">
         <v>0.995475113122172</v>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I160" t="n">
         <v>0.9998958715043819</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.35526967048645</v>
+        <v>1.391857147216797</v>
       </c>
       <c r="I161" t="n">
         <v>0.99079754601227</v>
@@ -6109,7 +6109,7 @@
         <v>120</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I162" t="n">
         <v>0.9998913467716126</v>
@@ -6144,7 +6144,7 @@
         <v>7</v>
       </c>
       <c r="H163" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I163" t="n">
         <v>0.9393522267206478</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6214,7 +6214,7 @@
         <v>34</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I165" t="n">
         <v>0.969873806718304</v>
@@ -6249,7 +6249,7 @@
         <v>35</v>
       </c>
       <c r="H166" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I166" t="n">
         <v>0.9995878848211616</v>
@@ -6284,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I167" t="n">
         <v>0.9838184086195259</v>
@@ -6319,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I168" t="n">
         <v>0.9998402788869521</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I170" t="n">
         <v>0.9968379992860525</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3188433647155762</v>
+        <v>0.3187100887298584</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>66</v>
       </c>
       <c r="H172" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I172" t="n">
         <v>0.9994849959703292</v>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I173" t="n">
         <v>0.9466582466432528</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I174" t="n">
         <v>0.9999081842357711</v>
@@ -6564,7 +6564,7 @@
         <v>18</v>
       </c>
       <c r="H175" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I175" t="n">
         <v>0.9292761515778079</v>
@@ -6599,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I176" t="n">
         <v>0.9974475522672595</v>
@@ -6634,7 +6634,7 @@
         <v>6</v>
       </c>
       <c r="H177" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I177" t="n">
         <v>0.717779628858479</v>
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I178" t="n">
         <v>0.9650851238173939</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I179" t="n">
         <v>0.9928571428571429</v>
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I180" t="n">
         <v>0.9994768416641513</v>
@@ -6774,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>0.005425453186035156</v>
+        <v>0.006295919418334961</v>
       </c>
       <c r="I181" t="n">
         <v>0.9742041632292551</v>
@@ -6809,7 +6809,7 @@
         <v>734</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I182" t="n">
         <v>0.9992968037432133</v>
@@ -6844,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="H183" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I183" t="n">
         <v>0.8558200824742392</v>
@@ -6879,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I184" t="n">
         <v>0.9992835821919187</v>
@@ -6914,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="H185" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I185" t="n">
         <v>0.9462070471357168</v>
@@ -6949,7 +6949,7 @@
         <v>123</v>
       </c>
       <c r="H186" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I186" t="n">
         <v>0.9998804748835993</v>
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I187" t="n">
         <v>0.9878891904408147</v>
@@ -7019,7 +7019,7 @@
         <v>34</v>
       </c>
       <c r="H188" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I188" t="n">
         <v>0.8748621003193412</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I189" t="n">
         <v>0.9999784167618132</v>
@@ -7089,7 +7089,7 @@
         <v>17</v>
       </c>
       <c r="H190" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I190" t="n">
         <v>0.9674603355472031</v>
@@ -7124,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0.02502346038818359</v>
+        <v>0.02381610870361328</v>
       </c>
       <c r="I191" t="n">
         <v>0.9987468592964824</v>
@@ -7159,7 +7159,7 @@
         <v>121</v>
       </c>
       <c r="H192" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I192" t="n">
         <v>0.9995810276193868</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I193" t="n">
         <v>0.8617021276595744</v>
@@ -7229,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="H194" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I194" t="n">
         <v>0.9998101857692622</v>
@@ -7264,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="H195" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I195" t="n">
         <v>0.9132026865033839</v>
@@ -7299,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="H196" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I196" t="n">
         <v>0.9973846934186007</v>
@@ -7334,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I197" t="n">
         <v>0.8713118056536743</v>
@@ -7369,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I198" t="n">
         <v>0.9588429393980865</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I199" t="n">
         <v>0.9977272727272728</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I200" t="n">
         <v>0.9999478940491804</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>1.559277296066284</v>
+        <v>1.378317356109619</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>16</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I202" t="n">
         <v>0.9999884610498333</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -7579,7 +7579,7 @@
         <v>5</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I204" t="n">
         <v>0.9996249018864073</v>
@@ -7614,7 +7614,7 @@
         <v>10</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I205" t="n">
         <v>0.9953354066035638</v>
@@ -7649,7 +7649,7 @@
         <v>23</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I206" t="n">
         <v>0.9999852514409062</v>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="H207" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I207" t="n">
         <v>0.9977580795662473</v>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I208" t="n">
         <v>0.9959596774282824</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -7789,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I210" t="n">
         <v>0.9999470178425062</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.3049569129943848</v>
+        <v>0.3097066879272461</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>59</v>
       </c>
       <c r="H212" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I212" t="n">
         <v>0.999578890651514</v>
@@ -7894,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I213" t="n">
         <v>0.9127224805986635</v>
@@ -7929,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="H214" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I214" t="n">
         <v>0.9994491054146268</v>
@@ -7964,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="H215" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I215" t="n">
         <v>0.9417474868627919</v>
@@ -7999,7 +7999,7 @@
         <v>39</v>
       </c>
       <c r="H216" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I216" t="n">
         <v>0.9975484341942489</v>
@@ -8034,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I217" t="n">
         <v>0.8920749968034666</v>
@@ -8069,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="H218" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I218" t="n">
         <v>0.9578726711300194</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I219" t="n">
         <v>0.9859154929577465</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I220" t="n">
         <v>0.9997699590479318</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="H221" t="n">
-        <v>0.006096124649047852</v>
+        <v>0.008940458297729492</v>
       </c>
       <c r="I221" t="n">
         <v>0.9934349324600242</v>
@@ -8209,7 +8209,7 @@
         <v>864</v>
       </c>
       <c r="H222" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I222" t="n">
         <v>0.9992718198208287</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I223" t="n">
         <v>0.7789608018769794</v>
@@ -8279,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="H224" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I224" t="n">
         <v>0.9997399005601374</v>
@@ -8314,7 +8314,7 @@
         <v>10</v>
       </c>
       <c r="H225" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I225" t="n">
         <v>0.9411581668761423</v>
@@ -8349,7 +8349,7 @@
         <v>101</v>
       </c>
       <c r="H226" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I226" t="n">
         <v>0.9997663362459063</v>
@@ -8384,7 +8384,7 @@
         <v>8</v>
       </c>
       <c r="H227" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I227" t="n">
         <v>0.9432191546866775</v>
@@ -8419,7 +8419,7 @@
         <v>35</v>
       </c>
       <c r="H228" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I228" t="n">
         <v>0.7664152635554841</v>
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I229" t="n">
         <v>0.9998940504117312</v>
@@ -8489,7 +8489,7 @@
         <v>8</v>
       </c>
       <c r="H230" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I230" t="n">
         <v>0.9673942773569899</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0.02483415603637695</v>
+        <v>0.01714658737182617</v>
       </c>
       <c r="I231" t="n">
         <v>0.9999225998773099</v>
@@ -8559,7 +8559,7 @@
         <v>106</v>
       </c>
       <c r="H232" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I232" t="n">
         <v>0.9996523650778064</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I233" t="n">
         <v>0.8269230769230769</v>
@@ -8629,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="H234" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I234" t="n">
         <v>0.9993544110620025</v>
@@ -8664,7 +8664,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I235" t="n">
         <v>0.9272123319232953</v>
@@ -8699,7 +8699,7 @@
         <v>33</v>
       </c>
       <c r="H236" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I236" t="n">
         <v>0.9970648849244109</v>
@@ -8734,7 +8734,7 @@
         <v>5</v>
       </c>
       <c r="H237" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I237" t="n">
         <v>0.9178727696302454</v>
@@ -8769,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I238" t="n">
         <v>0.9644066621053299</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I239" t="n">
         <v>0.9977272727272728</v>
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I240" t="n">
         <v>0.9998297677120598</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1.324403047561646</v>
+        <v>1.499777317047119</v>
       </c>
       <c r="I241" t="n">
         <v>0.9968944099378882</v>
@@ -8909,7 +8909,7 @@
         <v>16</v>
       </c>
       <c r="H242" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I242" t="n">
         <v>0.9999992788737706</v>
@@ -8944,7 +8944,7 @@
         <v>4</v>
       </c>
       <c r="H243" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I243" t="n">
         <v>0.9986238369202358</v>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -9014,7 +9014,7 @@
         <v>6</v>
       </c>
       <c r="H245" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I245" t="n">
         <v>0.9925360565379624</v>
@@ -9049,7 +9049,7 @@
         <v>26</v>
       </c>
       <c r="H246" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I246" t="n">
         <v>0.9999814559805068</v>
@@ -9084,7 +9084,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I247" t="n">
         <v>0.9787755776574929</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I249" t="n">
         <v>0.9999901671583088</v>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>0.307621955871582</v>
+        <v>0.2995545864105225</v>
       </c>
       <c r="I251" t="n">
         <v>0.9999585100989887</v>
@@ -9259,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="H252" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I252" t="n">
         <v>0.9995636933964683</v>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I253" t="n">
         <v>0.9590979641051817</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I255" t="n">
         <v>0.9312154332684235</v>
@@ -9399,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="H256" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I256" t="n">
         <v>0.9968528575805354</v>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I257" t="n">
         <v>0.9064884214920302</v>
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I258" t="n">
         <v>0.9778758604299002</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I259" t="n">
         <v>0.9928571428571429</v>
@@ -9539,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="H260" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I260" t="n">
         <v>0.9997176223470254</v>
@@ -9574,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006438970565795898</v>
       </c>
       <c r="I261" t="n">
         <v>0.9742041634219074</v>
@@ -9609,7 +9609,7 @@
         <v>758</v>
       </c>
       <c r="H262" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I262" t="n">
         <v>0.9993399913423396</v>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I263" t="n">
         <v>0.9571261100413652</v>
@@ -9679,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I264" t="n">
         <v>0.9997921270782879</v>
@@ -9714,7 +9714,7 @@
         <v>12</v>
       </c>
       <c r="H265" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I265" t="n">
         <v>0.9401273599848615</v>
@@ -9749,7 +9749,7 @@
         <v>121</v>
       </c>
       <c r="H266" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I266" t="n">
         <v>0.9997433696883089</v>
@@ -9784,7 +9784,7 @@
         <v>2</v>
       </c>
       <c r="H267" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I267" t="n">
         <v>0.9871760288885711</v>
@@ -9819,7 +9819,7 @@
         <v>10</v>
       </c>
       <c r="H268" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I268" t="n">
         <v>0.9067696407540615</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I269" t="n">
         <v>0.9997341459062726</v>
@@ -9889,7 +9889,7 @@
         <v>8</v>
       </c>
       <c r="H270" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I270" t="n">
         <v>0.9774319850817894</v>
@@ -9924,7 +9924,7 @@
         <v>2</v>
       </c>
       <c r="H271" t="n">
-        <v>0.02466869354248047</v>
+        <v>0.0195915699005127</v>
       </c>
       <c r="I271" t="n">
         <v>0.9995454461972056</v>
@@ -9959,7 +9959,7 @@
         <v>102</v>
       </c>
       <c r="H272" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I272" t="n">
         <v>0.9997078578068193</v>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I273" t="n">
         <v>0.8371693523867437</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I274" t="n">
         <v>0.9997116254645638</v>
@@ -10064,7 +10064,7 @@
         <v>45</v>
       </c>
       <c r="H275" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I275" t="n">
         <v>0.9095453973400324</v>
@@ -10099,7 +10099,7 @@
         <v>30</v>
       </c>
       <c r="H276" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I276" t="n">
         <v>0.9971401812129319</v>
@@ -10134,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I277" t="n">
         <v>0.9370252434230123</v>
@@ -10169,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="H278" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I278" t="n">
         <v>0.9587187857349596</v>
@@ -10204,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I279" t="n">
         <v>0.9910125541707765</v>
@@ -10239,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="H280" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I280" t="n">
         <v>0.9997917689162885</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>1.292963027954102</v>
+        <v>1.451306819915771</v>
       </c>
       <c r="I281" t="n">
         <v>0.9938650306748467</v>
@@ -10309,7 +10309,7 @@
         <v>17</v>
       </c>
       <c r="H282" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I282" t="n">
         <v>0.9999752422627819</v>
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I283" t="n">
         <v>0.999316357695859</v>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -10414,7 +10414,7 @@
         <v>7</v>
       </c>
       <c r="H285" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I285" t="n">
         <v>0.9944265354491285</v>
@@ -10449,7 +10449,7 @@
         <v>20</v>
       </c>
       <c r="H286" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I286" t="n">
         <v>0.9998719863728012</v>
@@ -10484,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="H287" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I287" t="n">
         <v>0.9797327823229414</v>
@@ -10519,7 +10519,7 @@
         <v>3</v>
       </c>
       <c r="H288" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I288" t="n">
         <v>0.9953664384907742</v>
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I289" t="n">
         <v>0.9999901671583088</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -10624,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="H291" t="n">
-        <v>0.3088598251342773</v>
+        <v>0.2969024181365967</v>
       </c>
       <c r="I291" t="n">
         <v>0.99222026296623</v>
@@ -10659,7 +10659,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I292" t="n">
         <v>0.9996076735177575</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I293" t="n">
         <v>0.9302325581395349</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I294" t="n">
         <v>0.9997039084090011</v>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
       <c r="H295" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I295" t="n">
         <v>0.9256224386563129</v>
@@ -10799,7 +10799,7 @@
         <v>32</v>
       </c>
       <c r="H296" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I296" t="n">
         <v>0.9975256813879431</v>
@@ -10834,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I297" t="n">
         <v>0.7691318302930992</v>
@@ -10869,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="H298" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I298" t="n">
         <v>0.959905786242649</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I299" t="n">
         <v>0.9975961538461539</v>
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I300" t="n">
         <v>0.9995468442574181</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="H301" t="n">
-        <v>0.0059967041015625</v>
+        <v>0.005508899688720703</v>
       </c>
       <c r="I301" t="n">
         <v>0.9836310110840492</v>
@@ -11009,7 +11009,7 @@
         <v>752</v>
       </c>
       <c r="H302" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I302" t="n">
         <v>0.9991986341215976</v>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I303" t="n">
         <v>0.8827393395783478</v>
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I304" t="n">
         <v>0.9997533260614579</v>
@@ -11114,7 +11114,7 @@
         <v>21</v>
       </c>
       <c r="H305" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I305" t="n">
         <v>0.9404010903343181</v>
@@ -11149,7 +11149,7 @@
         <v>86</v>
       </c>
       <c r="H306" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I306" t="n">
         <v>0.9996514265235896</v>
@@ -11184,7 +11184,7 @@
         <v>4</v>
       </c>
       <c r="H307" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I307" t="n">
         <v>0.9569301081068561</v>
@@ -11219,7 +11219,7 @@
         <v>31</v>
       </c>
       <c r="H308" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I308" t="n">
         <v>0.8932054873018235</v>
@@ -11254,7 +11254,7 @@
         <v>2</v>
       </c>
       <c r="H309" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I309" t="n">
         <v>0.9995816266780563</v>
@@ -11289,7 +11289,7 @@
         <v>13</v>
       </c>
       <c r="H310" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I310" t="n">
         <v>0.9639770708814362</v>
@@ -11324,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0.02590632438659668</v>
+        <v>0.02316164970397949</v>
       </c>
       <c r="I311" t="n">
         <v>0.999701489877388</v>
@@ -11359,7 +11359,7 @@
         <v>106</v>
       </c>
       <c r="H312" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I312" t="n">
         <v>0.9996760235004923</v>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I313" t="n">
         <v>0.79309570037754</v>
@@ -11429,7 +11429,7 @@
         <v>5</v>
       </c>
       <c r="H314" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I314" t="n">
         <v>0.9997188906259329</v>
@@ -11464,7 +11464,7 @@
         <v>46</v>
       </c>
       <c r="H315" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I315" t="n">
         <v>0.9050392141643055</v>
@@ -11499,7 +11499,7 @@
         <v>36</v>
       </c>
       <c r="H316" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I316" t="n">
         <v>0.9969737491914041</v>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H317" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I317" t="n">
         <v>0.9451797104539335</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="H318" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I318" t="n">
         <v>0.9777908443472406</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I319" t="n">
         <v>0.9912280701754386</v>
@@ -11639,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="H320" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I320" t="n">
         <v>0.9998958983725421</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>1.359801769256592</v>
+        <v>1.50278377532959</v>
       </c>
       <c r="I321" t="n">
         <v>0.9969135802469136</v>
@@ -11709,7 +11709,7 @@
         <v>15</v>
       </c>
       <c r="H322" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I322" t="n">
         <v>0.9999430612521907</v>
@@ -11744,7 +11744,7 @@
         <v>6</v>
       </c>
       <c r="H323" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I323" t="n">
         <v>0.8864884273369693</v>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -11814,7 +11814,7 @@
         <v>7</v>
       </c>
       <c r="H325" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I325" t="n">
         <v>0.9943089210703578</v>
@@ -11849,7 +11849,7 @@
         <v>22</v>
       </c>
       <c r="H326" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I326" t="n">
         <v>0.9999351233971326</v>
@@ -11884,7 +11884,7 @@
         <v>3</v>
       </c>
       <c r="H327" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I327" t="n">
         <v>0.9795620524549367</v>
@@ -11919,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="H328" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I328" t="n">
         <v>0.9946864760902967</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -11989,7 +11989,7 @@
         <v>7</v>
       </c>
       <c r="H330" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I330" t="n">
         <v>0.9998407280933789</v>
@@ -12024,7 +12024,7 @@
         <v>2</v>
       </c>
       <c r="H331" t="n">
-        <v>0.2984342575073242</v>
+        <v>0.2959740161895752</v>
       </c>
       <c r="I331" t="n">
         <v>0.9999185990982331</v>
@@ -12059,7 +12059,7 @@
         <v>146</v>
       </c>
       <c r="H332" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I332" t="n">
         <v>0.9995012455845322</v>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I333" t="n">
         <v>0.9073035906319259</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -12164,7 +12164,7 @@
         <v>37</v>
       </c>
       <c r="H335" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I335" t="n">
         <v>0.8471799559862596</v>
@@ -12199,7 +12199,7 @@
         <v>74</v>
       </c>
       <c r="H336" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I336" t="n">
         <v>0.9938075698633766</v>
@@ -12234,7 +12234,7 @@
         <v>5</v>
       </c>
       <c r="H337" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I337" t="n">
         <v>0.9152989737082389</v>
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I338" t="n">
         <v>0.9977647874478549</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I339" t="n">
         <v>0.9975961538461539</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I340" t="n">
         <v>0.9977070278595295</v>
@@ -12374,7 +12374,7 @@
         <v>3</v>
       </c>
       <c r="H341" t="n">
-        <v>0.007156133651733398</v>
+        <v>0.006000995635986328</v>
       </c>
       <c r="I341" t="n">
         <v>0.9739186324562703</v>
@@ -12409,7 +12409,7 @@
         <v>754</v>
       </c>
       <c r="H342" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I342" t="n">
         <v>0.9992160310871139</v>
@@ -12444,7 +12444,7 @@
         <v>2</v>
       </c>
       <c r="H343" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I343" t="n">
         <v>0.8519976782155501</v>
@@ -12479,7 +12479,7 @@
         <v>2</v>
       </c>
       <c r="H344" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I344" t="n">
         <v>0.9999372480896725</v>
@@ -12514,7 +12514,7 @@
         <v>11</v>
       </c>
       <c r="H345" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I345" t="n">
         <v>0.9437817948094442</v>
@@ -12549,7 +12549,7 @@
         <v>113</v>
       </c>
       <c r="H346" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I346" t="n">
         <v>0.9998292789594774</v>
@@ -12584,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="H347" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I347" t="n">
         <v>0.9724007238701017</v>
@@ -12619,7 +12619,7 @@
         <v>36</v>
       </c>
       <c r="H348" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I348" t="n">
         <v>0.8739530703002201</v>
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I349" t="n">
         <v>0.999618726041118</v>
@@ -12689,7 +12689,7 @@
         <v>3</v>
       </c>
       <c r="H350" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I350" t="n">
         <v>0.9663414923977026</v>
@@ -12724,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="H351" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.02127766609191895</v>
       </c>
       <c r="I351" t="n">
         <v>0.9999225998773099</v>
@@ -12759,7 +12759,7 @@
         <v>90</v>
       </c>
       <c r="H352" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I352" t="n">
         <v>0.9996538843178966</v>
@@ -12794,7 +12794,7 @@
         <v>3</v>
       </c>
       <c r="H353" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I353" t="n">
         <v>0.8254609537524574</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>42</v>
       </c>
       <c r="H355" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I355" t="n">
         <v>0.9147422341568966</v>
@@ -12899,7 +12899,7 @@
         <v>23</v>
       </c>
       <c r="H356" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I356" t="n">
         <v>0.9971893369697573</v>
@@ -12934,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="H357" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I357" t="n">
         <v>0.9516514124206377</v>
@@ -12969,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="H358" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I358" t="n">
         <v>0.9734885664580483</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I359" t="n">
         <v>0.9954954954954955</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I360" t="n">
         <v>0.9999479353741666</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.404481649398804</v>
+        <v>1.483710050582886</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>99</v>
       </c>
       <c r="H362" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I362" t="n">
         <v>0.9999138441352498</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="H365" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I365" t="n">
         <v>0.9681697746108191</v>
@@ -13249,7 +13249,7 @@
         <v>33</v>
       </c>
       <c r="H366" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I366" t="n">
         <v>0.9999072503431516</v>
@@ -13284,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="H367" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I367" t="n">
         <v>0.9791254812157434</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I368" t="n">
         <v>0.9966604061343433</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I370" t="n">
         <v>0.9976287500606826</v>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="n">
-        <v>0.3326354026794434</v>
+        <v>0.3151404857635498</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>50</v>
       </c>
       <c r="H372" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I372" t="n">
         <v>0.9995216460181114</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I373" t="n">
         <v>0.9634146341463414</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I374" t="n">
         <v>0.9998025666337611</v>
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="H375" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I375" t="n">
         <v>0.9479532067404028</v>
@@ -13599,7 +13599,7 @@
         <v>25</v>
       </c>
       <c r="H376" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I376" t="n">
         <v>0.997598001117936</v>
@@ -13634,7 +13634,7 @@
         <v>6</v>
       </c>
       <c r="H377" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I377" t="n">
         <v>0.9031758795799545</v>
@@ -13669,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="H378" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I378" t="n">
         <v>0.9752375656378854</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="H380" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I380" t="n">
         <v>0.9998361055617031</v>
@@ -13774,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="H381" t="n">
-        <v>0.005130290985107422</v>
+        <v>0.005504369735717773</v>
       </c>
       <c r="I381" t="n">
         <v>0.9804479194730112</v>
@@ -13809,7 +13809,7 @@
         <v>732</v>
       </c>
       <c r="H382" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I382" t="n">
         <v>0.999353154069375</v>
@@ -13844,7 +13844,7 @@
         <v>2</v>
       </c>
       <c r="H383" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I383" t="n">
         <v>0.9621413052957672</v>
@@ -13879,7 +13879,7 @@
         <v>2</v>
       </c>
       <c r="H384" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I384" t="n">
         <v>0.9997465247654574</v>
@@ -13914,7 +13914,7 @@
         <v>13</v>
       </c>
       <c r="H385" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I385" t="n">
         <v>0.9603635309062287</v>
@@ -13949,7 +13949,7 @@
         <v>94</v>
       </c>
       <c r="H386" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I386" t="n">
         <v>0.9997944767569382</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="H387" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I387" t="n">
         <v>0.9772667872341675</v>
@@ -14019,7 +14019,7 @@
         <v>30</v>
       </c>
       <c r="H388" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I388" t="n">
         <v>0.8912674847809359</v>
@@ -14054,7 +14054,7 @@
         <v>3</v>
       </c>
       <c r="H389" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I389" t="n">
         <v>0.9996855644107676</v>
@@ -14089,7 +14089,7 @@
         <v>12</v>
       </c>
       <c r="H390" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I390" t="n">
         <v>0.9763221102673983</v>
@@ -14124,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="H391" t="n">
-        <v>0.02816963195800781</v>
+        <v>0.02069783210754395</v>
       </c>
       <c r="I391" t="n">
         <v>0.9997708433020087</v>
@@ -14159,7 +14159,7 @@
         <v>110</v>
       </c>
       <c r="H392" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I392" t="n">
         <v>0.9995378598926368</v>
@@ -14194,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I393" t="n">
         <v>0.8333333333333333</v>
@@ -14229,7 +14229,7 @@
         <v>11</v>
       </c>
       <c r="H394" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I394" t="n">
         <v>0.9990727981097148</v>
@@ -14264,7 +14264,7 @@
         <v>35</v>
       </c>
       <c r="H395" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I395" t="n">
         <v>0.9023945900952297</v>
@@ -14299,7 +14299,7 @@
         <v>32</v>
       </c>
       <c r="H396" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I396" t="n">
         <v>0.9971275563827162</v>
@@ -14334,7 +14334,7 @@
         <v>7</v>
       </c>
       <c r="H397" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I397" t="n">
         <v>0.9362464117102796</v>
@@ -14369,7 +14369,7 @@
         <v>6</v>
       </c>
       <c r="H398" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I398" t="n">
         <v>0.9534380950434587</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I399" t="n">
         <v>0.9954954954954955</v>
@@ -14439,7 +14439,7 @@
         <v>8</v>
       </c>
       <c r="H400" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I400" t="n">
         <v>0.9995835378062987</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>1.383896350860596</v>
+        <v>1.490200042724609</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>

--- a/5_analisis_de_resultados/DB/validation_results.xlsx
+++ b/5_analisis_de_resultados/DB/validation_results.xlsx
@@ -500,19 +500,19 @@
         <v>49136</v>
       </c>
       <c r="E2" t="n">
-        <v>23053</v>
+        <v>23050</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999996339059232</v>
+        <v>0.9999995972635767</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I4" t="n">
         <v>0.9999999213506507</v>
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E5" t="n">
-        <v>71776</v>
+        <v>71780</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9948978349310058</v>
+        <v>0.9953667624971186</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8395</v>
+        <v>8399</v>
       </c>
       <c r="E6" t="n">
         <v>63790</v>
@@ -646,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9998755904991684</v>
+        <v>0.9998750729443322</v>
       </c>
     </row>
     <row r="7">
@@ -675,19 +675,19 @@
         <v>89</v>
       </c>
       <c r="E7" t="n">
-        <v>72125</v>
+        <v>72124</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9588109077096305</v>
+        <v>0.9589145756650578</v>
       </c>
     </row>
     <row r="8">
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9958494729302853</v>
+        <v>0.9958311761352511</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9998934830830577</v>
+        <v>0.9998936040234774</v>
       </c>
     </row>
     <row r="11">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1810407638549805</v>
+        <v>0.4472720000048866</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I12" t="n">
         <v>0.9995811118072994</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I13" t="n">
         <v>0.9318181818181819</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I15" t="n">
         <v>0.927815790633807</v>
@@ -999,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I16" t="n">
         <v>0.9974815182021886</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I17" t="n">
         <v>0.9328610525854245</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I18" t="n">
         <v>0.9776131749074363</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I19" t="n">
         <v>0.9975961538461539</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I20" t="n">
         <v>0.9997245269569911</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003994226455688477</v>
+        <v>0.04152460000477731</v>
       </c>
       <c r="I21" t="n">
         <v>0.9806918252043713</v>
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48565</v>
+        <v>48497</v>
       </c>
       <c r="E22" t="n">
-        <v>23068</v>
+        <v>23088</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9991506613995308</v>
+        <v>0.9992824064086686</v>
       </c>
     </row>
     <row r="23">
@@ -1235,19 +1235,19 @@
         <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>72217</v>
+        <v>72220</v>
       </c>
       <c r="F23" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8565335688023018</v>
+        <v>0.798782378781383</v>
       </c>
     </row>
     <row r="24">
@@ -1279,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9999096856546907</v>
+        <v>0.9998950768208124</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E25" t="n">
-        <v>71819</v>
+        <v>71794</v>
       </c>
       <c r="F25" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9712431762662337</v>
+        <v>0.9518136285091173</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8386</v>
+        <v>8346</v>
       </c>
       <c r="E26" t="n">
-        <v>63825</v>
+        <v>63845</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9999051751000698</v>
+        <v>0.9998908489049387</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>72202</v>
+        <v>72206</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9430589114923245</v>
+        <v>0.9414615767633483</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>216</v>
       </c>
       <c r="E28" t="n">
-        <v>72020</v>
+        <v>72004</v>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9000895945033232</v>
+        <v>0.8993035294930014</v>
       </c>
     </row>
     <row r="29">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9996420402867648</v>
+        <v>0.9993080562041047</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8430</v>
+        <v>8462</v>
       </c>
       <c r="E30" t="n">
-        <v>63378</v>
+        <v>63309</v>
       </c>
       <c r="F30" t="n">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="G30" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9668998188743704</v>
+        <v>0.9689617310769346</v>
       </c>
     </row>
     <row r="31">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03487849235534668</v>
+        <v>0.1150537999928929</v>
       </c>
       <c r="I31" t="n">
         <v>0.9994627463054186</v>
@@ -1559,7 +1559,7 @@
         <v>114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I32" t="n">
         <v>0.9996208879486046</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I33" t="n">
         <v>0.846938775510204</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I34" t="n">
         <v>0.9992553090703489</v>
@@ -1664,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="H35" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I35" t="n">
         <v>0.8988801813950157</v>
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I36" t="n">
         <v>0.9966401672628556</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I37" t="n">
         <v>0.8949675008351735</v>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I38" t="n">
         <v>0.9571067967474096</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I39" t="n">
         <v>0.9954954954954955</v>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I40" t="n">
         <v>0.9995696175604922</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04249095916748</v>
+        <v>1.831143899995368</v>
       </c>
       <c r="I41" t="n">
         <v>0.9969512195121951</v>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>49138</v>
+        <v>49136</v>
       </c>
       <c r="E42" t="n">
         <v>23052</v>
@@ -1906,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9999986231746413</v>
+        <v>0.999998114457499</v>
       </c>
     </row>
     <row r="43">
@@ -1944,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9978693078522913</v>
+        <v>0.9987335834896811</v>
       </c>
     </row>
     <row r="44">
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9999995278698153</v>
+        <v>0.9999997246180363</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E45" t="n">
-        <v>71783</v>
+        <v>71784</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9961275624725848</v>
+        <v>0.9960607118796637</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>8398</v>
       </c>
       <c r="E46" t="n">
-        <v>63789</v>
+        <v>63790</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9996530258546075</v>
+        <v>0.9997560870158967</v>
       </c>
     </row>
     <row r="47">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" t="n">
         <v>72122</v>
@@ -2081,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9881267635006663</v>
+        <v>0.984130687645478</v>
       </c>
     </row>
     <row r="48">
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2189,10 +2189,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9998939548296485</v>
+        <v>0.999893995443905</v>
       </c>
     </row>
     <row r="51">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" t="n">
         <v>72063</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1859002113342285</v>
+        <v>0.414459400009946</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I52" t="n">
         <v>0.9995910956377173</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I53" t="n">
         <v>0.8979601562884917</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I55" t="n">
         <v>0.953741120900783</v>
@@ -2399,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I56" t="n">
         <v>0.9978212652621351</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I57" t="n">
         <v>0.896234859220527</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I58" t="n">
         <v>0.9554792362931447</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I59" t="n">
         <v>0.9952153110047847</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I60" t="n">
         <v>0.9997630893153282</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.002691745758056641</v>
+        <v>0.03343120000499766</v>
       </c>
       <c r="I61" t="n">
         <v>0.9810126582278481</v>
@@ -2600,19 +2600,19 @@
         <v>48519</v>
       </c>
       <c r="E62" t="n">
-        <v>23063</v>
+        <v>23090</v>
       </c>
       <c r="F62" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G62" t="n">
         <v>654</v>
       </c>
       <c r="H62" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9992794201677719</v>
+        <v>0.9992751401413018</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E63" t="n">
-        <v>72230</v>
+        <v>72255</v>
       </c>
       <c r="F63" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9307120533182884</v>
+        <v>0.9815561970938397</v>
       </c>
     </row>
     <row r="64">
@@ -2679,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9999000630502688</v>
+        <v>0.9997336584938263</v>
       </c>
     </row>
     <row r="65">
@@ -2705,19 +2705,19 @@
         <v>380</v>
       </c>
       <c r="E65" t="n">
-        <v>71837</v>
+        <v>71829</v>
       </c>
       <c r="F65" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G65" t="n">
         <v>23</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9536036986633003</v>
+        <v>0.950666078393761</v>
       </c>
     </row>
     <row r="66">
@@ -2737,22 +2737,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8395</v>
+        <v>8386</v>
       </c>
       <c r="E66" t="n">
-        <v>63835</v>
+        <v>63838</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G66" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9998591710420501</v>
+        <v>0.9997760223006259</v>
       </c>
     </row>
     <row r="67">
@@ -2775,19 +2775,19 @@
         <v>89</v>
       </c>
       <c r="E67" t="n">
-        <v>72182</v>
+        <v>72200</v>
       </c>
       <c r="F67" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9813490705584309</v>
+        <v>0.979293948915126</v>
       </c>
     </row>
     <row r="68">
@@ -2810,19 +2810,19 @@
         <v>216</v>
       </c>
       <c r="E68" t="n">
-        <v>71974</v>
+        <v>71954</v>
       </c>
       <c r="F68" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I68" t="n">
-        <v>0.845777896259594</v>
+        <v>0.8765245217835338</v>
       </c>
     </row>
     <row r="69">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E69" t="n">
         <v>72086</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I69" t="n">
-        <v>0.999746575419253</v>
+        <v>0.9997263318475749</v>
       </c>
     </row>
     <row r="70">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8428</v>
+        <v>8458</v>
       </c>
       <c r="E70" t="n">
-        <v>63369</v>
+        <v>63345</v>
       </c>
       <c r="F70" t="n">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="G70" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H70" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9649666522154935</v>
+        <v>0.9640972190262748</v>
       </c>
     </row>
     <row r="71">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.03710103034973145</v>
+        <v>0.1115085000055842</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>116</v>
       </c>
       <c r="H72" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I72" t="n">
         <v>0.9996025942964724</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I73" t="n">
         <v>0.83137236147191</v>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I74" t="n">
         <v>0.9995369193627702</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="H75" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I75" t="n">
         <v>0.917614799752473</v>
@@ -3099,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I76" t="n">
         <v>0.9971873911818152</v>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I77" t="n">
         <v>0.9331223143596818</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I78" t="n">
         <v>0.9694706888886376</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I79" t="n">
         <v>0.997737556561086</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I80" t="n">
         <v>0.9997396068202016</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.037489652633667</v>
+        <v>1.470764400000917</v>
       </c>
       <c r="I81" t="n">
         <v>0.9939393939393939</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>49022</v>
+        <v>49137</v>
       </c>
       <c r="E82" t="n">
         <v>23055</v>
@@ -3306,13 +3306,13 @@
         <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9998908089862142</v>
+        <v>0.9999992301459814</v>
       </c>
     </row>
     <row r="83">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -3370,19 +3370,19 @@
         <v>5042</v>
       </c>
       <c r="E84" t="n">
-        <v>67177</v>
+        <v>67176</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0.9999999213272502</v>
       </c>
     </row>
     <row r="85">
@@ -3402,22 +3402,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="E85" t="n">
-        <v>71783</v>
+        <v>71786</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G85" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9820737308926261</v>
+        <v>0.9965671994642877</v>
       </c>
     </row>
     <row r="86">
@@ -3437,22 +3437,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8406</v>
+        <v>8404</v>
       </c>
       <c r="E86" t="n">
-        <v>63763</v>
+        <v>63791</v>
       </c>
       <c r="F86" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9998623250512702</v>
+        <v>0.999930115646414</v>
       </c>
     </row>
     <row r="87">
@@ -3472,22 +3472,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E87" t="n">
-        <v>72115</v>
+        <v>72123</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9704073790520068</v>
+        <v>0.9756921667715844</v>
       </c>
     </row>
     <row r="88">
@@ -3510,19 +3510,19 @@
         <v>207</v>
       </c>
       <c r="E88" t="n">
-        <v>72011</v>
+        <v>72009</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I88" t="n">
-        <v>0.996495054395428</v>
+        <v>0.9962004305828409</v>
       </c>
     </row>
     <row r="89">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3577,22 +3577,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8465</v>
+        <v>8466</v>
       </c>
       <c r="E90" t="n">
-        <v>63647</v>
+        <v>63752</v>
       </c>
       <c r="F90" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9967999373139402</v>
+        <v>0.9999999860518941</v>
       </c>
     </row>
     <row r="91">
@@ -3624,10 +3624,10 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1972701549530029</v>
+        <v>0.3894576000020606</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9999590394770453</v>
+        <v>0.9997618457763385</v>
       </c>
     </row>
     <row r="92">
@@ -3659,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="H92" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I92" t="n">
         <v>0.9995507193116855</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I93" t="n">
         <v>0.9612080195363548</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I95" t="n">
         <v>0.9482051489594997</v>
@@ -3799,7 +3799,7 @@
         <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I96" t="n">
         <v>0.9975603634264166</v>
@@ -3834,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I97" t="n">
         <v>0.8899908101648437</v>
@@ -3869,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I98" t="n">
         <v>0.9732683816837192</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I99" t="n">
         <v>0.9951760220398265</v>
@@ -3939,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I100" t="n">
         <v>0.9998430524992453</v>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.002786874771118164</v>
+        <v>0.03543460000946652</v>
       </c>
       <c r="I101" t="n">
         <v>0.9802839776374048</v>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>48552</v>
+        <v>48513</v>
       </c>
       <c r="E102" t="n">
         <v>23102</v>
@@ -4006,13 +4006,13 @@
         <v>26</v>
       </c>
       <c r="G102" t="n">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="H102" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9994909295883098</v>
+        <v>0.9994621412100955</v>
       </c>
     </row>
     <row r="103">
@@ -4035,19 +4035,19 @@
         <v>39</v>
       </c>
       <c r="E103" t="n">
-        <v>72240</v>
+        <v>72226</v>
       </c>
       <c r="F103" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I103" t="n">
-        <v>0.8880305065929716</v>
+        <v>0.7817165445625802</v>
       </c>
     </row>
     <row r="104">
@@ -4079,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9990856309329655</v>
+        <v>0.9993892274050383</v>
       </c>
     </row>
     <row r="105">
@@ -4102,22 +4102,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E105" t="n">
-        <v>71797</v>
+        <v>71816</v>
       </c>
       <c r="F105" t="n">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G105" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H105" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I105" t="n">
-        <v>0.960512249147381</v>
+        <v>0.9616411493752843</v>
       </c>
     </row>
     <row r="106">
@@ -4137,22 +4137,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8365</v>
+        <v>8380</v>
       </c>
       <c r="E106" t="n">
-        <v>63835</v>
+        <v>63829</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G106" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H106" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9999162766278425</v>
+        <v>0.9999273852624055</v>
       </c>
     </row>
     <row r="107">
@@ -4172,22 +4172,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E107" t="n">
-        <v>72204</v>
+        <v>72201</v>
       </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I107" t="n">
-        <v>0.993803015274638</v>
+        <v>0.9954373511120627</v>
       </c>
     </row>
     <row r="108">
@@ -4207,22 +4207,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E108" t="n">
-        <v>72035</v>
+        <v>72026</v>
       </c>
       <c r="F108" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9288217387970213</v>
+        <v>0.9263201366878735</v>
       </c>
     </row>
     <row r="109">
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9999784167618132</v>
+        <v>0.9999349474760829</v>
       </c>
     </row>
     <row r="110">
@@ -4280,19 +4280,19 @@
         <v>8451</v>
       </c>
       <c r="E110" t="n">
-        <v>63338</v>
+        <v>63301</v>
       </c>
       <c r="F110" t="n">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="G110" t="n">
         <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9659116003176387</v>
+        <v>0.9644866848055278</v>
       </c>
     </row>
     <row r="111">
@@ -4315,16 +4315,16 @@
         <v>160</v>
       </c>
       <c r="E111" t="n">
-        <v>72141</v>
+        <v>72140</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03429031372070312</v>
+        <v>0.09565190000284929</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>108</v>
       </c>
       <c r="H112" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I112" t="n">
         <v>0.9996360801777742</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I113" t="n">
         <v>0.8564514988687782</v>
@@ -4429,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I114" t="n">
         <v>0.9997188138500056</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="H115" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I115" t="n">
         <v>0.8913159839419261</v>
@@ -4499,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="H116" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I116" t="n">
         <v>0.9959313038186618</v>
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I117" t="n">
         <v>0.9547534771579251</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I118" t="n">
         <v>0.9617977517015224</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I119" t="n">
         <v>0.9932735426008968</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.012166023254395</v>
+        <v>1.540883099994971</v>
       </c>
       <c r="I121" t="n">
         <v>0.9969512195121951</v>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>49128</v>
+        <v>49130</v>
       </c>
       <c r="E122" t="n">
         <v>23052</v>
@@ -4706,13 +4706,13 @@
         <v>18</v>
       </c>
       <c r="G122" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9999872382990515</v>
+        <v>0.9999873165654974</v>
       </c>
     </row>
     <row r="123">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E125" t="n">
-        <v>71771</v>
+        <v>71774</v>
       </c>
       <c r="F125" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G125" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9892616743953547</v>
+        <v>0.9900954370527612</v>
       </c>
     </row>
     <row r="126">
@@ -4837,22 +4837,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>8396</v>
+        <v>8398</v>
       </c>
       <c r="E126" t="n">
-        <v>63784</v>
+        <v>63787</v>
       </c>
       <c r="F126" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G126" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9999190993296373</v>
+        <v>0.9999734441209965</v>
       </c>
     </row>
     <row r="127">
@@ -4884,10 +4884,10 @@
         <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9906930188304015</v>
+        <v>0.9914848854144033</v>
       </c>
     </row>
     <row r="128">
@@ -4910,19 +4910,19 @@
         <v>207</v>
       </c>
       <c r="E128" t="n">
-        <v>72006</v>
+        <v>72007</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9957900410879411</v>
+        <v>0.9957848859721655</v>
       </c>
     </row>
     <row r="129">
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4989,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9999468426106074</v>
+        <v>0.9999469302917998</v>
       </c>
     </row>
     <row r="131">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E131" t="n">
         <v>72062</v>
@@ -5021,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1806285381317139</v>
+        <v>0.3751847000094131</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>169</v>
       </c>
       <c r="H132" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I132" t="n">
         <v>0.9994100785036032</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I133" t="n">
         <v>0.9871794871794872</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>43</v>
       </c>
       <c r="H135" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I135" t="n">
         <v>0.8297011391925581</v>
@@ -5199,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="H136" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I136" t="n">
         <v>0.9932763539702985</v>
@@ -5234,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I137" t="n">
         <v>0.8966041198146083</v>
@@ -5269,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I138" t="n">
         <v>0.9734380044169704</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I139" t="n">
         <v>0.9975961538461539</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I140" t="n">
         <v>0.9961577850513517</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>0.003073453903198242</v>
+        <v>0.03527969999413472</v>
       </c>
       <c r="I141" t="n">
         <v>0.9868559850916032</v>
@@ -5397,22 +5397,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48470</v>
+        <v>48390</v>
       </c>
       <c r="E142" t="n">
-        <v>23109</v>
+        <v>23108</v>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G142" t="n">
-        <v>703</v>
+        <v>783</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9993168250024305</v>
+        <v>0.9994007794353398</v>
       </c>
     </row>
     <row r="143">
@@ -5435,19 +5435,19 @@
         <v>39</v>
       </c>
       <c r="E143" t="n">
-        <v>72240</v>
+        <v>72200</v>
       </c>
       <c r="F143" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I143" t="n">
-        <v>0.7494205759569939</v>
+        <v>0.826174416461733</v>
       </c>
     </row>
     <row r="144">
@@ -5470,19 +5470,19 @@
         <v>5082</v>
       </c>
       <c r="E144" t="n">
-        <v>67217</v>
+        <v>67215</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9998828924348994</v>
+        <v>0.9996743066094642</v>
       </c>
     </row>
     <row r="145">
@@ -5502,22 +5502,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E145" t="n">
-        <v>71830</v>
+        <v>71803</v>
       </c>
       <c r="F145" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G145" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9737604196353259</v>
+        <v>0.9517797506443235</v>
       </c>
     </row>
     <row r="146">
@@ -5537,22 +5537,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>8392</v>
+        <v>8367</v>
       </c>
       <c r="E146" t="n">
-        <v>63837</v>
+        <v>63830</v>
       </c>
       <c r="F146" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G146" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9987694622001406</v>
+        <v>0.9986925196243583</v>
       </c>
     </row>
     <row r="147">
@@ -5572,22 +5572,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E147" t="n">
-        <v>72191</v>
+        <v>72189</v>
       </c>
       <c r="F147" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9834530204004118</v>
+        <v>0.9766418767660091</v>
       </c>
     </row>
     <row r="148">
@@ -5607,22 +5607,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="E148" t="n">
-        <v>71977</v>
+        <v>71978</v>
       </c>
       <c r="F148" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9040831932945906</v>
+        <v>0.8841940734999152</v>
       </c>
     </row>
     <row r="149">
@@ -5654,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9999570329090209</v>
+        <v>0.9989966379458826</v>
       </c>
     </row>
     <row r="150">
@@ -5677,22 +5677,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>8461</v>
+        <v>8459</v>
       </c>
       <c r="E150" t="n">
-        <v>63357</v>
+        <v>63295</v>
       </c>
       <c r="F150" t="n">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="G150" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9743033959103997</v>
+        <v>0.9614352295739612</v>
       </c>
     </row>
     <row r="151">
@@ -5715,19 +5715,19 @@
         <v>160</v>
       </c>
       <c r="E151" t="n">
-        <v>72133</v>
+        <v>72138</v>
       </c>
       <c r="F151" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0326533317565918</v>
+        <v>0.11706740000227</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5759,7 +5759,7 @@
         <v>128</v>
       </c>
       <c r="H152" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I152" t="n">
         <v>0.9996929043416195</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I153" t="n">
         <v>0.8617021276595744</v>
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="H154" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I154" t="n">
         <v>0.9991709764256392</v>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="H155" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I155" t="n">
         <v>0.9212032232336401</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="H156" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I156" t="n">
         <v>0.9976297027889192</v>
@@ -5934,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I157" t="n">
         <v>0.9047927269989953</v>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I158" t="n">
         <v>0.9590308042364136</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I159" t="n">
         <v>0.995475113122172</v>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I160" t="n">
         <v>0.9998958715043819</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.037741422653198</v>
+        <v>1.36393130000215</v>
       </c>
       <c r="I161" t="n">
         <v>0.99079754601227</v>
@@ -6097,22 +6097,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>49132</v>
+        <v>49134</v>
       </c>
       <c r="E162" t="n">
-        <v>23047</v>
+        <v>23048</v>
       </c>
       <c r="F162" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G162" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H162" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9999879452415285</v>
+        <v>0.9999984017161044</v>
       </c>
     </row>
     <row r="163">
@@ -6144,10 +6144,10 @@
         <v>7</v>
       </c>
       <c r="H163" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9435890715694362</v>
+        <v>0.9590775185447843</v>
       </c>
     </row>
     <row r="164">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E165" t="n">
-        <v>71780</v>
+        <v>71779</v>
       </c>
       <c r="F165" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G165" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H165" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9940928284212596</v>
+        <v>0.9938708044562429</v>
       </c>
     </row>
     <row r="166">
@@ -6240,19 +6240,19 @@
         <v>8398</v>
       </c>
       <c r="E166" t="n">
-        <v>63787</v>
+        <v>63788</v>
       </c>
       <c r="F166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G166" t="n">
         <v>27</v>
       </c>
       <c r="H166" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9998181313351501</v>
+        <v>0.9998176981560566</v>
       </c>
     </row>
     <row r="167">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E167" t="n">
         <v>72122</v>
@@ -6281,13 +6281,13 @@
         <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H167" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9775182334278484</v>
+        <v>0.9753014846065511</v>
       </c>
     </row>
     <row r="168">
@@ -6319,10 +6319,10 @@
         <v>4</v>
       </c>
       <c r="H168" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9994498366850563</v>
+        <v>0.9994731186244947</v>
       </c>
     </row>
     <row r="169">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.184370756149292</v>
+        <v>0.391175500000827</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>66</v>
       </c>
       <c r="H172" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I172" t="n">
         <v>0.9994849959703292</v>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I173" t="n">
         <v>0.9466582466432528</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I174" t="n">
         <v>0.9999081842357711</v>
@@ -6564,7 +6564,7 @@
         <v>18</v>
       </c>
       <c r="H175" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I175" t="n">
         <v>0.9292761515778079</v>
@@ -6599,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I176" t="n">
         <v>0.9974475522672595</v>
@@ -6634,7 +6634,7 @@
         <v>6</v>
       </c>
       <c r="H177" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I177" t="n">
         <v>0.717779628858479</v>
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I178" t="n">
         <v>0.9650851238173939</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I179" t="n">
         <v>0.9928571428571429</v>
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I180" t="n">
         <v>0.9994768416641513</v>
@@ -6774,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>0.002707242965698242</v>
+        <v>0.03358289999596309</v>
       </c>
       <c r="I181" t="n">
         <v>0.9742041632292551</v>
@@ -6797,22 +6797,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>48525</v>
+        <v>48563</v>
       </c>
       <c r="E182" t="n">
-        <v>23100</v>
+        <v>23106</v>
       </c>
       <c r="F182" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G182" t="n">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="H182" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9993894630439837</v>
+        <v>0.999452102939955</v>
       </c>
     </row>
     <row r="183">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E183" t="n">
-        <v>72223</v>
+        <v>72228</v>
       </c>
       <c r="F183" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I183" t="n">
-        <v>0.8602022157787023</v>
+        <v>0.858074292522356</v>
       </c>
     </row>
     <row r="184">
@@ -6879,10 +6879,10 @@
         <v>2</v>
       </c>
       <c r="H184" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9990136700610064</v>
+        <v>0.9992810850761542</v>
       </c>
     </row>
     <row r="185">
@@ -6902,22 +6902,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E185" t="n">
-        <v>71834</v>
+        <v>71832</v>
       </c>
       <c r="F185" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G185" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H185" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I185" t="n">
-        <v>0.972091226144687</v>
+        <v>0.9718830247412149</v>
       </c>
     </row>
     <row r="186">
@@ -6937,22 +6937,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>8387</v>
+        <v>8393</v>
       </c>
       <c r="E186" t="n">
-        <v>63844</v>
+        <v>63842</v>
       </c>
       <c r="F186" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G186" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H186" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9998808321833765</v>
+        <v>0.9999120663669651</v>
       </c>
     </row>
     <row r="187">
@@ -6972,22 +6972,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E187" t="n">
-        <v>72197</v>
+        <v>72199</v>
       </c>
       <c r="F187" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9899363961090756</v>
+        <v>0.9833830700048359</v>
       </c>
     </row>
     <row r="188">
@@ -7007,22 +7007,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E188" t="n">
-        <v>72015</v>
+        <v>72028</v>
       </c>
       <c r="F188" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G188" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H188" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I188" t="n">
-        <v>0.8764970722905525</v>
+        <v>0.9372993822911727</v>
       </c>
     </row>
     <row r="189">
@@ -7045,19 +7045,19 @@
         <v>215</v>
       </c>
       <c r="E189" t="n">
-        <v>72085</v>
+        <v>72086</v>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -7080,19 +7080,19 @@
         <v>8452</v>
       </c>
       <c r="E190" t="n">
-        <v>63336</v>
+        <v>63375</v>
       </c>
       <c r="F190" t="n">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="G190" t="n">
         <v>17</v>
       </c>
       <c r="H190" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9693516944218603</v>
+        <v>0.9682554651035955</v>
       </c>
     </row>
     <row r="191">
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0.03612565994262695</v>
+        <v>0.09973279999394435</v>
       </c>
       <c r="I191" t="n">
         <v>0.9999999999999999</v>
@@ -7159,7 +7159,7 @@
         <v>121</v>
       </c>
       <c r="H192" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I192" t="n">
         <v>0.9995810276193868</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I193" t="n">
         <v>0.8617021276595744</v>
@@ -7229,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="H194" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I194" t="n">
         <v>0.9998101857692622</v>
@@ -7264,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I195" t="n">
         <v>0.9132026865033839</v>
@@ -7299,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I196" t="n">
         <v>0.9973846934186007</v>
@@ -7334,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I197" t="n">
         <v>0.8713118056536743</v>
@@ -7369,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I198" t="n">
         <v>0.9588429393980865</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I199" t="n">
         <v>0.9977272727272728</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I200" t="n">
         <v>0.9999478940491804</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9876663684844971</v>
+        <v>1.304842799989274</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -7500,19 +7500,19 @@
         <v>49132</v>
       </c>
       <c r="E202" t="n">
-        <v>23053</v>
+        <v>23051</v>
       </c>
       <c r="F202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G202" t="n">
         <v>16</v>
       </c>
       <c r="H202" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I202" t="n">
-        <v>0.99998857286079</v>
+        <v>0.9999884610498333</v>
       </c>
     </row>
     <row r="203">
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="E204" t="n">
         <v>67176</v>
@@ -7576,13 +7576,13 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H204" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9996242161869463</v>
+        <v>0.9996249018864073</v>
       </c>
     </row>
     <row r="205">
@@ -7602,22 +7602,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E205" t="n">
-        <v>71780</v>
+        <v>71778</v>
       </c>
       <c r="F205" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9956606321282483</v>
+        <v>0.9953354066035638</v>
       </c>
     </row>
     <row r="206">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>8403</v>
+        <v>8402</v>
       </c>
       <c r="E206" t="n">
         <v>63790</v>
@@ -7646,13 +7646,13 @@
         <v>3</v>
       </c>
       <c r="G206" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H206" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9999876336419933</v>
+        <v>0.9999852514409062</v>
       </c>
     </row>
     <row r="207">
@@ -7675,19 +7675,19 @@
         <v>92</v>
       </c>
       <c r="E207" t="n">
-        <v>72123</v>
+        <v>72124</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9972738963231228</v>
+        <v>0.9977580795662473</v>
       </c>
     </row>
     <row r="208">
@@ -7719,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9961555814258597</v>
+        <v>0.9959596774282824</v>
       </c>
     </row>
     <row r="209">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -7780,19 +7780,19 @@
         <v>8465</v>
       </c>
       <c r="E210" t="n">
-        <v>63751</v>
+        <v>63750</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9999468825871694</v>
+        <v>0.9999470178425062</v>
       </c>
     </row>
     <row r="211">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.1861732006072998</v>
+        <v>0.3718916000070749</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>59</v>
       </c>
       <c r="H212" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I212" t="n">
         <v>0.999578890651514</v>
@@ -7894,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I213" t="n">
         <v>0.9127224805986635</v>
@@ -7929,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="H214" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I214" t="n">
         <v>0.9994491054146268</v>
@@ -7964,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="H215" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I215" t="n">
         <v>0.9417474868627919</v>
@@ -7999,7 +7999,7 @@
         <v>39</v>
       </c>
       <c r="H216" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I216" t="n">
         <v>0.9975484341942489</v>
@@ -8034,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I217" t="n">
         <v>0.8920749968034666</v>
@@ -8069,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="H218" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I218" t="n">
         <v>0.9578726711300194</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I219" t="n">
         <v>0.9859154929577465</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I220" t="n">
         <v>0.9997699590479318</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="H221" t="n">
-        <v>0.00283503532409668</v>
+        <v>0.0352885000029346</v>
       </c>
       <c r="I221" t="n">
         <v>0.9934349324600242</v>
@@ -8197,22 +8197,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>48525</v>
+        <v>48615</v>
       </c>
       <c r="E222" t="n">
-        <v>23102</v>
+        <v>23078</v>
       </c>
       <c r="F222" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G222" t="n">
-        <v>648</v>
+        <v>558</v>
       </c>
       <c r="H222" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9993587816648438</v>
+        <v>0.9993591395966849</v>
       </c>
     </row>
     <row r="223">
@@ -8235,19 +8235,19 @@
         <v>39</v>
       </c>
       <c r="E223" t="n">
-        <v>72226</v>
+        <v>72235</v>
       </c>
       <c r="F223" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I223" t="n">
-        <v>0.7820215341465139</v>
+        <v>0.83310583858433</v>
       </c>
     </row>
     <row r="224">
@@ -8279,10 +8279,10 @@
         <v>2</v>
       </c>
       <c r="H224" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I224" t="n">
-        <v>0.9999902930292313</v>
+        <v>0.9999923008733913</v>
       </c>
     </row>
     <row r="225">
@@ -8302,22 +8302,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E225" t="n">
-        <v>71843</v>
+        <v>71817</v>
       </c>
       <c r="F225" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="G225" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H225" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I225" t="n">
-        <v>0.9617227037329593</v>
+        <v>0.9729346149421076</v>
       </c>
     </row>
     <row r="226">
@@ -8337,22 +8337,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>8406</v>
+        <v>8373</v>
       </c>
       <c r="E226" t="n">
-        <v>63840</v>
+        <v>63847</v>
       </c>
       <c r="F226" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G226" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H226" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I226" t="n">
-        <v>0.9999159195260542</v>
+        <v>0.9999500431239603</v>
       </c>
     </row>
     <row r="227">
@@ -8372,22 +8372,22 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E227" t="n">
-        <v>72191</v>
+        <v>72204</v>
       </c>
       <c r="F227" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G227" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H227" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I227" t="n">
-        <v>0.9617376522560592</v>
+        <v>0.9697113723495908</v>
       </c>
     </row>
     <row r="228">
@@ -8410,19 +8410,19 @@
         <v>216</v>
       </c>
       <c r="E228" t="n">
-        <v>72009</v>
+        <v>72011</v>
       </c>
       <c r="F228" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G228" t="n">
         <v>4</v>
       </c>
       <c r="H228" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I228" t="n">
-        <v>0.9150434722028205</v>
+        <v>0.8408787647743465</v>
       </c>
     </row>
     <row r="229">
@@ -8442,22 +8442,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E229" t="n">
-        <v>72083</v>
+        <v>72085</v>
       </c>
       <c r="F229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I229" t="n">
-        <v>0.9999570329090208</v>
+        <v>0.9999570329090209</v>
       </c>
     </row>
     <row r="230">
@@ -8477,22 +8477,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>8461</v>
+        <v>8441</v>
       </c>
       <c r="E230" t="n">
-        <v>63378</v>
+        <v>63401</v>
       </c>
       <c r="F230" t="n">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H230" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I230" t="n">
-        <v>0.9669068778779576</v>
+        <v>0.9673076968396431</v>
       </c>
     </row>
     <row r="231">
@@ -8512,22 +8512,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E231" t="n">
-        <v>72140</v>
+        <v>72141</v>
       </c>
       <c r="F231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0.03425502777099609</v>
+        <v>0.1006801000039559</v>
       </c>
       <c r="I231" t="n">
-        <v>0.9996623045393378</v>
+        <v>0.9999610588121118</v>
       </c>
     </row>
     <row r="232">
@@ -8559,7 +8559,7 @@
         <v>106</v>
       </c>
       <c r="H232" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I232" t="n">
         <v>0.9996523650778064</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I233" t="n">
         <v>0.8269230769230769</v>
@@ -8629,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="H234" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I234" t="n">
         <v>0.9993544110620025</v>
@@ -8664,7 +8664,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I235" t="n">
         <v>0.9272123319232953</v>
@@ -8699,7 +8699,7 @@
         <v>33</v>
       </c>
       <c r="H236" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I236" t="n">
         <v>0.9970648849244109</v>
@@ -8734,7 +8734,7 @@
         <v>5</v>
       </c>
       <c r="H237" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I237" t="n">
         <v>0.9178727696302454</v>
@@ -8769,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I238" t="n">
         <v>0.9644066621053299</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I239" t="n">
         <v>0.9977272727272728</v>
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I240" t="n">
         <v>0.9998297677120598</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.9927423000335693</v>
+        <v>1.417167899999185</v>
       </c>
       <c r="I241" t="n">
         <v>0.9968944099378882</v>
@@ -8900,19 +8900,19 @@
         <v>49132</v>
       </c>
       <c r="E242" t="n">
-        <v>23053</v>
+        <v>23054</v>
       </c>
       <c r="F242" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G242" t="n">
         <v>16</v>
       </c>
       <c r="H242" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I242" t="n">
-        <v>0.9999991577407126</v>
+        <v>0.9999992788737706</v>
       </c>
     </row>
     <row r="243">
@@ -8944,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="H243" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I243" t="n">
-        <v>0.999316357695859</v>
+        <v>0.9986238369202358</v>
       </c>
     </row>
     <row r="244">
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -9005,19 +9005,19 @@
         <v>409</v>
       </c>
       <c r="E245" t="n">
-        <v>71779</v>
+        <v>71778</v>
       </c>
       <c r="F245" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
       </c>
       <c r="H245" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I245" t="n">
-        <v>0.99372643622773</v>
+        <v>0.9925360565379624</v>
       </c>
     </row>
     <row r="246">
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>8400</v>
+        <v>8399</v>
       </c>
       <c r="E246" t="n">
         <v>63789</v>
@@ -9046,13 +9046,13 @@
         <v>3</v>
       </c>
       <c r="G246" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H246" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I246" t="n">
-        <v>0.9999865946746771</v>
+        <v>0.9999814559805068</v>
       </c>
     </row>
     <row r="247">
@@ -9072,22 +9072,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E247" t="n">
-        <v>72114</v>
+        <v>72113</v>
       </c>
       <c r="F247" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G247" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H247" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I247" t="n">
-        <v>0.9772680864798071</v>
+        <v>0.9787755776574929</v>
       </c>
     </row>
     <row r="248">
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -9154,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0.9999901671583088</v>
       </c>
     </row>
     <row r="250">
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>0.1795608997344971</v>
+        <v>0.4047903999889968</v>
       </c>
       <c r="I251" t="n">
         <v>0.9999585100989887</v>
@@ -9259,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="H252" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I252" t="n">
         <v>0.9995636933964683</v>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I253" t="n">
         <v>0.9590979641051817</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I255" t="n">
         <v>0.9312154332684235</v>
@@ -9399,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="H256" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I256" t="n">
         <v>0.9968528575805354</v>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I257" t="n">
         <v>0.9064884214920302</v>
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I258" t="n">
         <v>0.9778758604299002</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I259" t="n">
         <v>0.9928571428571429</v>
@@ -9539,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="H260" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I260" t="n">
         <v>0.9997176223470254</v>
@@ -9574,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>0.002926111221313477</v>
+        <v>0.03365539999504108</v>
       </c>
       <c r="I261" t="n">
         <v>0.9742041634219074</v>
@@ -9597,22 +9597,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>48520</v>
+        <v>48530</v>
       </c>
       <c r="E262" t="n">
-        <v>23096</v>
+        <v>23079</v>
       </c>
       <c r="F262" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G262" t="n">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="H262" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I262" t="n">
-        <v>0.999454158433531</v>
+        <v>0.9993399212562818</v>
       </c>
     </row>
     <row r="263">
@@ -9635,19 +9635,19 @@
         <v>38</v>
       </c>
       <c r="E263" t="n">
-        <v>72247</v>
+        <v>72243</v>
       </c>
       <c r="F263" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I263" t="n">
-        <v>0.8716903281585956</v>
+        <v>0.7660786143704046</v>
       </c>
     </row>
     <row r="264">
@@ -9679,10 +9679,10 @@
         <v>2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I264" t="n">
-        <v>0.9998049356266423</v>
+        <v>0.9997701925935825</v>
       </c>
     </row>
     <row r="265">
@@ -9702,22 +9702,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E265" t="n">
-        <v>71818</v>
+        <v>71820</v>
       </c>
       <c r="F265" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G265" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H265" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9660514226819295</v>
+        <v>0.9666279356352984</v>
       </c>
     </row>
     <row r="266">
@@ -9737,22 +9737,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>8377</v>
+        <v>8362</v>
       </c>
       <c r="E266" t="n">
-        <v>63846</v>
+        <v>63851</v>
       </c>
       <c r="F266" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G266" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H266" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I266" t="n">
-        <v>0.999845200154085</v>
+        <v>0.999766855790568</v>
       </c>
     </row>
     <row r="267">
@@ -9775,19 +9775,19 @@
         <v>91</v>
       </c>
       <c r="E267" t="n">
-        <v>72202</v>
+        <v>72198</v>
       </c>
       <c r="F267" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I267" t="n">
-        <v>0.9826389230548495</v>
+        <v>0.9820046831530582</v>
       </c>
     </row>
     <row r="268">
@@ -9807,22 +9807,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="E268" t="n">
-        <v>72006</v>
+        <v>72018</v>
       </c>
       <c r="F268" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G268" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H268" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I268" t="n">
-        <v>0.9270833803367797</v>
+        <v>0.908726355363325</v>
       </c>
     </row>
     <row r="269">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E269" t="n">
         <v>72085</v>
@@ -9851,13 +9851,13 @@
         <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I269" t="n">
-        <v>0.9993294400568968</v>
+        <v>0.9999567329013783</v>
       </c>
     </row>
     <row r="270">
@@ -9889,10 +9889,10 @@
         <v>8</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I270" t="n">
-        <v>0.9684003287448796</v>
+        <v>0.9680909575926963</v>
       </c>
     </row>
     <row r="271">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E271" t="n">
         <v>72141</v>
@@ -9921,13 +9921,13 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>0.03686094284057617</v>
+        <v>0.1050952999939909</v>
       </c>
       <c r="I271" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999610588121117</v>
       </c>
     </row>
     <row r="272">
@@ -9959,7 +9959,7 @@
         <v>102</v>
       </c>
       <c r="H272" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I272" t="n">
         <v>0.9997078578068193</v>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I273" t="n">
         <v>0.8371693523867437</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I274" t="n">
         <v>0.9997116254645638</v>
@@ -10064,7 +10064,7 @@
         <v>45</v>
       </c>
       <c r="H275" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I275" t="n">
         <v>0.9095453973400324</v>
@@ -10099,7 +10099,7 @@
         <v>30</v>
       </c>
       <c r="H276" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I276" t="n">
         <v>0.9971401812129319</v>
@@ -10134,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I277" t="n">
         <v>0.9370252434230123</v>
@@ -10169,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="H278" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I278" t="n">
         <v>0.9587187857349596</v>
@@ -10204,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I279" t="n">
         <v>0.9910125541707765</v>
@@ -10239,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="H280" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I280" t="n">
         <v>0.9997917689162885</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>1.004507064819336</v>
+        <v>1.455116400000406</v>
       </c>
       <c r="I281" t="n">
         <v>0.9938650306748467</v>
@@ -10297,22 +10297,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>49133</v>
+        <v>49131</v>
       </c>
       <c r="E282" t="n">
-        <v>23041</v>
+        <v>23044</v>
       </c>
       <c r="F282" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G282" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H282" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I282" t="n">
-        <v>0.9999856094214146</v>
+        <v>0.9999752422627819</v>
       </c>
     </row>
     <row r="283">
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I283" t="n">
         <v>0.999316357695859</v>
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="E284" t="n">
         <v>67175</v>
@@ -10376,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -10405,19 +10405,19 @@
         <v>408</v>
       </c>
       <c r="E285" t="n">
-        <v>71779</v>
+        <v>71782</v>
       </c>
       <c r="F285" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G285" t="n">
         <v>7</v>
       </c>
       <c r="H285" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I285" t="n">
-        <v>0.9946146315523403</v>
+        <v>0.9944265354491285</v>
       </c>
     </row>
     <row r="286">
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>8401</v>
+        <v>8405</v>
       </c>
       <c r="E286" t="n">
         <v>63786</v>
@@ -10446,13 +10446,13 @@
         <v>6</v>
       </c>
       <c r="G286" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H286" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9998714986885555</v>
+        <v>0.9998719863728012</v>
       </c>
     </row>
     <row r="287">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E287" t="n">
         <v>72120</v>
@@ -10481,13 +10481,13 @@
         <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H287" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I287" t="n">
-        <v>0.979155307699985</v>
+        <v>0.9797327823229414</v>
       </c>
     </row>
     <row r="288">
@@ -10519,10 +10519,10 @@
         <v>3</v>
       </c>
       <c r="H288" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9949738395192775</v>
+        <v>0.9953664384907742</v>
       </c>
     </row>
     <row r="289">
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I289" t="n">
         <v>0.9999901671583088</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E291" t="n">
         <v>72062</v>
@@ -10621,13 +10621,13 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H291" t="n">
-        <v>0.1825616359710693</v>
+        <v>0.3728903000010177</v>
       </c>
       <c r="I291" t="n">
-        <v>0.9952125042251052</v>
+        <v>0.99222026296623</v>
       </c>
     </row>
     <row r="292">
@@ -10659,7 +10659,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I292" t="n">
         <v>0.9996076735177575</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I293" t="n">
         <v>0.9302325581395349</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I294" t="n">
         <v>0.9997039084090011</v>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
       <c r="H295" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I295" t="n">
         <v>0.9256224386563129</v>
@@ -10799,7 +10799,7 @@
         <v>32</v>
       </c>
       <c r="H296" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I296" t="n">
         <v>0.9975256813879431</v>
@@ -10834,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I297" t="n">
         <v>0.7691318302930992</v>
@@ -10869,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="H298" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I298" t="n">
         <v>0.959905786242649</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I299" t="n">
         <v>0.9975961538461539</v>
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I300" t="n">
         <v>0.9995468442574181</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="H301" t="n">
-        <v>0.002938985824584961</v>
+        <v>0.03865360000054352</v>
       </c>
       <c r="I301" t="n">
         <v>0.9836310110840492</v>
@@ -10997,22 +10997,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>48506</v>
+        <v>48405</v>
       </c>
       <c r="E302" t="n">
-        <v>23101</v>
+        <v>23094</v>
       </c>
       <c r="F302" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G302" t="n">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="H302" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I302" t="n">
-        <v>0.999492349981981</v>
+        <v>0.9993541885309677</v>
       </c>
     </row>
     <row r="303">
@@ -11032,22 +11032,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E303" t="n">
-        <v>72217</v>
+        <v>72207</v>
       </c>
       <c r="F303" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I303" t="n">
-        <v>0.7847837977237357</v>
+        <v>0.8806103137981666</v>
       </c>
     </row>
     <row r="304">
@@ -11079,10 +11079,10 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I304" t="n">
-        <v>0.9993620939983705</v>
+        <v>0.9995730206857082</v>
       </c>
     </row>
     <row r="305">
@@ -11102,22 +11102,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E305" t="n">
-        <v>71799</v>
+        <v>71806</v>
       </c>
       <c r="F305" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G305" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H305" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I305" t="n">
-        <v>0.9694055513618085</v>
+        <v>0.9651654271973724</v>
       </c>
     </row>
     <row r="306">
@@ -11137,22 +11137,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>8368</v>
+        <v>8371</v>
       </c>
       <c r="E306" t="n">
-        <v>63839</v>
+        <v>63836</v>
       </c>
       <c r="F306" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G306" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H306" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I306" t="n">
-        <v>0.9998083059847821</v>
+        <v>0.9998084733949456</v>
       </c>
     </row>
     <row r="307">
@@ -11175,19 +11175,19 @@
         <v>87</v>
       </c>
       <c r="E307" t="n">
-        <v>72195</v>
+        <v>72191</v>
       </c>
       <c r="F307" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G307" t="n">
         <v>5</v>
       </c>
       <c r="H307" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I307" t="n">
-        <v>0.9658911080751522</v>
+        <v>0.952192706630709</v>
       </c>
     </row>
     <row r="308">
@@ -11207,22 +11207,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E308" t="n">
-        <v>72016</v>
+        <v>71977</v>
       </c>
       <c r="F308" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="G308" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H308" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I308" t="n">
-        <v>0.9218033090515488</v>
+        <v>0.8928952665239785</v>
       </c>
     </row>
     <row r="309">
@@ -11254,10 +11254,10 @@
         <v>2</v>
       </c>
       <c r="H309" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I309" t="n">
-        <v>0.9998517532359844</v>
+        <v>0.9963605877503281</v>
       </c>
     </row>
     <row r="310">
@@ -11277,22 +11277,22 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>8427</v>
+        <v>8456</v>
       </c>
       <c r="E310" t="n">
-        <v>63363</v>
+        <v>63346</v>
       </c>
       <c r="F310" t="n">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="G310" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H310" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9671582160315052</v>
+        <v>0.9644525857214867</v>
       </c>
     </row>
     <row r="311">
@@ -11315,19 +11315,19 @@
         <v>159</v>
       </c>
       <c r="E311" t="n">
-        <v>72141</v>
+        <v>72140</v>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0.03548192977905273</v>
+        <v>0.1056051999912597</v>
       </c>
       <c r="I311" t="n">
-        <v>0.9998846142922062</v>
+        <v>0.9997734118291346</v>
       </c>
     </row>
     <row r="312">
@@ -11359,7 +11359,7 @@
         <v>106</v>
       </c>
       <c r="H312" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I312" t="n">
         <v>0.9996760235004923</v>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I313" t="n">
         <v>0.79309570037754</v>
@@ -11429,7 +11429,7 @@
         <v>5</v>
       </c>
       <c r="H314" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I314" t="n">
         <v>0.9997188906259329</v>
@@ -11464,7 +11464,7 @@
         <v>46</v>
       </c>
       <c r="H315" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I315" t="n">
         <v>0.9050392141643055</v>
@@ -11499,7 +11499,7 @@
         <v>36</v>
       </c>
       <c r="H316" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I316" t="n">
         <v>0.9969737491914041</v>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H317" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I317" t="n">
         <v>0.9451797104539335</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="H318" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I318" t="n">
         <v>0.9777908443472406</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I319" t="n">
         <v>0.9912280701754386</v>
@@ -11639,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="H320" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I320" t="n">
         <v>0.9998958983725421</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>1.027152299880981</v>
+        <v>1.59302430000389</v>
       </c>
       <c r="I321" t="n">
         <v>0.9969135802469136</v>
@@ -11709,10 +11709,10 @@
         <v>15</v>
       </c>
       <c r="H322" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I322" t="n">
-        <v>0.9999439760183849</v>
+        <v>0.9999430612521907</v>
       </c>
     </row>
     <row r="323">
@@ -11744,10 +11744,10 @@
         <v>6</v>
       </c>
       <c r="H323" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I323" t="n">
-        <v>0.8814517973003392</v>
+        <v>0.8864884273369693</v>
       </c>
     </row>
     <row r="324">
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -11805,19 +11805,19 @@
         <v>408</v>
       </c>
       <c r="E325" t="n">
-        <v>71777</v>
+        <v>71775</v>
       </c>
       <c r="F325" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G325" t="n">
         <v>7</v>
       </c>
       <c r="H325" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I325" t="n">
-        <v>0.9944476178417588</v>
+        <v>0.9943089210703578</v>
       </c>
     </row>
     <row r="326">
@@ -11837,22 +11837,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>8407</v>
+        <v>8403</v>
       </c>
       <c r="E326" t="n">
-        <v>63789</v>
+        <v>63790</v>
       </c>
       <c r="F326" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G326" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H326" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I326" t="n">
-        <v>0.999936096091621</v>
+        <v>0.9999351233971326</v>
       </c>
     </row>
     <row r="327">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E327" t="n">
         <v>72122</v>
@@ -11881,13 +11881,13 @@
         <v>2</v>
       </c>
       <c r="G327" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H327" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I327" t="n">
-        <v>0.9801874908254369</v>
+        <v>0.9795620524549367</v>
       </c>
     </row>
     <row r="328">
@@ -11919,10 +11919,10 @@
         <v>4</v>
       </c>
       <c r="H328" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I328" t="n">
-        <v>0.9952864496156324</v>
+        <v>0.9946864760902967</v>
       </c>
     </row>
     <row r="329">
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -11989,10 +11989,10 @@
         <v>7</v>
       </c>
       <c r="H330" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I330" t="n">
-        <v>0.9998406268291409</v>
+        <v>0.9998407280933789</v>
       </c>
     </row>
     <row r="331">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E331" t="n">
         <v>72062</v>
@@ -12021,13 +12021,13 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="n">
-        <v>0.1827747821807861</v>
+        <v>0.5114351000083843</v>
       </c>
       <c r="I331" t="n">
-        <v>0.9998786690182678</v>
+        <v>0.9999185990982331</v>
       </c>
     </row>
     <row r="332">
@@ -12059,7 +12059,7 @@
         <v>146</v>
       </c>
       <c r="H332" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I332" t="n">
         <v>0.9995012455845322</v>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I333" t="n">
         <v>0.9073035906319259</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -12164,7 +12164,7 @@
         <v>37</v>
       </c>
       <c r="H335" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I335" t="n">
         <v>0.8471799559862596</v>
@@ -12199,7 +12199,7 @@
         <v>74</v>
       </c>
       <c r="H336" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I336" t="n">
         <v>0.9938075698633766</v>
@@ -12234,7 +12234,7 @@
         <v>5</v>
       </c>
       <c r="H337" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I337" t="n">
         <v>0.9152989737082389</v>
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I338" t="n">
         <v>0.9977647874478549</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I339" t="n">
         <v>0.9975961538461539</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I340" t="n">
         <v>0.9977070278595295</v>
@@ -12374,7 +12374,7 @@
         <v>3</v>
       </c>
       <c r="H341" t="n">
-        <v>0.003092527389526367</v>
+        <v>0.03533100000640843</v>
       </c>
       <c r="I341" t="n">
         <v>0.9739186324562703</v>
@@ -12397,22 +12397,22 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>48584</v>
+        <v>48587</v>
       </c>
       <c r="E342" t="n">
-        <v>23093</v>
+        <v>23095</v>
       </c>
       <c r="F342" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G342" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H342" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I342" t="n">
-        <v>0.9992061409851942</v>
+        <v>0.999331094699522</v>
       </c>
     </row>
     <row r="343">
@@ -12435,19 +12435,19 @@
         <v>38</v>
       </c>
       <c r="E343" t="n">
-        <v>72247</v>
+        <v>72253</v>
       </c>
       <c r="F343" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
       </c>
       <c r="H343" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I343" t="n">
-        <v>0.9500270539667192</v>
+        <v>0.9430841875702942</v>
       </c>
     </row>
     <row r="344">
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>5082</v>
+        <v>5083</v>
       </c>
       <c r="E344" t="n">
         <v>67217</v>
@@ -12476,13 +12476,13 @@
         <v>1</v>
       </c>
       <c r="G344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I344" t="n">
-        <v>0.9999650487680509</v>
+        <v>0.9998369924038926</v>
       </c>
     </row>
     <row r="345">
@@ -12502,22 +12502,22 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E345" t="n">
-        <v>71793</v>
+        <v>71823</v>
       </c>
       <c r="F345" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G345" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H345" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I345" t="n">
-        <v>0.9709105647063455</v>
+        <v>0.9690878954558001</v>
       </c>
     </row>
     <row r="346">
@@ -12537,22 +12537,22 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>8353</v>
+        <v>8384</v>
       </c>
       <c r="E346" t="n">
-        <v>63854</v>
+        <v>63851</v>
       </c>
       <c r="F346" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G346" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H346" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I346" t="n">
-        <v>0.9997415027893835</v>
+        <v>0.9998114682541048</v>
       </c>
     </row>
     <row r="347">
@@ -12572,22 +12572,22 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E347" t="n">
-        <v>72203</v>
+        <v>72205</v>
       </c>
       <c r="F347" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H347" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I347" t="n">
-        <v>0.9961844053335969</v>
+        <v>0.9952023622573473</v>
       </c>
     </row>
     <row r="348">
@@ -12610,19 +12610,19 @@
         <v>216</v>
       </c>
       <c r="E348" t="n">
-        <v>72026</v>
+        <v>72030</v>
       </c>
       <c r="F348" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G348" t="n">
         <v>4</v>
       </c>
       <c r="H348" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I348" t="n">
-        <v>0.9411299379045568</v>
+        <v>0.9486317847708472</v>
       </c>
     </row>
     <row r="349">
@@ -12654,10 +12654,10 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I349" t="n">
-        <v>0.9991777575164337</v>
+        <v>0.999824462939449</v>
       </c>
     </row>
     <row r="350">
@@ -12680,19 +12680,19 @@
         <v>8460</v>
       </c>
       <c r="E350" t="n">
-        <v>63353</v>
+        <v>63346</v>
       </c>
       <c r="F350" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="G350" t="n">
         <v>9</v>
       </c>
       <c r="H350" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I350" t="n">
-        <v>0.9668781469977792</v>
+        <v>0.9653417678276376</v>
       </c>
     </row>
     <row r="351">
@@ -12712,22 +12712,22 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E351" t="n">
-        <v>72142</v>
+        <v>72141</v>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>0.03248453140258789</v>
+        <v>0.1023112999973819</v>
       </c>
       <c r="I351" t="n">
-        <v>0.9999610588121118</v>
+        <v>0.9999225998773099</v>
       </c>
     </row>
     <row r="352">
@@ -12759,7 +12759,7 @@
         <v>90</v>
       </c>
       <c r="H352" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I352" t="n">
         <v>0.9996538843178966</v>
@@ -12794,7 +12794,7 @@
         <v>3</v>
       </c>
       <c r="H353" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I353" t="n">
         <v>0.8254609537524574</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>42</v>
       </c>
       <c r="H355" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I355" t="n">
         <v>0.9147422341568966</v>
@@ -12899,7 +12899,7 @@
         <v>23</v>
       </c>
       <c r="H356" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I356" t="n">
         <v>0.9971893369697573</v>
@@ -12934,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="H357" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I357" t="n">
         <v>0.9516514124206377</v>
@@ -12969,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="H358" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I358" t="n">
         <v>0.9734885664580483</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I359" t="n">
         <v>0.9954954954954955</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I360" t="n">
         <v>0.9999479353741666</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.079936265945435</v>
+        <v>1.866752600006294</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>99</v>
       </c>
       <c r="H362" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I362" t="n">
         <v>0.9999138441352498</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="H365" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I365" t="n">
         <v>0.9681697746108191</v>
@@ -13249,7 +13249,7 @@
         <v>33</v>
       </c>
       <c r="H366" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I366" t="n">
         <v>0.9999072503431516</v>
@@ -13284,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="H367" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I367" t="n">
         <v>0.9791254812157434</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I368" t="n">
         <v>0.9966604061343433</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I370" t="n">
         <v>0.9976287500606826</v>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="n">
-        <v>0.2000160217285156</v>
+        <v>0.4573861000098987</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>50</v>
       </c>
       <c r="H372" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I372" t="n">
         <v>0.9995216460181114</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I373" t="n">
         <v>0.9634146341463414</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I374" t="n">
         <v>0.9998025666337611</v>
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="H375" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I375" t="n">
         <v>0.9479532067404028</v>
@@ -13599,7 +13599,7 @@
         <v>25</v>
       </c>
       <c r="H376" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I376" t="n">
         <v>0.997598001117936</v>
@@ -13634,7 +13634,7 @@
         <v>6</v>
       </c>
       <c r="H377" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I377" t="n">
         <v>0.9031758795799545</v>
@@ -13669,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="H378" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I378" t="n">
         <v>0.9752375656378854</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="H380" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I380" t="n">
         <v>0.9998361055617031</v>
@@ -13774,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="H381" t="n">
-        <v>0.002634286880493164</v>
+        <v>0.03948510000191163</v>
       </c>
       <c r="I381" t="n">
         <v>0.9804479194730112</v>
@@ -13797,22 +13797,22 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>48542</v>
+        <v>48564</v>
       </c>
       <c r="E382" t="n">
-        <v>23071</v>
+        <v>23088</v>
       </c>
       <c r="F382" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G382" t="n">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="H382" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I382" t="n">
-        <v>0.9993614672143052</v>
+        <v>0.9993935318065436</v>
       </c>
     </row>
     <row r="383">
@@ -13832,22 +13832,22 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E383" t="n">
-        <v>72226</v>
+        <v>72239</v>
       </c>
       <c r="F383" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I383" t="n">
-        <v>0.9829179825482911</v>
+        <v>0.9637666110668449</v>
       </c>
     </row>
     <row r="384">
@@ -13867,22 +13867,22 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>5079</v>
+        <v>5082</v>
       </c>
       <c r="E384" t="n">
-        <v>67218</v>
+        <v>67216</v>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G384" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H384" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I384" t="n">
-        <v>0.9999771987295913</v>
+        <v>0.999989957546405</v>
       </c>
     </row>
     <row r="385">
@@ -13902,22 +13902,22 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E385" t="n">
-        <v>71798</v>
+        <v>71789</v>
       </c>
       <c r="F385" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G385" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H385" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I385" t="n">
-        <v>0.9652406333092176</v>
+        <v>0.9623997155007415</v>
       </c>
     </row>
     <row r="386">
@@ -13937,22 +13937,22 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>8359</v>
+        <v>8340</v>
       </c>
       <c r="E386" t="n">
-        <v>63833</v>
+        <v>63845</v>
       </c>
       <c r="F386" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G386" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H386" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I386" t="n">
-        <v>0.9998613098515249</v>
+        <v>0.9998843712295415</v>
       </c>
     </row>
     <row r="387">
@@ -13975,19 +13975,19 @@
         <v>90</v>
       </c>
       <c r="E387" t="n">
-        <v>72194</v>
+        <v>72201</v>
       </c>
       <c r="F387" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
       </c>
       <c r="H387" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I387" t="n">
-        <v>0.9768686079421391</v>
+        <v>0.9723913400334457</v>
       </c>
     </row>
     <row r="388">
@@ -14007,22 +14007,22 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E388" t="n">
-        <v>72021</v>
+        <v>72023</v>
       </c>
       <c r="F388" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H388" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I388" t="n">
-        <v>0.9199565799002031</v>
+        <v>0.8945164600141402</v>
       </c>
     </row>
     <row r="389">
@@ -14054,10 +14054,10 @@
         <v>2</v>
       </c>
       <c r="H389" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I389" t="n">
-        <v>0.9999353490485862</v>
+        <v>0.9997053531868852</v>
       </c>
     </row>
     <row r="390">
@@ -14077,22 +14077,22 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>8430</v>
+        <v>8428</v>
       </c>
       <c r="E390" t="n">
-        <v>63384</v>
+        <v>63377</v>
       </c>
       <c r="F390" t="n">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G390" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H390" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I390" t="n">
-        <v>0.9653809958990094</v>
+        <v>0.9644888237438812</v>
       </c>
     </row>
     <row r="391">
@@ -14115,19 +14115,19 @@
         <v>158</v>
       </c>
       <c r="E391" t="n">
-        <v>72141</v>
+        <v>72142</v>
       </c>
       <c r="F391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
       </c>
       <c r="H391" t="n">
-        <v>0.03268074989318848</v>
+        <v>0.1049136000074213</v>
       </c>
       <c r="I391" t="n">
-        <v>0.9997692109954641</v>
+        <v>0.9998100286400591</v>
       </c>
     </row>
     <row r="392">
@@ -14147,22 +14147,22 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>49028</v>
+        <v>48960</v>
       </c>
       <c r="E392" t="n">
-        <v>23101</v>
+        <v>23113</v>
       </c>
       <c r="F392" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G392" t="n">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="H392" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I392" t="n">
-        <v>0.9995378598926368</v>
+        <v>0.9993860942048887</v>
       </c>
     </row>
     <row r="393">
@@ -14182,22 +14182,22 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E393" t="n">
-        <v>72203</v>
+        <v>72210</v>
       </c>
       <c r="F393" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I393" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8118976747068603</v>
       </c>
     </row>
     <row r="394">
@@ -14217,7 +14217,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>5085</v>
+        <v>5090</v>
       </c>
       <c r="E394" t="n">
         <v>67173</v>
@@ -14226,13 +14226,13 @@
         <v>2</v>
       </c>
       <c r="G394" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H394" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I394" t="n">
-        <v>0.9990727981097148</v>
+        <v>0.9994385145598319</v>
       </c>
     </row>
     <row r="395">
@@ -14252,22 +14252,22 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="E395" t="n">
-        <v>71810</v>
+        <v>71830</v>
       </c>
       <c r="F395" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G395" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H395" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I395" t="n">
-        <v>0.9023945900952297</v>
+        <v>0.896102079428085</v>
       </c>
     </row>
     <row r="396">
@@ -14287,22 +14287,22 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>8407</v>
+        <v>8413</v>
       </c>
       <c r="E396" t="n">
-        <v>63788</v>
+        <v>63761</v>
       </c>
       <c r="F396" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G396" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H396" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I396" t="n">
-        <v>0.9971275563827162</v>
+        <v>0.9958753541164689</v>
       </c>
     </row>
     <row r="397">
@@ -14322,22 +14322,22 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E397" t="n">
-        <v>72166</v>
+        <v>72149</v>
       </c>
       <c r="F397" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G397" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H397" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I397" t="n">
-        <v>0.9362464117102796</v>
+        <v>0.8709552038293067</v>
       </c>
     </row>
     <row r="398">
@@ -14357,22 +14357,22 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E398" t="n">
-        <v>72041</v>
+        <v>72054</v>
       </c>
       <c r="F398" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G398" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H398" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I398" t="n">
-        <v>0.9534380950434587</v>
+        <v>0.9810379914816794</v>
       </c>
     </row>
     <row r="399">
@@ -14395,19 +14395,19 @@
         <v>220</v>
       </c>
       <c r="E399" t="n">
-        <v>72049</v>
+        <v>72050</v>
       </c>
       <c r="F399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I399" t="n">
-        <v>0.9954954954954955</v>
+        <v>0.997737556561086</v>
       </c>
     </row>
     <row r="400">
@@ -14430,19 +14430,19 @@
         <v>8471</v>
       </c>
       <c r="E400" t="n">
-        <v>63791</v>
+        <v>63708</v>
       </c>
       <c r="F400" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G400" t="n">
         <v>8</v>
       </c>
       <c r="H400" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I400" t="n">
-        <v>0.9995835378062987</v>
+        <v>0.9947320074343255</v>
       </c>
     </row>
     <row r="401">
@@ -14465,16 +14465,16 @@
         <v>163</v>
       </c>
       <c r="E401" t="n">
-        <v>72108</v>
+        <v>72105</v>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>1.009517908096313</v>
+        <v>2.784062899998389</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>

--- a/5_analisis_de_resultados/DB/validation_results.xlsx
+++ b/5_analisis_de_resultados/DB/validation_results.xlsx
@@ -500,19 +500,19 @@
         <v>49136</v>
       </c>
       <c r="E2" t="n">
-        <v>23050</v>
+        <v>23053</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999995972635767</v>
+        <v>0.9999996339059232</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I4" t="n">
         <v>0.9999999213506507</v>
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E5" t="n">
-        <v>71780</v>
+        <v>71776</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9953667624971186</v>
+        <v>0.9948978349310058</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8399</v>
+        <v>8395</v>
       </c>
       <c r="E6" t="n">
         <v>63790</v>
@@ -646,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9998750729443322</v>
+        <v>0.9998755904991684</v>
       </c>
     </row>
     <row r="7">
@@ -675,19 +675,19 @@
         <v>89</v>
       </c>
       <c r="E7" t="n">
-        <v>72124</v>
+        <v>72125</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9589145756650578</v>
+        <v>0.9588109077096305</v>
       </c>
     </row>
     <row r="8">
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9958311761352511</v>
+        <v>0.9958494729302853</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9998936040234774</v>
+        <v>0.9998934830830577</v>
       </c>
     </row>
     <row r="11">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4472720000048866</v>
+        <v>0.1934395539999514</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I12" t="n">
         <v>0.9995811118072994</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I13" t="n">
         <v>0.9318181818181819</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I15" t="n">
         <v>0.927815790633807</v>
@@ -999,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I16" t="n">
         <v>0.9974815182021886</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I17" t="n">
         <v>0.9328610525854245</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I18" t="n">
         <v>0.9776131749074363</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I19" t="n">
         <v>0.9975961538461539</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I20" t="n">
         <v>0.9997245269569911</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04152460000477731</v>
+        <v>0.01511697199998707</v>
       </c>
       <c r="I21" t="n">
         <v>0.9806918252043713</v>
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48497</v>
+        <v>48600</v>
       </c>
       <c r="E22" t="n">
-        <v>23088</v>
+        <v>23070</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G22" t="n">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9992824064086686</v>
+        <v>0.9992264820102851</v>
       </c>
     </row>
     <row r="23">
@@ -1235,19 +1235,19 @@
         <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>72220</v>
+        <v>72242</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I23" t="n">
-        <v>0.798782378781383</v>
+        <v>0.8566494872053091</v>
       </c>
     </row>
     <row r="24">
@@ -1279,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9998950768208124</v>
+        <v>0.9998660488808364</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E25" t="n">
-        <v>71794</v>
+        <v>71805</v>
       </c>
       <c r="F25" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9518136285091173</v>
+        <v>0.9717113053092177</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8346</v>
+        <v>8372</v>
       </c>
       <c r="E26" t="n">
-        <v>63845</v>
+        <v>63842</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9998908489049387</v>
+        <v>0.9999314319153543</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" t="n">
-        <v>72206</v>
+        <v>72198</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9414615767633483</v>
+        <v>0.9433818440787415</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>216</v>
       </c>
       <c r="E28" t="n">
-        <v>72004</v>
+        <v>72026</v>
       </c>
       <c r="F28" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8993035294930014</v>
+        <v>0.8797321216793926</v>
       </c>
     </row>
     <row r="29">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9993080562041047</v>
+        <v>0.9999570329090209</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8462</v>
+        <v>8430</v>
       </c>
       <c r="E30" t="n">
-        <v>63309</v>
+        <v>63378</v>
       </c>
       <c r="F30" t="n">
-        <v>524</v>
+        <v>455</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9689617310769346</v>
+        <v>0.9669005048644534</v>
       </c>
     </row>
     <row r="31">
@@ -1515,19 +1515,19 @@
         <v>159</v>
       </c>
       <c r="E31" t="n">
-        <v>72140</v>
+        <v>72141</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1150537999928929</v>
+        <v>0.04394761699995797</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9994627463054186</v>
+        <v>0.9995289815499394</v>
       </c>
     </row>
     <row r="32">
@@ -1559,7 +1559,7 @@
         <v>114</v>
       </c>
       <c r="H32" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I32" t="n">
         <v>0.9996208879486046</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I33" t="n">
         <v>0.846938775510204</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I34" t="n">
         <v>0.9992553090703489</v>
@@ -1664,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="H35" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I35" t="n">
         <v>0.8988801813950157</v>
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I36" t="n">
         <v>0.9966401672628556</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I37" t="n">
         <v>0.8949675008351735</v>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I38" t="n">
         <v>0.9571067967474096</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I39" t="n">
         <v>0.9954954954954955</v>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I40" t="n">
         <v>0.9995696175604922</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.831143899995368</v>
+        <v>1.059802350000155</v>
       </c>
       <c r="I41" t="n">
         <v>0.9969512195121951</v>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>49136</v>
+        <v>49138</v>
       </c>
       <c r="E42" t="n">
         <v>23052</v>
@@ -1906,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I42" t="n">
-        <v>0.999998114457499</v>
+        <v>0.9999986231746413</v>
       </c>
     </row>
     <row r="43">
@@ -1944,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9987335834896811</v>
+        <v>0.9978693078522913</v>
       </c>
     </row>
     <row r="44">
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9999997246180363</v>
+        <v>0.9999995278698153</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E45" t="n">
-        <v>71784</v>
+        <v>71783</v>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9960607118796637</v>
+        <v>0.9961275624725848</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>8398</v>
       </c>
       <c r="E46" t="n">
-        <v>63790</v>
+        <v>63789</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9997560870158967</v>
+        <v>0.9996530258546075</v>
       </c>
     </row>
     <row r="47">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" t="n">
         <v>72122</v>
@@ -2081,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I47" t="n">
-        <v>0.984130687645478</v>
+        <v>0.9881267635006663</v>
       </c>
     </row>
     <row r="48">
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2189,10 +2189,10 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I50" t="n">
-        <v>0.999893995443905</v>
+        <v>0.9998939548296485</v>
       </c>
     </row>
     <row r="51">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" t="n">
         <v>72063</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>0.414459400009946</v>
+        <v>0.1931465169998319</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I52" t="n">
         <v>0.9995910956377173</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I53" t="n">
         <v>0.8979601562884917</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I55" t="n">
         <v>0.953741120900783</v>
@@ -2399,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I56" t="n">
         <v>0.9978212652621351</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I57" t="n">
         <v>0.896234859220527</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I58" t="n">
         <v>0.9554792362931447</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I59" t="n">
         <v>0.9952153110047847</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I60" t="n">
         <v>0.9997630893153282</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03343120000499766</v>
+        <v>0.01231069300001764</v>
       </c>
       <c r="I61" t="n">
         <v>0.9810126582278481</v>
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>48519</v>
+        <v>48414</v>
       </c>
       <c r="E62" t="n">
-        <v>23090</v>
+        <v>23093</v>
       </c>
       <c r="F62" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G62" t="n">
-        <v>654</v>
+        <v>759</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9992751401413018</v>
+        <v>0.9993429223488033</v>
       </c>
     </row>
     <row r="63">
@@ -2635,19 +2635,19 @@
         <v>39</v>
       </c>
       <c r="E63" t="n">
-        <v>72255</v>
+        <v>72240</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9815561970938397</v>
+        <v>0.828561830672877</v>
       </c>
     </row>
     <row r="64">
@@ -2679,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9997336584938263</v>
+        <v>0.9994387646802516</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E65" t="n">
-        <v>71829</v>
+        <v>71816</v>
       </c>
       <c r="F65" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I65" t="n">
-        <v>0.950666078393761</v>
+        <v>0.9462178147796061</v>
       </c>
     </row>
     <row r="66">
@@ -2737,22 +2737,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8386</v>
+        <v>8370</v>
       </c>
       <c r="E66" t="n">
-        <v>63838</v>
+        <v>63843</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9997760223006259</v>
+        <v>0.9998373714564377</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" t="n">
-        <v>72200</v>
+        <v>72183</v>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I67" t="n">
-        <v>0.979293948915126</v>
+        <v>0.9772610942014081</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>71954</v>
+        <v>71963</v>
       </c>
       <c r="F68" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8765245217835338</v>
+        <v>0.8510469692896657</v>
       </c>
     </row>
     <row r="69">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E69" t="n">
         <v>72086</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9997263318475749</v>
+        <v>0.9964681015401342</v>
       </c>
     </row>
     <row r="70">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8458</v>
+        <v>8462</v>
       </c>
       <c r="E70" t="n">
-        <v>63345</v>
+        <v>63277</v>
       </c>
       <c r="F70" t="n">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="G70" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9640972190262748</v>
+        <v>0.9640444867832781</v>
       </c>
     </row>
     <row r="71">
@@ -2915,19 +2915,19 @@
         <v>160</v>
       </c>
       <c r="E71" t="n">
-        <v>72141</v>
+        <v>72140</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1115085000055842</v>
+        <v>0.04440977099989141</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -2959,7 +2959,7 @@
         <v>116</v>
       </c>
       <c r="H72" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I72" t="n">
         <v>0.9996025942964724</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I73" t="n">
         <v>0.83137236147191</v>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I74" t="n">
         <v>0.9995369193627702</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="H75" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I75" t="n">
         <v>0.917614799752473</v>
@@ -3099,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I76" t="n">
         <v>0.9971873911818152</v>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I77" t="n">
         <v>0.9331223143596818</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I78" t="n">
         <v>0.9694706888886376</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I79" t="n">
         <v>0.997737556561086</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I80" t="n">
         <v>0.9997396068202016</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.470764400000917</v>
+        <v>0.9892354140001771</v>
       </c>
       <c r="I81" t="n">
         <v>0.9939393939393939</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>49137</v>
+        <v>49139</v>
       </c>
       <c r="E82" t="n">
-        <v>23055</v>
+        <v>23054</v>
       </c>
       <c r="F82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9999992301459814</v>
+        <v>0.9999993075587708</v>
       </c>
     </row>
     <row r="83">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -3370,19 +3370,19 @@
         <v>5042</v>
       </c>
       <c r="E84" t="n">
-        <v>67176</v>
+        <v>67177</v>
       </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1920477289997962</v>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.3894576000020606</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.9999999213272502</v>
       </c>
     </row>
     <row r="85">
@@ -3402,22 +3402,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E85" t="n">
-        <v>71786</v>
+        <v>71784</v>
       </c>
       <c r="F85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9965671994642877</v>
+        <v>0.9965036967036042</v>
       </c>
     </row>
     <row r="86">
@@ -3437,22 +3437,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8404</v>
+        <v>8403</v>
       </c>
       <c r="E86" t="n">
-        <v>63791</v>
+        <v>63792</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I86" t="n">
-        <v>0.999930115646414</v>
+        <v>0.9999331081435416</v>
       </c>
     </row>
     <row r="87">
@@ -3472,22 +3472,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E87" t="n">
-        <v>72123</v>
+        <v>72124</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9756921667715844</v>
+        <v>0.9758545533212296</v>
       </c>
     </row>
     <row r="88">
@@ -3519,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9962004305828409</v>
+        <v>0.9961845699966275</v>
       </c>
     </row>
     <row r="89">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I90" t="n">
         <v>0.9999999860518941</v>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E91" t="n">
         <v>72063</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3894576000020606</v>
+        <v>0.1920477289997962</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9997618457763385</v>
+        <v>0.9998986962242581</v>
       </c>
     </row>
     <row r="92">
@@ -3659,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="H92" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I92" t="n">
         <v>0.9995507193116855</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I93" t="n">
         <v>0.9612080195363548</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I95" t="n">
         <v>0.9482051489594997</v>
@@ -3799,7 +3799,7 @@
         <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I96" t="n">
         <v>0.9975603634264166</v>
@@ -3834,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I97" t="n">
         <v>0.8899908101648437</v>
@@ -3869,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I98" t="n">
         <v>0.9732683816837192</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I99" t="n">
         <v>0.9951760220398265</v>
@@ -3939,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I100" t="n">
         <v>0.9998430524992453</v>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.03543460000946652</v>
+        <v>0.01411989600001107</v>
       </c>
       <c r="I101" t="n">
         <v>0.9802839776374048</v>
@@ -3997,22 +3997,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>48513</v>
+        <v>48555</v>
       </c>
       <c r="E102" t="n">
-        <v>23102</v>
+        <v>23099</v>
       </c>
       <c r="F102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G102" t="n">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="H102" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9994621412100955</v>
+        <v>0.999529695857565</v>
       </c>
     </row>
     <row r="103">
@@ -4035,19 +4035,19 @@
         <v>39</v>
       </c>
       <c r="E103" t="n">
-        <v>72226</v>
+        <v>72246</v>
       </c>
       <c r="F103" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7817165445625802</v>
+        <v>0.887324134724905</v>
       </c>
     </row>
     <row r="104">
@@ -4079,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9993892274050383</v>
+        <v>0.9995201587432703</v>
       </c>
     </row>
     <row r="105">
@@ -4102,22 +4102,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E105" t="n">
-        <v>71816</v>
+        <v>71795</v>
       </c>
       <c r="F105" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G105" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H105" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9616411493752843</v>
+        <v>0.9615769125776419</v>
       </c>
     </row>
     <row r="106">
@@ -4137,22 +4137,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8380</v>
+        <v>8359</v>
       </c>
       <c r="E106" t="n">
-        <v>63829</v>
+        <v>63838</v>
       </c>
       <c r="F106" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G106" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H106" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9999273852624055</v>
+        <v>0.9999210810460613</v>
       </c>
     </row>
     <row r="107">
@@ -4184,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9954373511120627</v>
+        <v>0.994065107863604</v>
       </c>
     </row>
     <row r="108">
@@ -4207,22 +4207,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E108" t="n">
-        <v>72026</v>
+        <v>72035</v>
       </c>
       <c r="F108" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H108" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9263201366878735</v>
+        <v>0.9372002340510044</v>
       </c>
     </row>
     <row r="109">
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9999349474760829</v>
+        <v>0.9999784167618131</v>
       </c>
     </row>
     <row r="110">
@@ -4280,19 +4280,19 @@
         <v>8451</v>
       </c>
       <c r="E110" t="n">
-        <v>63301</v>
+        <v>63338</v>
       </c>
       <c r="F110" t="n">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="G110" t="n">
         <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9644866848055278</v>
+        <v>0.9665625180280234</v>
       </c>
     </row>
     <row r="111">
@@ -4315,16 +4315,16 @@
         <v>160</v>
       </c>
       <c r="E111" t="n">
-        <v>72140</v>
+        <v>72141</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.09565190000284929</v>
+        <v>0.04794659900016995</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>108</v>
       </c>
       <c r="H112" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I112" t="n">
         <v>0.9996360801777742</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I113" t="n">
         <v>0.8564514988687782</v>
@@ -4429,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I114" t="n">
         <v>0.9997188138500056</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="H115" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I115" t="n">
         <v>0.8913159839419261</v>
@@ -4499,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="H116" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I116" t="n">
         <v>0.9959313038186618</v>
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I117" t="n">
         <v>0.9547534771579251</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I118" t="n">
         <v>0.9617977517015224</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I119" t="n">
         <v>0.9932735426008968</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.540883099994971</v>
+        <v>1.038356296000075</v>
       </c>
       <c r="I121" t="n">
         <v>0.9969512195121951</v>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>49130</v>
+        <v>49128</v>
       </c>
       <c r="E122" t="n">
         <v>23052</v>
@@ -4706,13 +4706,13 @@
         <v>18</v>
       </c>
       <c r="G122" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9999873165654974</v>
+        <v>0.9999872382990515</v>
       </c>
     </row>
     <row r="123">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E125" t="n">
-        <v>71774</v>
+        <v>71771</v>
       </c>
       <c r="F125" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G125" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9900954370527612</v>
+        <v>0.9892616743953547</v>
       </c>
     </row>
     <row r="126">
@@ -4837,22 +4837,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>8398</v>
+        <v>8396</v>
       </c>
       <c r="E126" t="n">
-        <v>63787</v>
+        <v>63784</v>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G126" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9999734441209965</v>
+        <v>0.9999190993296373</v>
       </c>
     </row>
     <row r="127">
@@ -4884,10 +4884,10 @@
         <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9914848854144033</v>
+        <v>0.9906930188304015</v>
       </c>
     </row>
     <row r="128">
@@ -4910,19 +4910,19 @@
         <v>207</v>
       </c>
       <c r="E128" t="n">
-        <v>72007</v>
+        <v>72006</v>
       </c>
       <c r="F128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9957848859721655</v>
+        <v>0.9957900410879411</v>
       </c>
     </row>
     <row r="129">
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4989,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9999469302917998</v>
+        <v>0.9999468426106074</v>
       </c>
     </row>
     <row r="131">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E131" t="n">
         <v>72062</v>
@@ -5021,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3751847000094131</v>
+        <v>0.1912398969998321</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>169</v>
       </c>
       <c r="H132" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I132" t="n">
         <v>0.9994100785036032</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I133" t="n">
         <v>0.9871794871794872</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>43</v>
       </c>
       <c r="H135" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I135" t="n">
         <v>0.8297011391925581</v>
@@ -5199,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I136" t="n">
         <v>0.9932763539702985</v>
@@ -5234,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I137" t="n">
         <v>0.8966041198146083</v>
@@ -5269,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I138" t="n">
         <v>0.9734380044169704</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I139" t="n">
         <v>0.9975961538461539</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I140" t="n">
         <v>0.9961577850513517</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>0.03527969999413472</v>
+        <v>0.01267851800002973</v>
       </c>
       <c r="I141" t="n">
         <v>0.9868559850916032</v>
@@ -5397,22 +5397,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48390</v>
+        <v>48472</v>
       </c>
       <c r="E142" t="n">
-        <v>23108</v>
+        <v>23104</v>
       </c>
       <c r="F142" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G142" t="n">
-        <v>783</v>
+        <v>701</v>
       </c>
       <c r="H142" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9994007794353398</v>
+        <v>0.9993228998695354</v>
       </c>
     </row>
     <row r="143">
@@ -5435,19 +5435,19 @@
         <v>39</v>
       </c>
       <c r="E143" t="n">
-        <v>72200</v>
+        <v>72216</v>
       </c>
       <c r="F143" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I143" t="n">
-        <v>0.826174416461733</v>
+        <v>0.8373762216765098</v>
       </c>
     </row>
     <row r="144">
@@ -5479,10 +5479,10 @@
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9996743066094642</v>
+        <v>0.9998648143928686</v>
       </c>
     </row>
     <row r="145">
@@ -5502,22 +5502,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E145" t="n">
-        <v>71803</v>
+        <v>71802</v>
       </c>
       <c r="F145" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G145" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H145" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9517797506443235</v>
+        <v>0.9683962128041398</v>
       </c>
     </row>
     <row r="146">
@@ -5537,22 +5537,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>8367</v>
+        <v>8358</v>
       </c>
       <c r="E146" t="n">
-        <v>63830</v>
+        <v>63844</v>
       </c>
       <c r="F146" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G146" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H146" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9986925196243583</v>
+        <v>0.9990007258558892</v>
       </c>
     </row>
     <row r="147">
@@ -5572,22 +5572,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E147" t="n">
-        <v>72189</v>
+        <v>72202</v>
       </c>
       <c r="F147" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H147" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9766418767660091</v>
+        <v>0.9787554081520835</v>
       </c>
     </row>
     <row r="148">
@@ -5607,22 +5607,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="E148" t="n">
-        <v>71978</v>
+        <v>71972</v>
       </c>
       <c r="F148" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G148" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H148" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I148" t="n">
-        <v>0.8841940734999152</v>
+        <v>0.9170662751173198</v>
       </c>
     </row>
     <row r="149">
@@ -5654,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9989966379458826</v>
+        <v>0.9999570329090209</v>
       </c>
     </row>
     <row r="150">
@@ -5677,22 +5677,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>8459</v>
+        <v>8428</v>
       </c>
       <c r="E150" t="n">
-        <v>63295</v>
+        <v>63365</v>
       </c>
       <c r="F150" t="n">
-        <v>538</v>
+        <v>468</v>
       </c>
       <c r="G150" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H150" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9614352295739612</v>
+        <v>0.9646555518104436</v>
       </c>
     </row>
     <row r="151">
@@ -5724,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.11706740000227</v>
+        <v>0.04434701899981519</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="152">
@@ -5759,7 +5759,7 @@
         <v>128</v>
       </c>
       <c r="H152" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I152" t="n">
         <v>0.9996929043416195</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I153" t="n">
         <v>0.8617021276595744</v>
@@ -5829,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="H154" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I154" t="n">
         <v>0.9991709764256392</v>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="H155" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I155" t="n">
         <v>0.9212032232336401</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="H156" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I156" t="n">
         <v>0.9976297027889192</v>
@@ -5934,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I157" t="n">
         <v>0.9047927269989953</v>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I158" t="n">
         <v>0.9590308042364136</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I159" t="n">
         <v>0.995475113122172</v>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I160" t="n">
         <v>0.9998958715043819</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.36393130000215</v>
+        <v>1.093927507999979</v>
       </c>
       <c r="I161" t="n">
         <v>0.99079754601227</v>
@@ -6097,22 +6097,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>49134</v>
+        <v>49132</v>
       </c>
       <c r="E162" t="n">
-        <v>23048</v>
+        <v>23047</v>
       </c>
       <c r="F162" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G162" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H162" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9999984017161044</v>
+        <v>0.9999879452415285</v>
       </c>
     </row>
     <row r="163">
@@ -6144,10 +6144,10 @@
         <v>7</v>
       </c>
       <c r="H163" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9590775185447843</v>
+        <v>0.9435890715694362</v>
       </c>
     </row>
     <row r="164">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E165" t="n">
-        <v>71779</v>
+        <v>71780</v>
       </c>
       <c r="F165" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G165" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H165" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9938708044562429</v>
+        <v>0.9940928284212596</v>
       </c>
     </row>
     <row r="166">
@@ -6240,19 +6240,19 @@
         <v>8398</v>
       </c>
       <c r="E166" t="n">
-        <v>63788</v>
+        <v>63787</v>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G166" t="n">
         <v>27</v>
       </c>
       <c r="H166" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9998176981560566</v>
+        <v>0.9998181313351501</v>
       </c>
     </row>
     <row r="167">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E167" t="n">
         <v>72122</v>
@@ -6281,13 +6281,13 @@
         <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H167" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9753014846065511</v>
+        <v>0.9775182334278484</v>
       </c>
     </row>
     <row r="168">
@@ -6319,10 +6319,10 @@
         <v>4</v>
       </c>
       <c r="H168" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9994731186244947</v>
+        <v>0.9994498366850563</v>
       </c>
     </row>
     <row r="169">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.391175500000827</v>
+        <v>0.1911125799997535</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>66</v>
       </c>
       <c r="H172" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I172" t="n">
         <v>0.9994849959703292</v>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I173" t="n">
         <v>0.9466582466432528</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I174" t="n">
         <v>0.9999081842357711</v>
@@ -6564,7 +6564,7 @@
         <v>18</v>
       </c>
       <c r="H175" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I175" t="n">
         <v>0.9292761515778079</v>
@@ -6599,7 +6599,7 @@
         <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I176" t="n">
         <v>0.9974475522672595</v>
@@ -6634,7 +6634,7 @@
         <v>6</v>
       </c>
       <c r="H177" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I177" t="n">
         <v>0.717779628858479</v>
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I178" t="n">
         <v>0.9650851238173939</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I179" t="n">
         <v>0.9928571428571429</v>
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I180" t="n">
         <v>0.9994768416641513</v>
@@ -6774,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>0.03358289999596309</v>
+        <v>0.01540748699972028</v>
       </c>
       <c r="I181" t="n">
         <v>0.9742041632292551</v>
@@ -6797,22 +6797,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>48563</v>
+        <v>48569</v>
       </c>
       <c r="E182" t="n">
-        <v>23106</v>
+        <v>23103</v>
       </c>
       <c r="F182" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G182" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H182" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I182" t="n">
-        <v>0.999452102939955</v>
+        <v>0.9994482606225848</v>
       </c>
     </row>
     <row r="183">
@@ -6835,19 +6835,19 @@
         <v>38</v>
       </c>
       <c r="E183" t="n">
-        <v>72228</v>
+        <v>72235</v>
       </c>
       <c r="F183" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
       </c>
       <c r="H183" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I183" t="n">
-        <v>0.858074292522356</v>
+        <v>0.8582296002703662</v>
       </c>
     </row>
     <row r="184">
@@ -6879,10 +6879,10 @@
         <v>2</v>
       </c>
       <c r="H184" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9992810850761542</v>
+        <v>0.9993266601926503</v>
       </c>
     </row>
     <row r="185">
@@ -6905,19 +6905,19 @@
         <v>389</v>
       </c>
       <c r="E185" t="n">
-        <v>71832</v>
+        <v>71830</v>
       </c>
       <c r="F185" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G185" t="n">
         <v>14</v>
       </c>
       <c r="H185" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9718830247412149</v>
+        <v>0.9734193688079632</v>
       </c>
     </row>
     <row r="186">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>8393</v>
+        <v>8391</v>
       </c>
       <c r="E186" t="n">
         <v>63842</v>
@@ -6946,13 +6946,13 @@
         <v>14</v>
       </c>
       <c r="G186" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9999120663669651</v>
+        <v>0.9999198181585193</v>
       </c>
     </row>
     <row r="187">
@@ -6975,19 +6975,19 @@
         <v>87</v>
       </c>
       <c r="E187" t="n">
-        <v>72199</v>
+        <v>72198</v>
       </c>
       <c r="F187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G187" t="n">
         <v>5</v>
       </c>
       <c r="H187" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9833830700048359</v>
+        <v>0.986507434916065</v>
       </c>
     </row>
     <row r="188">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E188" t="n">
         <v>72028</v>
@@ -7016,13 +7016,13 @@
         <v>54</v>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H188" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9372993822911727</v>
+        <v>0.9357793279316732</v>
       </c>
     </row>
     <row r="189">
@@ -7054,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I189" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999784167618132</v>
       </c>
     </row>
     <row r="190">
@@ -7080,19 +7080,19 @@
         <v>8452</v>
       </c>
       <c r="E190" t="n">
-        <v>63375</v>
+        <v>63348</v>
       </c>
       <c r="F190" t="n">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="G190" t="n">
         <v>17</v>
       </c>
       <c r="H190" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9682554651035955</v>
+        <v>0.9691341366426163</v>
       </c>
     </row>
     <row r="191">
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0.09973279999394435</v>
+        <v>0.04735659199968723</v>
       </c>
       <c r="I191" t="n">
         <v>0.9999999999999999</v>
@@ -7159,7 +7159,7 @@
         <v>121</v>
       </c>
       <c r="H192" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I192" t="n">
         <v>0.9995810276193868</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I193" t="n">
         <v>0.8617021276595744</v>
@@ -7229,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="H194" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I194" t="n">
         <v>0.9998101857692622</v>
@@ -7264,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="H195" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I195" t="n">
         <v>0.9132026865033839</v>
@@ -7299,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="H196" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I196" t="n">
         <v>0.9973846934186007</v>
@@ -7334,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I197" t="n">
         <v>0.8713118056536743</v>
@@ -7369,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I198" t="n">
         <v>0.9588429393980865</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I199" t="n">
         <v>0.9977272727272728</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I200" t="n">
         <v>0.9999478940491804</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>1.304842799989274</v>
+        <v>0.9435525750000124</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -7500,19 +7500,19 @@
         <v>49132</v>
       </c>
       <c r="E202" t="n">
-        <v>23051</v>
+        <v>23053</v>
       </c>
       <c r="F202" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G202" t="n">
         <v>16</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9999884610498333</v>
+        <v>0.99998857286079</v>
       </c>
     </row>
     <row r="203">
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="E204" t="n">
         <v>67176</v>
@@ -7576,13 +7576,13 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9996249018864073</v>
+        <v>0.9996242161869463</v>
       </c>
     </row>
     <row r="205">
@@ -7602,22 +7602,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E205" t="n">
-        <v>71778</v>
+        <v>71780</v>
       </c>
       <c r="F205" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G205" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9953354066035638</v>
+        <v>0.9956606321282483</v>
       </c>
     </row>
     <row r="206">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>8402</v>
+        <v>8403</v>
       </c>
       <c r="E206" t="n">
         <v>63790</v>
@@ -7646,13 +7646,13 @@
         <v>3</v>
       </c>
       <c r="G206" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9999852514409062</v>
+        <v>0.9999876336419933</v>
       </c>
     </row>
     <row r="207">
@@ -7675,19 +7675,19 @@
         <v>92</v>
       </c>
       <c r="E207" t="n">
-        <v>72124</v>
+        <v>72123</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
       </c>
       <c r="H207" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9977580795662473</v>
+        <v>0.9972738963231228</v>
       </c>
     </row>
     <row r="208">
@@ -7719,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9959596774282824</v>
+        <v>0.9961555814258597</v>
       </c>
     </row>
     <row r="209">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -7780,19 +7780,19 @@
         <v>8465</v>
       </c>
       <c r="E210" t="n">
-        <v>63750</v>
+        <v>63751</v>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9999470178425062</v>
+        <v>0.9999468825871694</v>
       </c>
     </row>
     <row r="211">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.3718916000070749</v>
+        <v>0.1944152790001681</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>59</v>
       </c>
       <c r="H212" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I212" t="n">
         <v>0.999578890651514</v>
@@ -7894,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I213" t="n">
         <v>0.9127224805986635</v>
@@ -7929,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="H214" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I214" t="n">
         <v>0.9994491054146268</v>
@@ -7964,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="H215" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I215" t="n">
         <v>0.9417474868627919</v>
@@ -7999,7 +7999,7 @@
         <v>39</v>
       </c>
       <c r="H216" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I216" t="n">
         <v>0.9975484341942489</v>
@@ -8034,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I217" t="n">
         <v>0.8920749968034666</v>
@@ -8069,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="H218" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I218" t="n">
         <v>0.9578726711300194</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I219" t="n">
         <v>0.9859154929577465</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I220" t="n">
         <v>0.9997699590479318</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="H221" t="n">
-        <v>0.0352885000029346</v>
+        <v>0.01225921100012783</v>
       </c>
       <c r="I221" t="n">
         <v>0.9934349324600242</v>
@@ -8197,22 +8197,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>48615</v>
+        <v>48606</v>
       </c>
       <c r="E222" t="n">
-        <v>23078</v>
+        <v>23104</v>
       </c>
       <c r="F222" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G222" t="n">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="H222" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9993591395966849</v>
+        <v>0.9995035365599277</v>
       </c>
     </row>
     <row r="223">
@@ -8244,10 +8244,10 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I223" t="n">
-        <v>0.83310583858433</v>
+        <v>0.8898842751877627</v>
       </c>
     </row>
     <row r="224">
@@ -8279,10 +8279,10 @@
         <v>2</v>
       </c>
       <c r="H224" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I224" t="n">
-        <v>0.9999923008733913</v>
+        <v>0.9999947987726991</v>
       </c>
     </row>
     <row r="225">
@@ -8305,19 +8305,19 @@
         <v>388</v>
       </c>
       <c r="E225" t="n">
-        <v>71817</v>
+        <v>71840</v>
       </c>
       <c r="F225" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G225" t="n">
         <v>15</v>
       </c>
       <c r="H225" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I225" t="n">
-        <v>0.9729346149421076</v>
+        <v>0.9642744406754106</v>
       </c>
     </row>
     <row r="226">
@@ -8337,22 +8337,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>8373</v>
+        <v>8402</v>
       </c>
       <c r="E226" t="n">
-        <v>63847</v>
+        <v>63842</v>
       </c>
       <c r="F226" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G226" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H226" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I226" t="n">
-        <v>0.9999500431239603</v>
+        <v>0.9999166573611119</v>
       </c>
     </row>
     <row r="227">
@@ -8372,22 +8372,22 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E227" t="n">
-        <v>72204</v>
+        <v>72198</v>
       </c>
       <c r="F227" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G227" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I227" t="n">
-        <v>0.9697113723495908</v>
+        <v>0.9707769566286737</v>
       </c>
     </row>
     <row r="228">
@@ -8407,22 +8407,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E228" t="n">
-        <v>72011</v>
+        <v>72017</v>
       </c>
       <c r="F228" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H228" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I228" t="n">
-        <v>0.8408787647743465</v>
+        <v>0.9135031388822623</v>
       </c>
     </row>
     <row r="229">
@@ -8454,10 +8454,10 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I229" t="n">
-        <v>0.9999570329090209</v>
+        <v>0.999935845691436</v>
       </c>
     </row>
     <row r="230">
@@ -8477,22 +8477,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>8441</v>
+        <v>8461</v>
       </c>
       <c r="E230" t="n">
-        <v>63401</v>
+        <v>63395</v>
       </c>
       <c r="F230" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H230" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I230" t="n">
-        <v>0.9673076968396431</v>
+        <v>0.9682664147832925</v>
       </c>
     </row>
     <row r="231">
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0.1006801000039559</v>
+        <v>0.04702396699985911</v>
       </c>
       <c r="I231" t="n">
         <v>0.9999610588121118</v>
@@ -8559,7 +8559,7 @@
         <v>106</v>
       </c>
       <c r="H232" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I232" t="n">
         <v>0.9996523650778064</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I233" t="n">
         <v>0.8269230769230769</v>
@@ -8629,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="H234" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I234" t="n">
         <v>0.9993544110620025</v>
@@ -8664,7 +8664,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I235" t="n">
         <v>0.9272123319232953</v>
@@ -8699,7 +8699,7 @@
         <v>33</v>
       </c>
       <c r="H236" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I236" t="n">
         <v>0.9970648849244109</v>
@@ -8734,7 +8734,7 @@
         <v>5</v>
       </c>
       <c r="H237" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I237" t="n">
         <v>0.9178727696302454</v>
@@ -8769,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I238" t="n">
         <v>0.9644066621053299</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I239" t="n">
         <v>0.9977272727272728</v>
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I240" t="n">
         <v>0.9998297677120598</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1.417167899999185</v>
+        <v>1.002857800999664</v>
       </c>
       <c r="I241" t="n">
         <v>0.9968944099378882</v>
@@ -8900,19 +8900,19 @@
         <v>49132</v>
       </c>
       <c r="E242" t="n">
-        <v>23054</v>
+        <v>23053</v>
       </c>
       <c r="F242" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G242" t="n">
         <v>16</v>
       </c>
       <c r="H242" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I242" t="n">
-        <v>0.9999992788737706</v>
+        <v>0.9999991577407126</v>
       </c>
     </row>
     <row r="243">
@@ -8944,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="H243" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9986238369202358</v>
+        <v>0.999316357695859</v>
       </c>
     </row>
     <row r="244">
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -9005,19 +9005,19 @@
         <v>409</v>
       </c>
       <c r="E245" t="n">
-        <v>71778</v>
+        <v>71779</v>
       </c>
       <c r="F245" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
       </c>
       <c r="H245" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I245" t="n">
-        <v>0.9925360565379624</v>
+        <v>0.99372643622773</v>
       </c>
     </row>
     <row r="246">
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="E246" t="n">
         <v>63789</v>
@@ -9046,13 +9046,13 @@
         <v>3</v>
       </c>
       <c r="G246" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H246" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I246" t="n">
-        <v>0.9999814559805068</v>
+        <v>0.9999865946746771</v>
       </c>
     </row>
     <row r="247">
@@ -9072,22 +9072,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E247" t="n">
-        <v>72113</v>
+        <v>72114</v>
       </c>
       <c r="F247" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H247" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I247" t="n">
-        <v>0.9787755776574929</v>
+        <v>0.9772680864798071</v>
       </c>
     </row>
     <row r="248">
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -9154,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I249" t="n">
-        <v>0.9999901671583088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>0.4047903999889968</v>
+        <v>0.1877852279999388</v>
       </c>
       <c r="I251" t="n">
         <v>0.9999585100989887</v>
@@ -9259,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="H252" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I252" t="n">
         <v>0.9995636933964683</v>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I253" t="n">
         <v>0.9590979641051817</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I255" t="n">
         <v>0.9312154332684235</v>
@@ -9399,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="H256" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I256" t="n">
         <v>0.9968528575805354</v>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I257" t="n">
         <v>0.9064884214920302</v>
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I258" t="n">
         <v>0.9778758604299002</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I259" t="n">
         <v>0.9928571428571429</v>
@@ -9539,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="H260" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I260" t="n">
         <v>0.9997176223470254</v>
@@ -9574,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>0.03365539999504108</v>
+        <v>0.01369175899981201</v>
       </c>
       <c r="I261" t="n">
         <v>0.9742041634219074</v>
@@ -9597,22 +9597,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>48530</v>
+        <v>48503</v>
       </c>
       <c r="E262" t="n">
-        <v>23079</v>
+        <v>23098</v>
       </c>
       <c r="F262" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G262" t="n">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="H262" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I262" t="n">
-        <v>0.9993399212562818</v>
+        <v>0.9993861304849233</v>
       </c>
     </row>
     <row r="263">
@@ -9635,19 +9635,19 @@
         <v>38</v>
       </c>
       <c r="E263" t="n">
-        <v>72243</v>
+        <v>72235</v>
       </c>
       <c r="F263" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I263" t="n">
-        <v>0.7660786143704046</v>
+        <v>0.7711697135241175</v>
       </c>
     </row>
     <row r="264">
@@ -9679,10 +9679,10 @@
         <v>2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I264" t="n">
-        <v>0.9997701925935825</v>
+        <v>0.9996952060686582</v>
       </c>
     </row>
     <row r="265">
@@ -9705,19 +9705,19 @@
         <v>389</v>
       </c>
       <c r="E265" t="n">
-        <v>71820</v>
+        <v>71812</v>
       </c>
       <c r="F265" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G265" t="n">
         <v>14</v>
       </c>
       <c r="H265" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9666279356352984</v>
+        <v>0.9659998071692687</v>
       </c>
     </row>
     <row r="266">
@@ -9737,22 +9737,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>8362</v>
+        <v>8373</v>
       </c>
       <c r="E266" t="n">
-        <v>63851</v>
+        <v>63843</v>
       </c>
       <c r="F266" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G266" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H266" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I266" t="n">
-        <v>0.999766855790568</v>
+        <v>0.9998319509575555</v>
       </c>
     </row>
     <row r="267">
@@ -9775,19 +9775,19 @@
         <v>91</v>
       </c>
       <c r="E267" t="n">
-        <v>72198</v>
+        <v>72186</v>
       </c>
       <c r="F267" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I267" t="n">
-        <v>0.9820046831530582</v>
+        <v>0.9811320816841121</v>
       </c>
     </row>
     <row r="268">
@@ -9807,22 +9807,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E268" t="n">
-        <v>72018</v>
+        <v>71992</v>
       </c>
       <c r="F268" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G268" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="H268" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I268" t="n">
-        <v>0.908726355363325</v>
+        <v>0.9236881713524602</v>
       </c>
     </row>
     <row r="269">
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I269" t="n">
-        <v>0.9999567329013783</v>
+        <v>0.9997795236441269</v>
       </c>
     </row>
     <row r="270">
@@ -9877,22 +9877,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>8461</v>
+        <v>8428</v>
       </c>
       <c r="E270" t="n">
-        <v>63307</v>
+        <v>63365</v>
       </c>
       <c r="F270" t="n">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="G270" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H270" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I270" t="n">
-        <v>0.9680909575926963</v>
+        <v>0.9679236156951906</v>
       </c>
     </row>
     <row r="271">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E271" t="n">
         <v>72141</v>
@@ -9921,13 +9921,13 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>0.1050952999939909</v>
+        <v>0.04657548500017583</v>
       </c>
       <c r="I271" t="n">
-        <v>0.9999610588121117</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="272">
@@ -9959,7 +9959,7 @@
         <v>102</v>
       </c>
       <c r="H272" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I272" t="n">
         <v>0.9997078578068193</v>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I273" t="n">
         <v>0.8371693523867437</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I274" t="n">
         <v>0.9997116254645638</v>
@@ -10064,7 +10064,7 @@
         <v>45</v>
       </c>
       <c r="H275" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I275" t="n">
         <v>0.9095453973400324</v>
@@ -10099,7 +10099,7 @@
         <v>30</v>
       </c>
       <c r="H276" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I276" t="n">
         <v>0.9971401812129319</v>
@@ -10134,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I277" t="n">
         <v>0.9370252434230123</v>
@@ -10169,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="H278" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I278" t="n">
         <v>0.9587187857349596</v>
@@ -10204,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I279" t="n">
         <v>0.9910125541707765</v>
@@ -10239,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="H280" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I280" t="n">
         <v>0.9997917689162885</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>1.455116400000406</v>
+        <v>0.980126996999843</v>
       </c>
       <c r="I281" t="n">
         <v>0.9938650306748467</v>
@@ -10297,22 +10297,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>49131</v>
+        <v>49133</v>
       </c>
       <c r="E282" t="n">
-        <v>23044</v>
+        <v>23041</v>
       </c>
       <c r="F282" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G282" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H282" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I282" t="n">
-        <v>0.9999752422627819</v>
+        <v>0.9999856094214146</v>
       </c>
     </row>
     <row r="283">
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I283" t="n">
         <v>0.999316357695859</v>
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E284" t="n">
         <v>67175</v>
@@ -10376,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -10405,19 +10405,19 @@
         <v>408</v>
       </c>
       <c r="E285" t="n">
-        <v>71782</v>
+        <v>71779</v>
       </c>
       <c r="F285" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G285" t="n">
         <v>7</v>
       </c>
       <c r="H285" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I285" t="n">
-        <v>0.9944265354491285</v>
+        <v>0.9946146315523403</v>
       </c>
     </row>
     <row r="286">
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>8405</v>
+        <v>8401</v>
       </c>
       <c r="E286" t="n">
         <v>63786</v>
@@ -10446,13 +10446,13 @@
         <v>6</v>
       </c>
       <c r="G286" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H286" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9998719863728012</v>
+        <v>0.9998714986885555</v>
       </c>
     </row>
     <row r="287">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E287" t="n">
         <v>72120</v>
@@ -10481,13 +10481,13 @@
         <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H287" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I287" t="n">
-        <v>0.9797327823229414</v>
+        <v>0.979155307699985</v>
       </c>
     </row>
     <row r="288">
@@ -10519,10 +10519,10 @@
         <v>3</v>
       </c>
       <c r="H288" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9953664384907742</v>
+        <v>0.9949738395192775</v>
       </c>
     </row>
     <row r="289">
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I289" t="n">
         <v>0.9999901671583088</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E291" t="n">
         <v>72062</v>
@@ -10621,13 +10621,13 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H291" t="n">
-        <v>0.3728903000010177</v>
+        <v>0.1899040069997682</v>
       </c>
       <c r="I291" t="n">
-        <v>0.99222026296623</v>
+        <v>0.9952125042251052</v>
       </c>
     </row>
     <row r="292">
@@ -10659,7 +10659,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I292" t="n">
         <v>0.9996076735177575</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I293" t="n">
         <v>0.9302325581395349</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I294" t="n">
         <v>0.9997039084090011</v>
@@ -10764,7 +10764,7 @@
         <v>13</v>
       </c>
       <c r="H295" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I295" t="n">
         <v>0.9256224386563129</v>
@@ -10799,7 +10799,7 @@
         <v>32</v>
       </c>
       <c r="H296" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I296" t="n">
         <v>0.9975256813879431</v>
@@ -10834,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I297" t="n">
         <v>0.7691318302930992</v>
@@ -10869,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="H298" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I298" t="n">
         <v>0.959905786242649</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I299" t="n">
         <v>0.9975961538461539</v>
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I300" t="n">
         <v>0.9995468442574181</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="H301" t="n">
-        <v>0.03865360000054352</v>
+        <v>0.0167822220000744</v>
       </c>
       <c r="I301" t="n">
         <v>0.9836310110840492</v>
@@ -10997,22 +10997,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>48405</v>
+        <v>48526</v>
       </c>
       <c r="E302" t="n">
-        <v>23094</v>
+        <v>23087</v>
       </c>
       <c r="F302" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G302" t="n">
-        <v>768</v>
+        <v>647</v>
       </c>
       <c r="H302" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I302" t="n">
-        <v>0.9993541885309677</v>
+        <v>0.9994807301840521</v>
       </c>
     </row>
     <row r="303">
@@ -11035,19 +11035,19 @@
         <v>38</v>
       </c>
       <c r="E303" t="n">
-        <v>72207</v>
+        <v>72240</v>
       </c>
       <c r="F303" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I303" t="n">
-        <v>0.8806103137981666</v>
+        <v>0.8854311157975452</v>
       </c>
     </row>
     <row r="304">
@@ -11070,19 +11070,19 @@
         <v>5083</v>
       </c>
       <c r="E304" t="n">
-        <v>67210</v>
+        <v>67212</v>
       </c>
       <c r="F304" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I304" t="n">
-        <v>0.9995730206857082</v>
+        <v>0.9993608286677553</v>
       </c>
     </row>
     <row r="305">
@@ -11102,22 +11102,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E305" t="n">
-        <v>71806</v>
+        <v>71817</v>
       </c>
       <c r="F305" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G305" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H305" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I305" t="n">
-        <v>0.9651654271973724</v>
+        <v>0.9728225864764352</v>
       </c>
     </row>
     <row r="306">
@@ -11137,22 +11137,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>8371</v>
+        <v>8367</v>
       </c>
       <c r="E306" t="n">
-        <v>63836</v>
+        <v>63846</v>
       </c>
       <c r="F306" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G306" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H306" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I306" t="n">
-        <v>0.9998084733949456</v>
+        <v>0.9998371638576932</v>
       </c>
     </row>
     <row r="307">
@@ -11172,22 +11172,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E307" t="n">
-        <v>72191</v>
+        <v>72205</v>
       </c>
       <c r="F307" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G307" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H307" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I307" t="n">
-        <v>0.952192706630709</v>
+        <v>0.9635842434153236</v>
       </c>
     </row>
     <row r="308">
@@ -11207,22 +11207,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E308" t="n">
-        <v>71977</v>
+        <v>72007</v>
       </c>
       <c r="F308" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G308" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H308" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I308" t="n">
-        <v>0.8928952665239785</v>
+        <v>0.926900900463242</v>
       </c>
     </row>
     <row r="309">
@@ -11254,10 +11254,10 @@
         <v>2</v>
       </c>
       <c r="H309" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I309" t="n">
-        <v>0.9963605877503281</v>
+        <v>0.9995816266780564</v>
       </c>
     </row>
     <row r="310">
@@ -11280,19 +11280,19 @@
         <v>8456</v>
       </c>
       <c r="E310" t="n">
-        <v>63346</v>
+        <v>63305</v>
       </c>
       <c r="F310" t="n">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="G310" t="n">
         <v>13</v>
       </c>
       <c r="H310" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9644525857214867</v>
+        <v>0.9730371363508235</v>
       </c>
     </row>
     <row r="311">
@@ -11324,10 +11324,10 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0.1056051999912597</v>
+        <v>0.04571960099974604</v>
       </c>
       <c r="I311" t="n">
-        <v>0.9997734118291346</v>
+        <v>0.9999610588121117</v>
       </c>
     </row>
     <row r="312">
@@ -11359,7 +11359,7 @@
         <v>106</v>
       </c>
       <c r="H312" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I312" t="n">
         <v>0.9996760235004923</v>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I313" t="n">
         <v>0.79309570037754</v>
@@ -11429,7 +11429,7 @@
         <v>5</v>
       </c>
       <c r="H314" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I314" t="n">
         <v>0.9997188906259329</v>
@@ -11464,7 +11464,7 @@
         <v>46</v>
       </c>
       <c r="H315" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I315" t="n">
         <v>0.9050392141643055</v>
@@ -11499,7 +11499,7 @@
         <v>36</v>
       </c>
       <c r="H316" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I316" t="n">
         <v>0.9969737491914041</v>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H317" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I317" t="n">
         <v>0.9451797104539335</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="H318" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I318" t="n">
         <v>0.9777908443472406</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I319" t="n">
         <v>0.9912280701754386</v>
@@ -11639,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="H320" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I320" t="n">
         <v>0.9998958983725421</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>1.59302430000389</v>
+        <v>1.010644683999999</v>
       </c>
       <c r="I321" t="n">
         <v>0.9969135802469136</v>
@@ -11709,10 +11709,10 @@
         <v>15</v>
       </c>
       <c r="H322" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I322" t="n">
-        <v>0.9999430612521907</v>
+        <v>0.9999439760183849</v>
       </c>
     </row>
     <row r="323">
@@ -11744,10 +11744,10 @@
         <v>6</v>
       </c>
       <c r="H323" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I323" t="n">
-        <v>0.8864884273369693</v>
+        <v>0.8814517973003392</v>
       </c>
     </row>
     <row r="324">
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -11805,19 +11805,19 @@
         <v>408</v>
       </c>
       <c r="E325" t="n">
-        <v>71775</v>
+        <v>71777</v>
       </c>
       <c r="F325" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G325" t="n">
         <v>7</v>
       </c>
       <c r="H325" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I325" t="n">
-        <v>0.9943089210703578</v>
+        <v>0.9944476178417588</v>
       </c>
     </row>
     <row r="326">
@@ -11837,22 +11837,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>8403</v>
+        <v>8407</v>
       </c>
       <c r="E326" t="n">
-        <v>63790</v>
+        <v>63789</v>
       </c>
       <c r="F326" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G326" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H326" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I326" t="n">
-        <v>0.9999351233971326</v>
+        <v>0.999936096091621</v>
       </c>
     </row>
     <row r="327">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E327" t="n">
         <v>72122</v>
@@ -11881,13 +11881,13 @@
         <v>2</v>
       </c>
       <c r="G327" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H327" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I327" t="n">
-        <v>0.9795620524549367</v>
+        <v>0.9801874908254369</v>
       </c>
     </row>
     <row r="328">
@@ -11919,10 +11919,10 @@
         <v>4</v>
       </c>
       <c r="H328" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I328" t="n">
-        <v>0.9946864760902967</v>
+        <v>0.9952864496156324</v>
       </c>
     </row>
     <row r="329">
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -11989,10 +11989,10 @@
         <v>7</v>
       </c>
       <c r="H330" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I330" t="n">
-        <v>0.9998407280933789</v>
+        <v>0.9998406268291409</v>
       </c>
     </row>
     <row r="331">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E331" t="n">
         <v>72062</v>
@@ -12021,13 +12021,13 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
-        <v>0.5114351000083843</v>
+        <v>0.1919612269998652</v>
       </c>
       <c r="I331" t="n">
-        <v>0.9999185990982331</v>
+        <v>0.9998786690182678</v>
       </c>
     </row>
     <row r="332">
@@ -12059,7 +12059,7 @@
         <v>146</v>
       </c>
       <c r="H332" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I332" t="n">
         <v>0.9995012455845322</v>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I333" t="n">
         <v>0.9073035906319259</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -12164,7 +12164,7 @@
         <v>37</v>
       </c>
       <c r="H335" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I335" t="n">
         <v>0.8471799559862596</v>
@@ -12199,7 +12199,7 @@
         <v>74</v>
       </c>
       <c r="H336" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I336" t="n">
         <v>0.9938075698633766</v>
@@ -12234,7 +12234,7 @@
         <v>5</v>
       </c>
       <c r="H337" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I337" t="n">
         <v>0.9152989737082389</v>
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I338" t="n">
         <v>0.9977647874478549</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I339" t="n">
         <v>0.9975961538461539</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I340" t="n">
         <v>0.9977070278595295</v>
@@ -12374,7 +12374,7 @@
         <v>3</v>
       </c>
       <c r="H341" t="n">
-        <v>0.03533100000640843</v>
+        <v>0.01258508399996572</v>
       </c>
       <c r="I341" t="n">
         <v>0.9739186324562703</v>
@@ -12397,22 +12397,22 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>48587</v>
+        <v>48471</v>
       </c>
       <c r="E342" t="n">
-        <v>23095</v>
+        <v>23096</v>
       </c>
       <c r="F342" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G342" t="n">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="H342" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I342" t="n">
-        <v>0.999331094699522</v>
+        <v>0.9992060251601281</v>
       </c>
     </row>
     <row r="343">
@@ -12435,19 +12435,19 @@
         <v>38</v>
       </c>
       <c r="E343" t="n">
-        <v>72253</v>
+        <v>72228</v>
       </c>
       <c r="F343" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
       </c>
       <c r="H343" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I343" t="n">
-        <v>0.9430841875702942</v>
+        <v>0.8565090426055577</v>
       </c>
     </row>
     <row r="344">
@@ -12479,10 +12479,10 @@
         <v>1</v>
       </c>
       <c r="H344" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I344" t="n">
-        <v>0.9998369924038926</v>
+        <v>0.9998760329563674</v>
       </c>
     </row>
     <row r="345">
@@ -12502,22 +12502,22 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E345" t="n">
-        <v>71823</v>
+        <v>71790</v>
       </c>
       <c r="F345" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="G345" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H345" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I345" t="n">
-        <v>0.9690878954558001</v>
+        <v>0.9578946144355006</v>
       </c>
     </row>
     <row r="346">
@@ -12537,22 +12537,22 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>8384</v>
+        <v>8348</v>
       </c>
       <c r="E346" t="n">
-        <v>63851</v>
+        <v>63854</v>
       </c>
       <c r="F346" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G346" t="n">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="H346" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I346" t="n">
-        <v>0.9998114682541048</v>
+        <v>0.9997506788847821</v>
       </c>
     </row>
     <row r="347">
@@ -12572,22 +12572,22 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E347" t="n">
-        <v>72205</v>
+        <v>72203</v>
       </c>
       <c r="F347" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H347" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I347" t="n">
-        <v>0.9952023622573473</v>
+        <v>0.985764377768243</v>
       </c>
     </row>
     <row r="348">
@@ -12607,22 +12607,22 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E348" t="n">
-        <v>72030</v>
+        <v>71977</v>
       </c>
       <c r="F348" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G348" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H348" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I348" t="n">
-        <v>0.9486317847708472</v>
+        <v>0.9210144005554709</v>
       </c>
     </row>
     <row r="349">
@@ -12645,19 +12645,19 @@
         <v>215</v>
       </c>
       <c r="E349" t="n">
-        <v>72084</v>
+        <v>72078</v>
       </c>
       <c r="F349" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I349" t="n">
-        <v>0.999824462939449</v>
+        <v>0.9995991738180339</v>
       </c>
     </row>
     <row r="350">
@@ -12680,19 +12680,19 @@
         <v>8460</v>
       </c>
       <c r="E350" t="n">
-        <v>63346</v>
+        <v>63318</v>
       </c>
       <c r="F350" t="n">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="G350" t="n">
         <v>9</v>
       </c>
       <c r="H350" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I350" t="n">
-        <v>0.9653417678276376</v>
+        <v>0.9668400040982142</v>
       </c>
     </row>
     <row r="351">
@@ -12712,22 +12712,22 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E351" t="n">
-        <v>72141</v>
+        <v>72142</v>
       </c>
       <c r="F351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="n">
-        <v>0.1023112999973819</v>
+        <v>0.0457033429997864</v>
       </c>
       <c r="I351" t="n">
-        <v>0.9999225998773099</v>
+        <v>0.9997734118291346</v>
       </c>
     </row>
     <row r="352">
@@ -12759,7 +12759,7 @@
         <v>90</v>
       </c>
       <c r="H352" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I352" t="n">
         <v>0.9996538843178966</v>
@@ -12794,7 +12794,7 @@
         <v>3</v>
       </c>
       <c r="H353" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I353" t="n">
         <v>0.8254609537524574</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>42</v>
       </c>
       <c r="H355" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I355" t="n">
         <v>0.9147422341568966</v>
@@ -12899,7 +12899,7 @@
         <v>23</v>
       </c>
       <c r="H356" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I356" t="n">
         <v>0.9971893369697573</v>
@@ -12934,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="H357" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I357" t="n">
         <v>0.9516514124206377</v>
@@ -12969,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="H358" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I358" t="n">
         <v>0.9734885664580483</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I359" t="n">
         <v>0.9954954954954955</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I360" t="n">
         <v>0.9999479353741666</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.866752600006294</v>
+        <v>1.10560294600009</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>99</v>
       </c>
       <c r="H362" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I362" t="n">
         <v>0.9999138441352498</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>37</v>
       </c>
       <c r="H365" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I365" t="n">
         <v>0.9681697746108191</v>
@@ -13249,7 +13249,7 @@
         <v>33</v>
       </c>
       <c r="H366" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I366" t="n">
         <v>0.9999072503431516</v>
@@ -13284,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="H367" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I367" t="n">
         <v>0.9791254812157434</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I368" t="n">
         <v>0.9966604061343433</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I370" t="n">
         <v>0.9976287500606826</v>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="n">
-        <v>0.4573861000098987</v>
+        <v>0.2093669569999292</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -13459,7 +13459,7 @@
         <v>50</v>
       </c>
       <c r="H372" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I372" t="n">
         <v>0.9995216460181114</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I373" t="n">
         <v>0.9634146341463414</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I374" t="n">
         <v>0.9998025666337611</v>
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="H375" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I375" t="n">
         <v>0.9479532067404028</v>
@@ -13599,7 +13599,7 @@
         <v>25</v>
       </c>
       <c r="H376" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I376" t="n">
         <v>0.997598001117936</v>
@@ -13634,7 +13634,7 @@
         <v>6</v>
       </c>
       <c r="H377" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I377" t="n">
         <v>0.9031758795799545</v>
@@ -13669,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="H378" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I378" t="n">
         <v>0.9752375656378854</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="H380" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I380" t="n">
         <v>0.9998361055617031</v>
@@ -13774,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="H381" t="n">
-        <v>0.03948510000191163</v>
+        <v>0.01366813799995725</v>
       </c>
       <c r="I381" t="n">
         <v>0.9804479194730112</v>
@@ -13797,22 +13797,22 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>48564</v>
+        <v>48530</v>
       </c>
       <c r="E382" t="n">
-        <v>23088</v>
+        <v>23085</v>
       </c>
       <c r="F382" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G382" t="n">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="H382" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I382" t="n">
-        <v>0.9993935318065436</v>
+        <v>0.9993868497958274</v>
       </c>
     </row>
     <row r="383">
@@ -13835,19 +13835,19 @@
         <v>38</v>
       </c>
       <c r="E383" t="n">
-        <v>72239</v>
+        <v>72237</v>
       </c>
       <c r="F383" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
       </c>
       <c r="H383" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I383" t="n">
-        <v>0.9637666110668449</v>
+        <v>0.9586953732256351</v>
       </c>
     </row>
     <row r="384">
@@ -13879,10 +13879,10 @@
         <v>2</v>
       </c>
       <c r="H384" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I384" t="n">
-        <v>0.999989957546405</v>
+        <v>0.9999900972203853</v>
       </c>
     </row>
     <row r="385">
@@ -13902,22 +13902,22 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E385" t="n">
-        <v>71789</v>
+        <v>71830</v>
       </c>
       <c r="F385" t="n">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G385" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H385" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I385" t="n">
-        <v>0.9623997155007415</v>
+        <v>0.9690722614562554</v>
       </c>
     </row>
     <row r="386">
@@ -13937,22 +13937,22 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>8340</v>
+        <v>8380</v>
       </c>
       <c r="E386" t="n">
-        <v>63845</v>
+        <v>63844</v>
       </c>
       <c r="F386" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G386" t="n">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H386" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I386" t="n">
-        <v>0.9998843712295415</v>
+        <v>0.9999436529641333</v>
       </c>
     </row>
     <row r="387">
@@ -13975,19 +13975,19 @@
         <v>90</v>
       </c>
       <c r="E387" t="n">
-        <v>72201</v>
+        <v>72198</v>
       </c>
       <c r="F387" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
       </c>
       <c r="H387" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I387" t="n">
-        <v>0.9723913400334457</v>
+        <v>0.9777273387308667</v>
       </c>
     </row>
     <row r="388">
@@ -14007,22 +14007,22 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E388" t="n">
-        <v>72023</v>
+        <v>72002</v>
       </c>
       <c r="F388" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G388" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H388" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I388" t="n">
-        <v>0.8945164600141402</v>
+        <v>0.8981614576037011</v>
       </c>
     </row>
     <row r="389">
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E389" t="n">
         <v>72087</v>
@@ -14051,13 +14051,13 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H389" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I389" t="n">
-        <v>0.9997053531868852</v>
+        <v>0.9997462975904967</v>
       </c>
     </row>
     <row r="390">
@@ -14077,22 +14077,22 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>8428</v>
+        <v>8456</v>
       </c>
       <c r="E390" t="n">
-        <v>63377</v>
+        <v>63324</v>
       </c>
       <c r="F390" t="n">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="G390" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H390" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I390" t="n">
-        <v>0.9644888237438812</v>
+        <v>0.9660012765927747</v>
       </c>
     </row>
     <row r="391">
@@ -14124,10 +14124,10 @@
         <v>2</v>
       </c>
       <c r="H391" t="n">
-        <v>0.1049136000074213</v>
+        <v>0.04278168600012577</v>
       </c>
       <c r="I391" t="n">
-        <v>0.9998100286400591</v>
+        <v>0.9997692109954641</v>
       </c>
     </row>
     <row r="392">
@@ -14159,7 +14159,7 @@
         <v>178</v>
       </c>
       <c r="H392" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I392" t="n">
         <v>0.9993860942048887</v>
@@ -14194,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I393" t="n">
         <v>0.8118976747068603</v>
@@ -14229,7 +14229,7 @@
         <v>6</v>
       </c>
       <c r="H394" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I394" t="n">
         <v>0.9994385145598319</v>
@@ -14264,7 +14264,7 @@
         <v>57</v>
       </c>
       <c r="H395" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I395" t="n">
         <v>0.896102079428085</v>
@@ -14299,7 +14299,7 @@
         <v>26</v>
       </c>
       <c r="H396" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I396" t="n">
         <v>0.9958753541164689</v>
@@ -14334,7 +14334,7 @@
         <v>9</v>
       </c>
       <c r="H397" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I397" t="n">
         <v>0.8709552038293067</v>
@@ -14369,7 +14369,7 @@
         <v>2</v>
       </c>
       <c r="H398" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I398" t="n">
         <v>0.9810379914816794</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I399" t="n">
         <v>0.997737556561086</v>
@@ -14439,7 +14439,7 @@
         <v>8</v>
       </c>
       <c r="H400" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I400" t="n">
         <v>0.9947320074343255</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>2.784062899998389</v>
+        <v>1.367975832999946</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
